--- a/Data/methods.xlsx
+++ b/Data/methods.xlsx
@@ -1,55 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView activeTab="10"/>
   </bookViews>
   <sheets>
-    <sheet name="FingerKnn3" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="WeightedFingerKnn3" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="HyperbolicAlgo" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="CircularAlgo" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="FingerKnn1" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="FingerNN" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="FingerKnn4" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="FingerKnn2" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="WeightedFingerKnn4" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="W_CircularAlgo" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FingerKnn3" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WeightedFingerKnn3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HyperbolicAlgo" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CircularAlgo" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FingerKnn1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FingerNN" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FingerKnn4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FingerKnn2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WeightedFingerKnn4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="W_CircularAlgo" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultNN" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
   <si>
-    <t xml:space="preserve">Real X</t>
+    <t>Real X</t>
   </si>
   <si>
-    <t xml:space="preserve">Real Y</t>
+    <t>Real Y</t>
   </si>
   <si>
-    <t xml:space="preserve">Est. X</t>
+    <t>Est. X</t>
   </si>
   <si>
-    <t xml:space="preserve">Est. Y</t>
+    <t>Est. Y</t>
   </si>
   <si>
-    <t xml:space="preserve">Duration</t>
+    <t>Duration</t>
   </si>
   <si>
-    <t xml:space="preserve">Error</t>
+    <t>Error</t>
   </si>
   <si>
-    <t xml:space="preserve">Number of executions:</t>
+    <t>Number of executions:</t>
   </si>
 </sst>
 </file>
@@ -57,41 +53,41 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt formatCode="General" numFmtId="164"/>
   </numFmts>
   <fonts count="4">
     <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -99,69 +95,335 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="6">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="3">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="3" name="Comma" xfId="1"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="2"/>
+    <cellStyle builtinId="4" name="Currency" xfId="3"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
+    <cellStyle builtinId="5" name="Percent" xfId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F1048576"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="F19" activeCellId="0" pane="topLeft" sqref="A2:F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
+    <col customWidth="1" max="1025" min="1" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="1" s="2" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -181,7 +443,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="2" s="2" spans="1:6">
       <c r="A2" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -201,7 +463,7 @@
         <v>5.56909328347084</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="3" s="2" spans="1:6">
       <c r="A3" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -221,7 +483,7 @@
         <v>1.21198184804889</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="4" s="2" spans="1:6">
       <c r="A4" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -241,7 +503,7 @@
         <v>2.0319448811422</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="5" s="2" spans="1:6">
       <c r="A5" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -261,7 +523,7 @@
         <v>1.67475371323667</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="6" s="2" spans="1:6">
       <c r="A6" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -281,7 +543,7 @@
         <v>4.31425543981809</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="7" s="2" spans="1:6">
       <c r="A7" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -301,7 +563,7 @@
         <v>1.67475371323667</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="8" s="2" spans="1:6">
       <c r="A8" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -321,7 +583,7 @@
         <v>5.01027943332505</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="9" s="2" spans="1:6">
       <c r="A9" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -341,7 +603,7 @@
         <v>1.5306207890918</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="10" s="2" spans="1:6">
       <c r="A10" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -352,7 +614,7 @@
         <v>4.03</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>9.97</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>0.000472068786621094</v>
@@ -361,7 +623,7 @@
         <v>4.75802480027164</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="11" s="2" spans="1:6">
       <c r="A11" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -381,7 +643,7 @@
         <v>1.29876864760434</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="12" s="2" spans="1:6">
       <c r="A12" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -401,12 +663,12 @@
         <v>2.33257368586718</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="13" s="2" spans="1:6">
       <c r="A13" s="1" t="n">
         <v>4.95</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>8.45</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>3.3</v>
@@ -421,7 +683,7 @@
         <v>4.43811897091549</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="14" s="2" spans="1:6">
       <c r="A14" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -441,7 +703,7 @@
         <v>1.95829007044411</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="15" s="2" spans="1:6">
       <c r="A15" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -461,7 +723,7 @@
         <v>1.97202941154538</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="16" s="2" spans="1:6">
       <c r="A16" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -481,7 +743,7 @@
         <v>7.53570832768891</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="17" s="2" spans="1:6">
       <c r="A17" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -501,7 +763,7 @@
         <v>1.21198184804889</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="18" s="2" spans="1:6">
       <c r="A18" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -521,7 +783,7 @@
         <v>0.85146931829632</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="19" s="2" spans="1:6">
       <c r="A19" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -541,35 +803,40 @@
         <v>1.12645461515323</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row customHeight="1" ht="12.8" r="1048576" s="2" spans="1:6"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1.025" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.025"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="1" verticalDpi="300"/>
+  <headerFooter differentFirst="0" differentOddEven="0">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="G11" activeCellId="1" pane="topLeft" sqref="A2:F19 G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col customWidth="1" max="1025" min="1" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="1" s="2" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -589,394 +856,811 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="B2" s="0" t="n">
+    <row customHeight="1" ht="12.8" r="2" s="2" spans="1:6">
+      <c r="A2" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="B2" s="1" t="n">
         <v>3.25</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>5.05665372976325</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>7.53804876036549</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="1" t="n">
         <v>0.00351762771606445</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="1" t="n">
         <v>4.86908755315642</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="B3" s="0" t="n">
+    <row customHeight="1" ht="12.8" r="3" s="2" spans="1:6">
+      <c r="A3" s="1" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="B3" s="1" t="n">
         <v>3.25</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>1.58585972686162</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>-1.57510611647158</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="1" t="n">
         <v>0.00784683227539063</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="1" t="n">
         <v>5.32991371521703</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="B4" s="0" t="n">
+    <row customHeight="1" ht="12.8" r="4" s="2" spans="1:6">
+      <c r="A4" s="1" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B4" s="1" t="n">
         <v>3.25</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>4.35618511750805</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>2.62578298592961</v>
       </c>
-      <c r="E4" s="0" t="n">
-        <v>0.00981736183166504</v>
-      </c>
-      <c r="F4" s="0" t="n">
+      <c r="E4" s="1" t="n">
+        <v>0.009817361831665041</v>
+      </c>
+      <c r="F4" s="1" t="n">
         <v>2.7772440963799</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+    <row customHeight="1" ht="12.8" r="5" s="2" spans="1:6">
+      <c r="A5" s="1" t="n">
         <v>4.95</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>3.25</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>8.59255942372088</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="1" t="n">
         <v>10.7399449460558</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="1" t="n">
         <v>0.00303483009338379</v>
       </c>
-      <c r="F5" s="0" t="n">
-        <v>8.32871625463878</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="B6" s="0" t="n">
+      <c r="F5" s="1" t="n">
+        <v>8.328716254638779</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="6" s="2" spans="1:6">
+      <c r="A6" s="1" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B6" s="1" t="n">
         <v>0.65</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <v>-1.8076599496001</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="1" t="n">
         <v>8.00137624668449</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="1" t="n">
         <v>0.00250959396362305</v>
       </c>
-      <c r="F6" s="0" t="n">
-        <v>8.12392423939228</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="B7" s="0" t="n">
+      <c r="F6" s="1" t="n">
+        <v>8.123924239392281</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="7" s="2" spans="1:6">
+      <c r="A7" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="B7" s="1" t="n">
         <v>0.65</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="1" t="n">
         <v>3.91322616652906</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="1" t="n">
         <v>4.61559045954938</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="1" t="n">
         <v>0.0123591423034668</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="1" t="n">
         <v>4.13267501835881</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="B8" s="0" t="n">
+    <row customHeight="1" ht="12.8" r="8" s="2" spans="1:6">
+      <c r="A8" s="1" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="B8" s="1" t="n">
         <v>0.65</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="1" t="n">
         <v>8.66148058833245</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="1" t="n">
         <v>7.78592571286994</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="1" t="n">
         <v>0.00264453887939453</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8" s="1" t="n">
         <v>8.60649645509125</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="B9" s="0" t="n">
+    <row customHeight="1" ht="12.8" r="9" s="2" spans="1:6">
+      <c r="A9" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="B9" s="1" t="n">
         <v>5.85</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="1" t="n">
         <v>3.82379907564578</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="1" t="n">
         <v>5.18682514226004</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9" s="1" t="n">
         <v>0.00258207321166992</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9" s="1" t="n">
         <v>1.26207977037751</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="B10" s="0" t="n">
+    <row customHeight="1" ht="12.8" r="10" s="2" spans="1:6">
+      <c r="A10" s="1" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B10" s="1" t="n">
         <v>5.85</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="1" t="n">
         <v>-3.12558571223969</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="1" t="n">
         <v>13.9052971484581</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10" s="1" t="n">
         <v>0.00323009490966797</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10" s="1" t="n">
         <v>9.36450911927078</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="B11" s="0" t="n">
+    <row customHeight="1" ht="12.8" r="11" s="2" spans="1:6">
+      <c r="A11" s="1" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="B11" s="1" t="n">
         <v>5.85</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="1" t="n">
         <v>1.40651152228009</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="1" t="n">
         <v>6.09031270963019</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11" s="1" t="n">
         <v>0.00236845016479492</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11" s="1" t="n">
         <v>2.45527720210158</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+    <row customHeight="1" ht="12.8" r="12" s="2" spans="1:6">
+      <c r="A12" s="1" t="n">
         <v>4.95</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="1" t="n">
         <v>7.15</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="1" t="n">
         <v>4.50724584147636</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12" s="1" t="n">
         <v>4.5628185114286</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12" s="1" t="n">
         <v>0.00251889228820801</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12" s="1" t="n">
         <v>2.62479319179559</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+    <row customHeight="1" ht="12.8" r="13" s="2" spans="1:6">
+      <c r="A13" s="1" t="n">
         <v>4.95</v>
       </c>
-      <c r="B13" s="0" t="n">
-        <v>8.45</v>
-      </c>
-      <c r="C13" s="0" t="n">
+      <c r="B13" s="1" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="C13" s="1" t="n">
         <v>2.28392944511862</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="1" t="n">
         <v>5.78002319646129</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13" s="1" t="n">
         <v>0.00215005874633789</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13" s="1" t="n">
         <v>3.77315628288046</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="B14" s="0" t="n">
+    <row customHeight="1" ht="12.8" r="14" s="2" spans="1:6">
+      <c r="A14" s="1" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="B14" s="1" t="n">
         <v>9.75</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14" s="1" t="n">
         <v>2.70871666762948</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14" s="1" t="n">
         <v>14.7229931071785</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14" s="1" t="n">
         <v>0.00441813468933106</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14" s="1" t="n">
         <v>5.10227283558921</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="B15" s="0" t="n">
+    <row customHeight="1" ht="12.8" r="15" s="2" spans="1:6">
+      <c r="A15" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="B15" s="1" t="n">
         <v>9.75</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15" s="1" t="n">
         <v>1.98122443196609</v>
       </c>
-      <c r="D15" s="0" t="n">
-        <v>8.9038517695522</v>
-      </c>
-      <c r="E15" s="0" t="n">
+      <c r="D15" s="1" t="n">
+        <v>8.903851769552199</v>
+      </c>
+      <c r="E15" s="1" t="n">
         <v>0.00294041633605957</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15" s="1" t="n">
         <v>1.14323344155767</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="B16" s="0" t="n">
+    <row customHeight="1" ht="12.8" r="16" s="2" spans="1:6">
+      <c r="A16" s="1" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B16" s="1" t="n">
         <v>9.75</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16" s="1" t="n">
         <v>10.2170082823894</v>
       </c>
-      <c r="D16" s="0" t="n">
-        <v>9.90141974248763</v>
-      </c>
-      <c r="E16" s="0" t="n">
+      <c r="D16" s="1" t="n">
+        <v>9.901419742487629</v>
+      </c>
+      <c r="E16" s="1" t="n">
         <v>0.00271463394165039</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F16" s="1" t="n">
         <v>8.56834633105734</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="B17" s="0" t="n">
+    <row customHeight="1" ht="12.8" r="17" s="2" spans="1:6">
+      <c r="A17" s="1" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="B17" s="1" t="n">
         <v>12.35</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17" s="1" t="n">
         <v>-5.10270750141464</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17" s="1" t="n">
         <v>15.3173204375574</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17" s="1" t="n">
         <v>0.00433254241943359</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="F17" s="1" t="n">
         <v>9.43164684374007</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="B18" s="0" t="n">
+    <row customHeight="1" ht="12.8" r="18" s="2" spans="1:6">
+      <c r="A18" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="B18" s="1" t="n">
         <v>12.35</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18" s="1" t="n">
         <v>-1.81367339442714</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18" s="1" t="n">
         <v>13.6687700988394</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E18" s="1" t="n">
         <v>0.00468325614929199</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="F18" s="1" t="n">
         <v>4.75039676496555</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="B19" s="0" t="n">
+    <row customHeight="1" ht="12.8" r="19" s="2" spans="1:6">
+      <c r="A19" s="1" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B19" s="1" t="n">
         <v>12.35</v>
       </c>
-      <c r="C19" s="0" t="n">
-        <v>-0.96673447689274</v>
-      </c>
-      <c r="D19" s="0" t="n">
+      <c r="C19" s="1" t="n">
+        <v>-0.9667344768927399</v>
+      </c>
+      <c r="D19" s="1" t="n">
         <v>12.931055427691</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E19" s="1" t="n">
         <v>0.00574874877929688</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F19" s="1" t="n">
         <v>2.68047099081641</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
+  <headerFooter differentFirst="0" differentOddEven="0">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2:F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
+  <cols>
+    <col customWidth="1" max="1025" min="1" style="1" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="12.8" r="1" s="2" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.1039762364493476</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4.36539020676702</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.1040208207236396</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4.527722935326081</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.49</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.1290724145041572</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6.592973249191199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.1024784909354316</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4.104238857419453</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8.210000000000001</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.1055903302298652</v>
+      </c>
+      <c r="F6" t="n">
+        <v>7.563052189707903</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.1263646947013007</v>
+      </c>
+      <c r="F7" t="n">
+        <v>6.293429510096259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.1049942837821113</v>
+      </c>
+      <c r="F8" t="n">
+        <v>7.145618815055275</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="D9" t="n">
+        <v>8.779999999999999</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.1037173138724433</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3.296520291933367</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="D10" t="n">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.1297037469016181</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3.903925200480976</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="D11" t="n">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.1441576348410712</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2.726032075507894</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="B12" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="D12" t="n">
+        <v>8.56</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.1035868989096747</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3.934860376485953</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="B13" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="D13" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.1173441277609931</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.3537326585848541</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="B14" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="D14" t="n">
+        <v>7.01</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.0994291173087226</v>
+      </c>
+      <c r="F14" t="n">
+        <v>4.827389108829023</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="B15" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="D15" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.1040110455618964</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3.93414120028723</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B16" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="D16" t="n">
+        <v>7.07</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.1101851330863105</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3.003880097337809</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="B17" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="D17" t="n">
+        <v>9.07</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.1028923855887519</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5.06892884859794</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="B18" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="D18" t="n">
+        <v>7.19</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.1046945916281806</v>
+      </c>
+      <c r="F18" t="n">
+        <v>6.095499906387177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B19" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="C19" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="D19" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.1001510487662421</v>
+      </c>
+      <c r="F19" t="n">
+        <v>8.906835419305471</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
+  <headerFooter differentFirst="0" differentOddEven="0">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="F19" activeCellId="0" pane="topLeft" sqref="A2:F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
+    <col customWidth="1" max="1025" min="1" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="1" s="2" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -996,7 +1680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="2" s="2" spans="1:6">
       <c r="A2" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -1007,7 +1691,7 @@
         <v>3.94</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>9.54</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>0.000669956207275391</v>
@@ -1016,7 +1700,7 @@
         <v>6.40157793047933</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="3" s="2" spans="1:6">
       <c r="A3" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -1036,7 +1720,7 @@
         <v>1.13648581161403</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="4" s="2" spans="1:6">
       <c r="A4" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -1056,7 +1740,7 @@
         <v>1.8965494984313</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="5" s="2" spans="1:6">
       <c r="A5" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -1076,7 +1760,7 @@
         <v>1.70801053860917</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="6" s="2" spans="1:6">
       <c r="A6" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -1096,7 +1780,7 @@
         <v>3.9355431645454</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="7" s="2" spans="1:6">
       <c r="A7" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -1116,7 +1800,7 @@
         <v>1.89129585205488</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="8" s="2" spans="1:6">
       <c r="A8" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -1136,7 +1820,7 @@
         <v>4.3851567816898</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="9" s="2" spans="1:6">
       <c r="A9" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -1156,7 +1840,7 @@
         <v>2.00848201386022</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="10" s="2" spans="1:6">
       <c r="A10" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -1176,7 +1860,7 @@
         <v>4.97129761732287</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="11" s="2" spans="1:6">
       <c r="A11" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -1196,7 +1880,7 @@
         <v>1.51713545868522</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="12" s="2" spans="1:6">
       <c r="A12" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -1216,12 +1900,12 @@
         <v>3.30151480384384</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="13" s="2" spans="1:6">
       <c r="A13" s="1" t="n">
         <v>4.95</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>8.45</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>3.64</v>
@@ -1236,7 +1920,7 @@
         <v>4.18055020302352</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="14" s="2" spans="1:6">
       <c r="A14" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -1256,7 +1940,7 @@
         <v>2.18874393203042</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="15" s="2" spans="1:6">
       <c r="A15" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -1276,7 +1960,7 @@
         <v>2.0068383093812</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="16" s="2" spans="1:6">
       <c r="A16" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -1296,7 +1980,7 @@
         <v>7.5304714327856</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="17" s="2" spans="1:6">
       <c r="A17" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -1316,7 +2000,7 @@
         <v>2.54049207831869</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="18" s="2" spans="1:6">
       <c r="A18" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -1336,7 +2020,7 @@
         <v>1.07168092266309</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="19" s="2" spans="1:6">
       <c r="A19" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -1357,33 +2041,38 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
+  <headerFooter differentFirst="0" differentOddEven="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F1048576"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="A2:F19 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
+    <col customWidth="1" max="1025" min="1" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="1" s="2" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1403,7 +2092,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="2" s="2" spans="1:6">
       <c r="A2" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -1414,7 +2103,7 @@
         <v>1.66931893319866</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>8.1934280153518</v>
+        <v>8.193428015351801</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>0.0303432941436768</v>
@@ -1423,7 +2112,7 @@
         <v>5.06017313054682</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="3" s="2" spans="1:6">
       <c r="A3" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -1443,7 +2132,7 @@
         <v>8.83588851171716</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="4" s="2" spans="1:6">
       <c r="A4" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -1463,7 +2152,7 @@
         <v>1.0987279978991</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="5" s="2" spans="1:6">
       <c r="A5" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -1483,7 +2172,7 @@
         <v>6.56766717649124</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="6" s="2" spans="1:6">
       <c r="A6" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -1503,7 +2192,7 @@
         <v>6.19978800194271</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="7" s="2" spans="1:6">
       <c r="A7" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -1523,7 +2212,7 @@
         <v>4.44387827206822</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="8" s="2" spans="1:6">
       <c r="A8" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -1543,7 +2232,7 @@
         <v>8.13093396745375</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="9" s="2" spans="1:6">
       <c r="A9" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -1563,7 +2252,7 @@
         <v>3.97739077236483</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="10" s="2" spans="1:6">
       <c r="A10" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -1583,7 +2272,7 @@
         <v>24.709523574366</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="11" s="2" spans="1:6">
       <c r="A11" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -1603,7 +2292,7 @@
         <v>1.01067689508474</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="12" s="2" spans="1:6">
       <c r="A12" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -1623,12 +2312,12 @@
         <v>2.88033507054147</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="13" s="2" spans="1:6">
       <c r="A13" s="1" t="n">
         <v>4.95</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>8.45</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>7.2215343250765</v>
@@ -1643,7 +2332,7 @@
         <v>2.43947757019452</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="14" s="2" spans="1:6">
       <c r="A14" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -1660,10 +2349,10 @@
         <v>0.000882625579833984</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>9.7333436191797</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>9.733343619179699</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="15" s="2" spans="1:6">
       <c r="A15" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -1674,7 +2363,7 @@
         <v>2.97315961791636</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>9.16433076512769</v>
+        <v>9.164330765127691</v>
       </c>
       <c r="E15" s="1" t="n">
         <v>0.000887155532836914</v>
@@ -1683,7 +2372,7 @@
         <v>0.626744499572588</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="16" s="2" spans="1:6">
       <c r="A16" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -1703,7 +2392,7 @@
         <v>1.96692501410404</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="17" s="2" spans="1:6">
       <c r="A17" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -1723,7 +2412,7 @@
         <v>12.5524772197999</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="18" s="2" spans="1:6">
       <c r="A18" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -1743,7 +2432,7 @@
         <v>9.75276305072707</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="19" s="2" spans="1:6">
       <c r="A19" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -1763,35 +2452,40 @@
         <v>4.94952252495522</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row customHeight="1" ht="12.8" r="1048576" s="2" spans="1:6"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
+  <headerFooter differentFirst="0" differentOddEven="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F1048576"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="B29" activeCellId="1" pane="topLeft" sqref="A2:F19 B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
+    <col customWidth="1" max="1025" min="1" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="1" s="2" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1811,7 +2505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="2" s="2" spans="1:6">
       <c r="A2" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -1831,7 +2525,7 @@
         <v>5.4500306758527</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="3" s="2" spans="1:6">
       <c r="A3" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -1851,7 +2545,7 @@
         <v>4.68741812574479</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="4" s="2" spans="1:6">
       <c r="A4" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -1871,7 +2565,7 @@
         <v>4.0412412571023</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="5" s="2" spans="1:6">
       <c r="A5" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -1879,7 +2573,7 @@
         <v>3.25</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>8.36042301704494</v>
+        <v>8.360423017044941</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>9.41282706214786</v>
@@ -1891,7 +2585,7 @@
         <v>7.04353764475863</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="6" s="2" spans="1:6">
       <c r="A6" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -1911,7 +2605,7 @@
         <v>7.26230190904099</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="7" s="2" spans="1:6">
       <c r="A7" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -1931,7 +2625,7 @@
         <v>4.6308566446022</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="8" s="2" spans="1:6">
       <c r="A8" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -1948,10 +2642,10 @@
         <v>0.01253342628479</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>9.13621282397341</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>9.136212823973411</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="9" s="2" spans="1:6">
       <c r="A9" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -1971,7 +2665,7 @@
         <v>2.44162302258057</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="10" s="2" spans="1:6">
       <c r="A10" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -1991,7 +2685,7 @@
         <v>10.640944990253</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="11" s="2" spans="1:6">
       <c r="A11" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -2011,7 +2705,7 @@
         <v>1.33545408019167</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="12" s="2" spans="1:6">
       <c r="A12" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -2031,12 +2725,12 @@
         <v>1.2082198541645</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="13" s="2" spans="1:6">
       <c r="A13" s="1" t="n">
         <v>4.95</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>8.45</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>3.78195120725769</v>
@@ -2051,7 +2745,7 @@
         <v>1.39120009510973</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="14" s="2" spans="1:6">
       <c r="A14" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -2071,7 +2765,7 @@
         <v>5.31632484131553</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="15" s="2" spans="1:6">
       <c r="A15" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -2082,7 +2776,7 @@
         <v>2.33290630378232</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>8.87890437243762</v>
+        <v>8.878904372437621</v>
       </c>
       <c r="E15" s="1" t="n">
         <v>0.0145282745361328</v>
@@ -2091,7 +2785,7 @@
         <v>0.965802642252972</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="16" s="2" spans="1:6">
       <c r="A16" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -2111,7 +2805,7 @@
         <v>6.83680607678319</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="17" s="2" spans="1:6">
       <c r="A17" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -2131,7 +2825,7 @@
         <v>6.4557533508927</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="18" s="2" spans="1:6">
       <c r="A18" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -2151,7 +2845,7 @@
         <v>3.65377875578419</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="19" s="2" spans="1:6">
       <c r="A19" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -2171,7 +2865,7 @@
         <v>3.73835823295843</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="22" s="2" spans="1:6">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
@@ -2179,35 +2873,40 @@
         <v>465552</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row customHeight="1" ht="12.8" r="1048576" s="2" spans="1:6"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
+  <headerFooter differentFirst="0" differentOddEven="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F1048576"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="F1" activeCellId="1" pane="topLeft" sqref="A2:F19 F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
+    <col customWidth="1" max="1025" min="1" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="1" s="2" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2227,7 +2926,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="2" s="2" spans="1:6">
       <c r="A2" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -2244,10 +2943,10 @@
         <v>0.00048065185546875</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>9.88862983430971</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>9.888629834309709</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="3" s="2" spans="1:6">
       <c r="A3" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -2267,7 +2966,7 @@
         <v>0.85146931829632</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="4" s="2" spans="1:6">
       <c r="A4" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -2287,7 +2986,7 @@
         <v>0.85146931829632</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="5" s="2" spans="1:6">
       <c r="A5" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -2307,7 +3006,7 @@
         <v>4.31566912540802</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="6" s="2" spans="1:6">
       <c r="A6" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -2327,7 +3026,7 @@
         <v>4.31566912540802</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="7" s="2" spans="1:6">
       <c r="A7" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -2347,7 +3046,7 @@
         <v>3.37120156620752</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="8" s="2" spans="1:6">
       <c r="A8" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -2367,7 +3066,7 @@
         <v>2.55440795488896</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="9" s="2" spans="1:6">
       <c r="A9" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -2387,7 +3086,7 @@
         <v>2.55440795488896</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="10" s="2" spans="1:6">
       <c r="A10" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -2407,7 +3106,7 @@
         <v>7.66061355245127</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="11" s="2" spans="1:6">
       <c r="A11" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -2427,7 +3126,7 @@
         <v>2.55440795488896</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="12" s="2" spans="1:6">
       <c r="A12" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -2447,12 +3146,12 @@
         <v>4.2573465914816</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="13" s="2" spans="1:6">
       <c r="A13" s="1" t="n">
         <v>4.95</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>8.45</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>4.4</v>
@@ -2467,7 +3166,7 @@
         <v>4.58312120721239</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="14" s="2" spans="1:6">
       <c r="A14" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -2487,7 +3186,7 @@
         <v>3.64485939372152</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="15" s="2" spans="1:6">
       <c r="A15" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -2507,7 +3206,7 @@
         <v>3.64485939372152</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="16" s="2" spans="1:6">
       <c r="A16" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -2527,7 +3226,7 @@
         <v>8.12065268312837</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="17" s="2" spans="1:6">
       <c r="A17" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -2547,7 +3246,7 @@
         <v>3.64485939372152</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="18" s="2" spans="1:6">
       <c r="A18" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -2567,7 +3266,7 @@
         <v>2.02607995893548</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="19" s="2" spans="1:6">
       <c r="A19" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -2587,35 +3286,40 @@
         <v>2.55440795488896</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row customHeight="1" ht="12.8" r="1048576" s="2" spans="1:6"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
+  <headerFooter differentFirst="0" differentOddEven="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="A2:F19 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
+    <col customWidth="1" max="1025" min="1" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="1" s="2" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2635,7 +3339,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="2" s="2" spans="1:6">
       <c r="A2" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -2655,7 +3359,7 @@
         <v>4.5034790332359</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="3" s="2" spans="1:6">
       <c r="A3" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -2675,7 +3379,7 @@
         <v>3.20494445237744</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="4" s="2" spans="1:6">
       <c r="A4" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -2695,7 +3399,7 @@
         <v>2.83529405057353</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="5" s="2" spans="1:6">
       <c r="A5" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -2715,7 +3419,7 @@
         <v>2.942547212715</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="6" s="2" spans="1:6">
       <c r="A6" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -2735,7 +3439,7 @@
         <v>5.79475603794862</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="7" s="2" spans="1:6">
       <c r="A7" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -2755,7 +3459,7 @@
         <v>3.43822904729916</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="8" s="2" spans="1:6">
       <c r="A8" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -2775,7 +3479,7 @@
         <v>4.78584789310714</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="9" s="2" spans="1:6">
       <c r="A9" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -2795,7 +3499,7 @@
         <v>0.572045326809471</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="10" s="2" spans="1:6">
       <c r="A10" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -2815,7 +3519,7 @@
         <v>4.23207129232154</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="11" s="2" spans="1:6">
       <c r="A11" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -2835,7 +3539,7 @@
         <v>0.933151291749974</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="12" s="2" spans="1:6">
       <c r="A12" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -2855,12 +3559,12 @@
         <v>1.66483099699388</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="13" s="2" spans="1:6">
       <c r="A13" s="1" t="n">
         <v>4.95</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>8.45</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>3.45195795779642</v>
@@ -2875,7 +3579,7 @@
         <v>1.76302422930617</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="14" s="2" spans="1:6">
       <c r="A14" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -2895,7 +3599,7 @@
         <v>2.57478084249402</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="15" s="2" spans="1:6">
       <c r="A15" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -2915,7 +3619,7 @@
         <v>0.678721686971644</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="16" s="2" spans="1:6">
       <c r="A16" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -2935,7 +3639,7 @@
         <v>4.83003335844049</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="17" s="2" spans="1:6">
       <c r="A17" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -2946,7 +3650,7 @@
         <v>2.2586813492013</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>9.8456111022601</v>
+        <v>9.845611102260101</v>
       </c>
       <c r="E17" s="1" t="n">
         <v>0.000663042068481445</v>
@@ -2955,7 +3659,7 @@
         <v>2.9671971285209</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="18" s="2" spans="1:6">
       <c r="A18" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -2975,7 +3679,7 @@
         <v>0.520044139336354</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="19" s="2" spans="1:6">
       <c r="A19" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -2996,33 +3700,38 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
+  <headerFooter differentFirst="0" differentOddEven="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="A2:F19 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
+    <col customWidth="1" max="1025" min="1" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="1" s="2" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3042,7 +3751,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="2" s="2" spans="1:6">
       <c r="A2" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -3062,7 +3771,7 @@
         <v>3.62200220872379</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="3" s="2" spans="1:6">
       <c r="A3" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -3082,7 +3791,7 @@
         <v>1.32774244490413</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="4" s="2" spans="1:6">
       <c r="A4" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -3102,7 +3811,7 @@
         <v>2.03651663386283</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="5" s="2" spans="1:6">
       <c r="A5" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -3122,7 +3831,7 @@
         <v>2.65994360842481</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="6" s="2" spans="1:6">
       <c r="A6" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -3142,7 +3851,7 @@
         <v>5.31507290636732</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="7" s="2" spans="1:6">
       <c r="A7" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -3162,7 +3871,7 @@
         <v>1.95816240388789</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="8" s="2" spans="1:6">
       <c r="A8" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -3182,7 +3891,7 @@
         <v>3.98527288902529</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="9" s="2" spans="1:6">
       <c r="A9" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -3202,7 +3911,7 @@
         <v>2.28600087489047</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="10" s="2" spans="1:6">
       <c r="A10" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -3213,7 +3922,7 @@
         <v>3.3</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>8.78</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>0.000477790832519531</v>
@@ -3222,7 +3931,7 @@
         <v>3.36264776626991</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="11" s="2" spans="1:6">
       <c r="A11" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -3242,7 +3951,7 @@
         <v>0.883911760301898</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="12" s="2" spans="1:6">
       <c r="A12" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -3253,7 +3962,7 @@
         <v>3.58</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>8.45</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="E12" s="1" t="n">
         <v>0.000476598739624023</v>
@@ -3262,12 +3971,12 @@
         <v>1.88862383761299</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="13" s="2" spans="1:6">
       <c r="A13" s="1" t="n">
         <v>4.95</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>8.45</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>3.58</v>
@@ -3282,7 +3991,7 @@
         <v>2.38314917703445</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="14" s="2" spans="1:6">
       <c r="A14" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -3302,7 +4011,7 @@
         <v>1.32774244490413</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="15" s="2" spans="1:6">
       <c r="A15" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -3322,7 +4031,7 @@
         <v>1.0463746938836</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="16" s="2" spans="1:6">
       <c r="A16" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -3342,7 +4051,7 @@
         <v>5.54661157825208</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="17" s="2" spans="1:6">
       <c r="A17" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -3362,7 +4071,7 @@
         <v>1.41155942134931</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="18" s="2" spans="1:6">
       <c r="A18" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -3382,7 +4091,7 @@
         <v>0.889550448260243</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="19" s="2" spans="1:6">
       <c r="A19" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -3403,33 +4112,38 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
+  <headerFooter differentFirst="0" differentOddEven="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="A2:F19 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
+    <col customWidth="1" max="1025" min="1" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="1" s="2" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3449,7 +4163,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="2" s="2" spans="1:6">
       <c r="A2" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -3469,7 +4183,7 @@
         <v>8.46788049041789</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="3" s="2" spans="1:6">
       <c r="A3" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -3489,7 +4203,7 @@
         <v>0.85146931829632</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="4" s="2" spans="1:6">
       <c r="A4" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -3509,7 +4223,7 @@
         <v>1.77341478509682</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="5" s="2" spans="1:6">
       <c r="A5" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -3529,7 +4243,7 @@
         <v>2.93981291921782</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="6" s="2" spans="1:6">
       <c r="A6" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -3549,7 +4263,7 @@
         <v>2.10059515376</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="7" s="2" spans="1:6">
       <c r="A7" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -3569,7 +4283,7 @@
         <v>3.04179223485103</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="8" s="2" spans="1:6">
       <c r="A8" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -3589,7 +4303,7 @@
         <v>3.07936681803256</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="9" s="2" spans="1:6">
       <c r="A9" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -3609,7 +4323,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="10" s="2" spans="1:6">
       <c r="A10" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -3629,7 +4343,7 @@
         <v>6.07823987680644</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="11" s="2" spans="1:6">
       <c r="A11" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -3649,7 +4363,7 @@
         <v>1.77341478509682</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="12" s="2" spans="1:6">
       <c r="A12" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -3669,12 +4383,12 @@
         <v>4.83993801613202</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="13" s="2" spans="1:6">
       <c r="A13" s="1" t="n">
         <v>4.95</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>8.45</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>4.4</v>
@@ -3689,7 +4403,7 @@
         <v>3.2962099447699</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="14" s="2" spans="1:6">
       <c r="A14" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -3709,7 +4423,7 @@
         <v>2.65753645318366</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="15" s="2" spans="1:6">
       <c r="A15" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -3729,7 +4443,7 @@
         <v>2.23886131772381</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="16" s="2" spans="1:6">
       <c r="A16" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -3749,7 +4463,7 @@
         <v>7.55463433926487</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="17" s="2" spans="1:6">
       <c r="A17" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -3769,7 +4483,7 @@
         <v>2.02607995893548</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="18" s="2" spans="1:6">
       <c r="A18" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -3789,7 +4503,7 @@
         <v>1.70293863659264</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="19" s="2" spans="1:6">
       <c r="A19" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -3810,33 +4524,38 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
+  <headerFooter differentFirst="0" differentOddEven="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="A2:F19 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
+    <col customWidth="1" max="1025" min="1" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="1" s="2" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3856,7 +4575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="2" s="2" spans="1:6">
       <c r="A2" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -3876,7 +4595,7 @@
         <v>4.77445284823298</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="3" s="2" spans="1:6">
       <c r="A3" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -3896,7 +4615,7 @@
         <v>1.23490890352285</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="4" s="2" spans="1:6">
       <c r="A4" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -3916,7 +4635,7 @@
         <v>1.90420587122296</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="5" s="2" spans="1:6">
       <c r="A5" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -3936,7 +4655,7 @@
         <v>2.58213090295593</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="6" s="2" spans="1:6">
       <c r="A6" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -3956,7 +4675,7 @@
         <v>4.65842247976716</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="7" s="2" spans="1:6">
       <c r="A7" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -3976,7 +4695,7 @@
         <v>2.02071769428587</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="8" s="2" spans="1:6">
       <c r="A8" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -3996,7 +4715,7 @@
         <v>3.74862641510194</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="9" s="2" spans="1:6">
       <c r="A9" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -4016,7 +4735,7 @@
         <v>2.27378539004894</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="10" s="2" spans="1:6">
       <c r="A10" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -4036,7 +4755,7 @@
         <v>3.73530453912395</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="11" s="2" spans="1:6">
       <c r="A11" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -4056,7 +4775,7 @@
         <v>1.20353645561736</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="12" s="2" spans="1:6">
       <c r="A12" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -4076,12 +4795,12 @@
         <v>2.92697796370249</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="13" s="2" spans="1:6">
       <c r="A13" s="1" t="n">
         <v>4.95</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>8.45</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>3.76</v>
@@ -4096,7 +4815,7 @@
         <v>2.85029823001032</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="14" s="2" spans="1:6">
       <c r="A14" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -4116,7 +4835,7 @@
         <v>1.63012269476871</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="15" s="2" spans="1:6">
       <c r="A15" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -4136,7 +4855,7 @@
         <v>1.3877319625922</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="16" s="2" spans="1:6">
       <c r="A16" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -4156,7 +4875,7 @@
         <v>6.07783678622584</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="17" s="2" spans="1:6">
       <c r="A17" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -4176,7 +4895,7 @@
         <v>2.47872951327893</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="18" s="2" spans="1:6">
       <c r="A18" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -4196,7 +4915,7 @@
         <v>1.02396288995256</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="19" s="2" spans="1:6">
       <c r="A19" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -4217,12 +4936,16 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
+  <headerFooter differentFirst="0" differentOddEven="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
--- a/Data/methods.xlsx
+++ b/Data/methods.xlsx
@@ -1,51 +1,65 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FingerKnn3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WeightedFingerKnn3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HyperbolicAlgo" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CircularAlgo" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FingerKnn1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FingerNN" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FingerKnn4" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FingerKnn2" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WeightedFingerKnn4" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="W_CircularAlgo" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultNN" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="FingerKnn3" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="WeightedFingerKnn3" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="HyperbolicAlgo" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="CircularAlgo" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="FingerKnn1" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="FingerNN" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="FingerKnn4" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="FingerKnn2" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="WeightedFingerKnn4" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="W_CircularAlgo" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="MultNN" sheetId="11" state="visible" r:id="rId12"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="10">
   <si>
-    <t>Real X</t>
+    <t xml:space="preserve">Real X</t>
   </si>
   <si>
-    <t>Real Y</t>
+    <t xml:space="preserve">Real Y</t>
   </si>
   <si>
-    <t>Est. X</t>
+    <t xml:space="preserve">Est. X</t>
   </si>
   <si>
-    <t>Est. Y</t>
+    <t xml:space="preserve">Est. Y</t>
   </si>
   <si>
-    <t>Duration</t>
+    <t xml:space="preserve">Duration</t>
   </si>
   <si>
-    <t>Error</t>
+    <t xml:space="preserve">Error</t>
   </si>
   <si>
-    <t>Number of executions:</t>
+    <t xml:space="preserve">Number of executions:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37</t>
   </si>
 </sst>
 </file>
@@ -53,41 +67,46 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="General" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -95,335 +114,73 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" name="Comma" xfId="1"/>
-    <cellStyle builtinId="6" name="Comma [0]" xfId="2"/>
-    <cellStyle builtinId="4" name="Currency" xfId="3"/>
-    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
-    <cellStyle builtinId="5" name="Percent" xfId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="F19" activeCellId="0" pane="topLeft" sqref="A2:F19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F2:F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="12.8" r="1" s="2" spans="1:6">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -443,7 +200,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="2" s="2" spans="1:6">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -463,7 +220,7 @@
         <v>5.56909328347084</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="3" s="2" spans="1:6">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -483,7 +240,7 @@
         <v>1.21198184804889</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="4" s="2" spans="1:6">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -503,7 +260,7 @@
         <v>2.0319448811422</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="5" s="2" spans="1:6">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -523,7 +280,7 @@
         <v>1.67475371323667</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="6" s="2" spans="1:6">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -543,7 +300,7 @@
         <v>4.31425543981809</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="7" s="2" spans="1:6">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -563,7 +320,7 @@
         <v>1.67475371323667</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="8" s="2" spans="1:6">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -583,7 +340,7 @@
         <v>5.01027943332505</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="9" s="2" spans="1:6">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -603,7 +360,7 @@
         <v>1.5306207890918</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="10" s="2" spans="1:6">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -614,7 +371,7 @@
         <v>4.03</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>9.970000000000001</v>
+        <v>9.97</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>0.000472068786621094</v>
@@ -623,7 +380,7 @@
         <v>4.75802480027164</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="11" s="2" spans="1:6">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -643,7 +400,7 @@
         <v>1.29876864760434</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="12" s="2" spans="1:6">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -663,12 +420,12 @@
         <v>2.33257368586718</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="13" s="2" spans="1:6">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>4.95</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>8.449999999999999</v>
+        <v>8.45</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>3.3</v>
@@ -683,7 +440,7 @@
         <v>4.43811897091549</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="14" s="2" spans="1:6">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -703,7 +460,7 @@
         <v>1.95829007044411</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="15" s="2" spans="1:6">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -723,7 +480,7 @@
         <v>1.97202941154538</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="16" s="2" spans="1:6">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -743,7 +500,7 @@
         <v>7.53570832768891</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="17" s="2" spans="1:6">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -763,7 +520,7 @@
         <v>1.21198184804889</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="18" s="2" spans="1:6">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -783,7 +540,7 @@
         <v>0.85146931829632</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="19" s="2" spans="1:6">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -803,40 +560,35 @@
         <v>1.12645461515323</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="1048576" s="2" spans="1:6"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
-  <pageMargins bottom="1.025" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.025"/>
-  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="1" verticalDpi="300"/>
-  <headerFooter differentFirst="0" differentOddEven="0">
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="G11" activeCellId="1" pane="topLeft" sqref="A2:F19 G11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G11" activeCellId="1" sqref="F2:F19 G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="12.8" r="1" s="2" spans="1:6">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -856,7 +608,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="2" s="2" spans="1:6">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -876,7 +628,7 @@
         <v>4.86908755315642</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="3" s="2" spans="1:6">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -896,7 +648,7 @@
         <v>5.32991371521703</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="4" s="2" spans="1:6">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -910,13 +662,13 @@
         <v>2.62578298592961</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0.009817361831665041</v>
+        <v>0.00981736183166504</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>2.7772440963799</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="5" s="2" spans="1:6">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -933,10 +685,10 @@
         <v>0.00303483009338379</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>8.328716254638779</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="6" s="2" spans="1:6">
+        <v>8.32871625463878</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -953,10 +705,10 @@
         <v>0.00250959396362305</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>8.123924239392281</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="7" s="2" spans="1:6">
+        <v>8.12392423939228</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -976,7 +728,7 @@
         <v>4.13267501835881</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="8" s="2" spans="1:6">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -996,7 +748,7 @@
         <v>8.60649645509125</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="9" s="2" spans="1:6">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -1016,7 +768,7 @@
         <v>1.26207977037751</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="10" s="2" spans="1:6">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -1036,7 +788,7 @@
         <v>9.36450911927078</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="11" s="2" spans="1:6">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -1056,7 +808,7 @@
         <v>2.45527720210158</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="12" s="2" spans="1:6">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -1076,12 +828,12 @@
         <v>2.62479319179559</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="13" s="2" spans="1:6">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>4.95</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>8.449999999999999</v>
+        <v>8.45</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>2.28392944511862</v>
@@ -1096,7 +848,7 @@
         <v>3.77315628288046</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="14" s="2" spans="1:6">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -1116,7 +868,7 @@
         <v>5.10227283558921</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="15" s="2" spans="1:6">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -1127,7 +879,7 @@
         <v>1.98122443196609</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>8.903851769552199</v>
+        <v>8.9038517695522</v>
       </c>
       <c r="E15" s="1" t="n">
         <v>0.00294041633605957</v>
@@ -1136,7 +888,7 @@
         <v>1.14323344155767</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="16" s="2" spans="1:6">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -1147,7 +899,7 @@
         <v>10.2170082823894</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>9.901419742487629</v>
+        <v>9.90141974248763</v>
       </c>
       <c r="E16" s="1" t="n">
         <v>0.00271463394165039</v>
@@ -1156,7 +908,7 @@
         <v>8.56834633105734</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="17" s="2" spans="1:6">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -1176,7 +928,7 @@
         <v>9.43164684374007</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="18" s="2" spans="1:6">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -1196,7 +948,7 @@
         <v>4.75039676496555</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="19" s="2" spans="1:6">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -1204,7 +956,7 @@
         <v>12.35</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>-0.9667344768927399</v>
+        <v>-0.96673447689274</v>
       </c>
       <c r="D19" s="1" t="n">
         <v>12.931055427691</v>
@@ -1217,38 +969,33 @@
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
-  <headerFooter differentFirst="0" differentOddEven="0">
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2:F19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="F2:F19 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="12.8" r="1" s="2" spans="1:6">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1268,399 +1015,394 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="B2" s="1" t="n">
         <v>3.25</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="1" t="n">
         <v>1.63</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="1" t="n">
         <v>7.47</v>
       </c>
-      <c r="E2" t="n">
-        <v>0.1039762364493476</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="E2" s="1" t="n">
+        <v>0.103976236449348</v>
+      </c>
+      <c r="F2" s="1" t="n">
         <v>4.36539020676702</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="B3" s="1" t="n">
         <v>3.25</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="1" t="n">
         <v>4.2</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="1" t="n">
         <v>7.76</v>
       </c>
-      <c r="E3" t="n">
-        <v>0.1040208207236396</v>
-      </c>
-      <c r="F3" t="n">
-        <v>4.527722935326081</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="B4" t="n">
+      <c r="E3" s="1" t="n">
+        <v>0.10402082072364</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>4.52772293532608</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B4" s="1" t="n">
         <v>3.25</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="1" t="n">
         <v>3.77</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="1" t="n">
         <v>9.49</v>
       </c>
-      <c r="E4" t="n">
-        <v>0.1290724145041572</v>
-      </c>
-      <c r="F4" t="n">
-        <v>6.592973249191199</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="n">
+      <c r="E4" s="1" t="n">
+        <v>0.129072414504157</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>6.5929732491912</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
         <v>4.95</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="1" t="n">
         <v>3.25</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="1" t="n">
         <v>3.08</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="1" t="n">
         <v>6.9</v>
       </c>
-      <c r="E5" t="n">
-        <v>0.1024784909354316</v>
-      </c>
-      <c r="F5" t="n">
-        <v>4.104238857419453</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="B6" t="n">
+      <c r="E5" s="1" t="n">
+        <v>0.102478490935432</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>4.10423885741945</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B6" s="1" t="n">
         <v>0.65</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="1" t="n">
         <v>1.54</v>
       </c>
-      <c r="D6" t="n">
-        <v>8.210000000000001</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.1055903302298652</v>
-      </c>
-      <c r="F6" t="n">
-        <v>7.563052189707903</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="B7" t="n">
+      <c r="D6" s="1" t="n">
+        <v>8.21</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>0.105590330229865</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>7.5630521897079</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="B7" s="1" t="n">
         <v>0.65</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="1" t="n">
         <v>2.86</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="1" t="n">
         <v>6.94</v>
       </c>
-      <c r="E7" t="n">
-        <v>0.1263646947013007</v>
-      </c>
-      <c r="F7" t="n">
-        <v>6.293429510096259</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="B8" t="n">
+      <c r="E7" s="1" t="n">
+        <v>0.126364694701301</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>6.29342951009626</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="B8" s="1" t="n">
         <v>0.65</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="1" t="n">
         <v>2.39</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="1" t="n">
         <v>7.64</v>
       </c>
-      <c r="E8" t="n">
-        <v>0.1049942837821113</v>
-      </c>
-      <c r="F8" t="n">
-        <v>7.145618815055275</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="B9" t="n">
+      <c r="E8" s="1" t="n">
+        <v>0.104994283782111</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>7.14561881505527</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="B9" s="1" t="n">
         <v>5.85</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="1" t="n">
         <v>4.25</v>
       </c>
-      <c r="D9" t="n">
-        <v>8.779999999999999</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.1037173138724433</v>
-      </c>
-      <c r="F9" t="n">
-        <v>3.296520291933367</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="B10" t="n">
+      <c r="D9" s="1" t="n">
+        <v>8.78</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>0.103717313872443</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>3.29652029193337</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B10" s="1" t="n">
         <v>5.85</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="1" t="n">
         <v>-0.05</v>
       </c>
-      <c r="D10" t="n">
-        <v>9.359999999999999</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.1297037469016181</v>
-      </c>
-      <c r="F10" t="n">
-        <v>3.903925200480976</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="B11" t="n">
+      <c r="D10" s="1" t="n">
+        <v>9.36</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>0.129703746901618</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>3.90392520048098</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="B11" s="1" t="n">
         <v>5.85</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="1" t="n">
         <v>4.21</v>
       </c>
-      <c r="D11" t="n">
-        <v>8.550000000000001</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.1441576348410712</v>
-      </c>
-      <c r="F11" t="n">
-        <v>2.726032075507894</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="n">
+      <c r="D11" s="1" t="n">
+        <v>8.55</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>0.144157634841071</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>2.72603207550789</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
         <v>4.95</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" s="1" t="n">
         <v>7.15</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" s="1" t="n">
         <v>1.28</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" s="1" t="n">
         <v>8.56</v>
       </c>
-      <c r="E12" t="n">
-        <v>0.1035868989096747</v>
-      </c>
-      <c r="F12" t="n">
-        <v>3.934860376485953</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="n">
+      <c r="E12" s="1" t="n">
+        <v>0.103586898909675</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>3.93486037648595</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
         <v>4.95</v>
       </c>
-      <c r="B13" t="n">
-        <v>8.449999999999999</v>
-      </c>
-      <c r="C13" t="n">
+      <c r="B13" s="1" t="n">
+        <v>8.45</v>
+      </c>
+      <c r="C13" s="1" t="n">
         <v>4.72</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" s="1" t="n">
         <v>8.18</v>
       </c>
-      <c r="E13" t="n">
-        <v>0.1173441277609931</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.3537326585848541</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="B14" t="n">
+      <c r="E13" s="1" t="n">
+        <v>0.117344127760993</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>0.353732658584854</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="B14" s="1" t="n">
         <v>9.75</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" s="1" t="n">
         <v>-0.13</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" s="1" t="n">
         <v>7.01</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14" s="1" t="n">
         <v>0.0994291173087226</v>
       </c>
-      <c r="F14" t="n">
-        <v>4.827389108829023</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="B15" t="n">
+      <c r="F14" s="1" t="n">
+        <v>4.82738910882902</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="B15" s="1" t="n">
         <v>9.75</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" s="1" t="n">
         <v>1.37</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="1" t="n">
         <v>6.07</v>
       </c>
-      <c r="E15" t="n">
-        <v>0.1040110455618964</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="E15" s="1" t="n">
+        <v>0.104011045561896</v>
+      </c>
+      <c r="F15" s="1" t="n">
         <v>3.93414120028723</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="B16" t="n">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B16" s="1" t="n">
         <v>9.75</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16" s="1" t="n">
         <v>3.01</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" s="1" t="n">
         <v>7.07</v>
       </c>
-      <c r="E16" t="n">
-        <v>0.1101851330863105</v>
-      </c>
-      <c r="F16" t="n">
-        <v>3.003880097337809</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="B17" t="n">
+      <c r="E16" s="1" t="n">
+        <v>0.11018513308631</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>3.00388009733781</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="B17" s="1" t="n">
         <v>12.35</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17" s="1" t="n">
         <v>-0.02</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" s="1" t="n">
         <v>9.07</v>
       </c>
-      <c r="E17" t="n">
-        <v>0.1028923855887519</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="E17" s="1" t="n">
+        <v>0.102892385588752</v>
+      </c>
+      <c r="F17" s="1" t="n">
         <v>5.06892884859794</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="B18" t="n">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="B18" s="1" t="n">
         <v>12.35</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18" s="1" t="n">
         <v>-0.5</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" s="1" t="n">
         <v>7.19</v>
       </c>
-      <c r="E18" t="n">
-        <v>0.1046945916281806</v>
-      </c>
-      <c r="F18" t="n">
-        <v>6.095499906387177</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="B19" t="n">
+      <c r="E18" s="1" t="n">
+        <v>0.104694591628181</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>6.09549990638718</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B19" s="1" t="n">
         <v>12.35</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19" s="1" t="n">
         <v>6.65</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19" s="1" t="n">
         <v>4.98</v>
       </c>
-      <c r="E19" t="n">
-        <v>0.1001510487662421</v>
-      </c>
-      <c r="F19" t="n">
-        <v>8.906835419305471</v>
+      <c r="E19" s="1" t="n">
+        <v>0.100151048766242</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>8.90683541930547</v>
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
-  <headerFooter differentFirst="0" differentOddEven="0">
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="F19" activeCellId="0" pane="topLeft" sqref="A2:F19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F2:F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="12.8" r="1" s="2" spans="1:6">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1680,7 +1422,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="2" s="2" spans="1:6">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -1691,7 +1433,7 @@
         <v>3.94</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>9.539999999999999</v>
+        <v>9.54</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>0.000669956207275391</v>
@@ -1700,7 +1442,7 @@
         <v>6.40157793047933</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="3" s="2" spans="1:6">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -1720,7 +1462,7 @@
         <v>1.13648581161403</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="4" s="2" spans="1:6">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -1740,7 +1482,7 @@
         <v>1.8965494984313</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="5" s="2" spans="1:6">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -1760,7 +1502,7 @@
         <v>1.70801053860917</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="6" s="2" spans="1:6">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -1780,7 +1522,7 @@
         <v>3.9355431645454</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="7" s="2" spans="1:6">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -1800,7 +1542,7 @@
         <v>1.89129585205488</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="8" s="2" spans="1:6">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -1820,7 +1562,7 @@
         <v>4.3851567816898</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="9" s="2" spans="1:6">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -1840,7 +1582,7 @@
         <v>2.00848201386022</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="10" s="2" spans="1:6">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -1860,7 +1602,7 @@
         <v>4.97129761732287</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="11" s="2" spans="1:6">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -1880,7 +1622,7 @@
         <v>1.51713545868522</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="12" s="2" spans="1:6">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -1900,12 +1642,12 @@
         <v>3.30151480384384</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="13" s="2" spans="1:6">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>4.95</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>8.449999999999999</v>
+        <v>8.45</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>3.64</v>
@@ -1920,7 +1662,7 @@
         <v>4.18055020302352</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="14" s="2" spans="1:6">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -1940,7 +1682,7 @@
         <v>2.18874393203042</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="15" s="2" spans="1:6">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -1960,7 +1702,7 @@
         <v>2.0068383093812</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="16" s="2" spans="1:6">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -1980,7 +1722,7 @@
         <v>7.5304714327856</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="17" s="2" spans="1:6">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -2000,7 +1742,7 @@
         <v>2.54049207831869</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="18" s="2" spans="1:6">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -2020,7 +1762,7 @@
         <v>1.07168092266309</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="19" s="2" spans="1:6">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -2041,38 +1783,33 @@
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
-  <headerFooter differentFirst="0" differentOddEven="0">
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="A2:F19 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F2:F19 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="12.8" r="1" s="2" spans="1:6">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2092,7 +1829,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="2" s="2" spans="1:6">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -2103,7 +1840,7 @@
         <v>1.66931893319866</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>8.193428015351801</v>
+        <v>8.1934280153518</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>0.0303432941436768</v>
@@ -2112,7 +1849,7 @@
         <v>5.06017313054682</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="3" s="2" spans="1:6">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -2132,7 +1869,7 @@
         <v>8.83588851171716</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="4" s="2" spans="1:6">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -2152,7 +1889,7 @@
         <v>1.0987279978991</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="5" s="2" spans="1:6">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -2172,7 +1909,7 @@
         <v>6.56766717649124</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="6" s="2" spans="1:6">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -2192,7 +1929,7 @@
         <v>6.19978800194271</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="7" s="2" spans="1:6">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -2212,7 +1949,7 @@
         <v>4.44387827206822</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="8" s="2" spans="1:6">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -2232,7 +1969,7 @@
         <v>8.13093396745375</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="9" s="2" spans="1:6">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -2252,7 +1989,7 @@
         <v>3.97739077236483</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="10" s="2" spans="1:6">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -2272,7 +2009,7 @@
         <v>24.709523574366</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="11" s="2" spans="1:6">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -2292,7 +2029,7 @@
         <v>1.01067689508474</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="12" s="2" spans="1:6">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -2312,12 +2049,12 @@
         <v>2.88033507054147</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="13" s="2" spans="1:6">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>4.95</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>8.449999999999999</v>
+        <v>8.45</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>7.2215343250765</v>
@@ -2332,7 +2069,7 @@
         <v>2.43947757019452</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="14" s="2" spans="1:6">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -2349,10 +2086,10 @@
         <v>0.000882625579833984</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>9.733343619179699</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="15" s="2" spans="1:6">
+        <v>9.7333436191797</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -2363,7 +2100,7 @@
         <v>2.97315961791636</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>9.164330765127691</v>
+        <v>9.16433076512769</v>
       </c>
       <c r="E15" s="1" t="n">
         <v>0.000887155532836914</v>
@@ -2372,7 +2109,7 @@
         <v>0.626744499572588</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="16" s="2" spans="1:6">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -2392,7 +2129,7 @@
         <v>1.96692501410404</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="17" s="2" spans="1:6">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -2412,7 +2149,7 @@
         <v>12.5524772197999</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="18" s="2" spans="1:6">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -2432,7 +2169,7 @@
         <v>9.75276305072707</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="19" s="2" spans="1:6">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -2452,40 +2189,35 @@
         <v>4.94952252495522</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="1048576" s="2" spans="1:6"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
-  <headerFooter differentFirst="0" differentOddEven="0">
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B29" activeCellId="1" pane="topLeft" sqref="A2:F19 B29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A22" activeCellId="1" sqref="F2:F19 A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="12.8" r="1" s="2" spans="1:6">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2505,7 +2237,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="2" s="2" spans="1:6">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -2525,7 +2257,7 @@
         <v>5.4500306758527</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="3" s="2" spans="1:6">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -2545,7 +2277,7 @@
         <v>4.68741812574479</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="4" s="2" spans="1:6">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -2565,7 +2297,7 @@
         <v>4.0412412571023</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="5" s="2" spans="1:6">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -2573,7 +2305,7 @@
         <v>3.25</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>8.360423017044941</v>
+        <v>8.36042301704494</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>9.41282706214786</v>
@@ -2585,7 +2317,7 @@
         <v>7.04353764475863</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="6" s="2" spans="1:6">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -2605,7 +2337,7 @@
         <v>7.26230190904099</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="7" s="2" spans="1:6">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -2625,7 +2357,7 @@
         <v>4.6308566446022</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="8" s="2" spans="1:6">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -2642,10 +2374,10 @@
         <v>0.01253342628479</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>9.136212823973411</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="9" s="2" spans="1:6">
+        <v>9.13621282397341</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -2665,7 +2397,7 @@
         <v>2.44162302258057</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="10" s="2" spans="1:6">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -2685,7 +2417,7 @@
         <v>10.640944990253</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="11" s="2" spans="1:6">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -2705,7 +2437,7 @@
         <v>1.33545408019167</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="12" s="2" spans="1:6">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -2725,12 +2457,12 @@
         <v>1.2082198541645</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="13" s="2" spans="1:6">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>4.95</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>8.449999999999999</v>
+        <v>8.45</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>3.78195120725769</v>
@@ -2745,7 +2477,7 @@
         <v>1.39120009510973</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="14" s="2" spans="1:6">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -2765,7 +2497,7 @@
         <v>5.31632484131553</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="15" s="2" spans="1:6">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -2776,7 +2508,7 @@
         <v>2.33290630378232</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>8.878904372437621</v>
+        <v>8.87890437243762</v>
       </c>
       <c r="E15" s="1" t="n">
         <v>0.0145282745361328</v>
@@ -2785,7 +2517,7 @@
         <v>0.965802642252972</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="16" s="2" spans="1:6">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -2805,7 +2537,7 @@
         <v>6.83680607678319</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="17" s="2" spans="1:6">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -2825,7 +2557,7 @@
         <v>6.4557533508927</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="18" s="2" spans="1:6">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -2845,7 +2577,7 @@
         <v>3.65377875578419</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="19" s="2" spans="1:6">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -2865,7 +2597,7 @@
         <v>3.73835823295843</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="22" s="2" spans="1:6">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
@@ -2873,40 +2605,35 @@
         <v>465552</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="1048576" s="2" spans="1:6"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
-  <headerFooter differentFirst="0" differentOddEven="0">
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="F1" activeCellId="1" pane="topLeft" sqref="A2:F19 F1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="F2:F19 F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="12.8" r="1" s="2" spans="1:6">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2926,7 +2653,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="2" s="2" spans="1:6">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -2943,10 +2670,10 @@
         <v>0.00048065185546875</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>9.888629834309709</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="3" s="2" spans="1:6">
+        <v>9.88862983430971</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -2966,7 +2693,7 @@
         <v>0.85146931829632</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="4" s="2" spans="1:6">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -2986,7 +2713,7 @@
         <v>0.85146931829632</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="5" s="2" spans="1:6">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -3006,7 +2733,7 @@
         <v>4.31566912540802</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="6" s="2" spans="1:6">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -3026,7 +2753,7 @@
         <v>4.31566912540802</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="7" s="2" spans="1:6">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -3046,7 +2773,7 @@
         <v>3.37120156620752</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="8" s="2" spans="1:6">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -3066,7 +2793,7 @@
         <v>2.55440795488896</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="9" s="2" spans="1:6">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -3086,7 +2813,7 @@
         <v>2.55440795488896</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="10" s="2" spans="1:6">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -3106,7 +2833,7 @@
         <v>7.66061355245127</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="11" s="2" spans="1:6">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -3126,7 +2853,7 @@
         <v>2.55440795488896</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="12" s="2" spans="1:6">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -3146,12 +2873,12 @@
         <v>4.2573465914816</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="13" s="2" spans="1:6">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>4.95</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>8.449999999999999</v>
+        <v>8.45</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>4.4</v>
@@ -3166,7 +2893,7 @@
         <v>4.58312120721239</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="14" s="2" spans="1:6">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -3186,7 +2913,7 @@
         <v>3.64485939372152</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="15" s="2" spans="1:6">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -3206,7 +2933,7 @@
         <v>3.64485939372152</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="16" s="2" spans="1:6">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -3226,7 +2953,7 @@
         <v>8.12065268312837</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="17" s="2" spans="1:6">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -3246,7 +2973,7 @@
         <v>3.64485939372152</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="18" s="2" spans="1:6">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -3266,7 +2993,7 @@
         <v>2.02607995893548</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="19" s="2" spans="1:6">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -3286,40 +3013,35 @@
         <v>2.55440795488896</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="1048576" s="2" spans="1:6"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
-  <headerFooter differentFirst="0" differentOddEven="0">
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="A2:F19 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K11" activeCellId="1" sqref="F2:F19 K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="12.8" r="1" s="2" spans="1:6">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3339,7 +3061,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="2" s="2" spans="1:6">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -3347,19 +3069,19 @@
         <v>3.25</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>3.05191157792297</v>
+        <v>3.05280745269006</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>7.74334761641156</v>
+        <v>7.74403654109851</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0.000632762908935547</v>
+        <v>0.0973961353302002</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>4.5034790332359</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="3" s="2" spans="1:6">
+        <v>4.50422654693714</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -3367,19 +3089,19 @@
         <v>3.25</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>4.31091763448226</v>
+        <v>4.33530279645122</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>0.078372046243723</v>
+        <v>0.0561174089667693</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0.000740766525268555</v>
+        <v>0.00911211967468262</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>3.20494445237744</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="4" s="2" spans="1:6">
+        <v>3.23054249462045</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -3387,19 +3109,19 @@
         <v>3.25</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>2.29077392884223</v>
+        <v>2.27142375386722</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>6.01193792930503</v>
+        <v>6.0544283582764</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0.000671625137329102</v>
+        <v>0.00860166549682617</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>2.83529405057353</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="5" s="2" spans="1:6">
+        <v>2.87245294105496</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -3407,19 +3129,19 @@
         <v>3.25</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>4.1218407926002</v>
+        <v>4.13850330395518</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>6.07360344706117</v>
+        <v>6.05881246640753</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>0.000712394714355469</v>
+        <v>0.00329923629760742</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>2.942547212715</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="6" s="2" spans="1:6">
+        <v>2.92368848531063</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -3427,19 +3149,19 @@
         <v>0.65</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>2.64792782455558</v>
+        <v>2.63058251940124</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>6.35818163659144</v>
+        <v>6.39451659084074</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>0.000740766525268555</v>
+        <v>0.00961756706237793</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>5.79475603794862</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="7" s="2" spans="1:6">
+        <v>5.82760782309516</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -3447,19 +3169,19 @@
         <v>0.65</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>3.73762126753459</v>
+        <v>3.74858833158184</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>3.94333011002618</v>
+        <v>3.93500551928803</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>0.000760078430175781</v>
+        <v>0.0027008056640625</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>3.43822904729916</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="8" s="2" spans="1:6">
+        <v>3.43342976012678</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -3467,19 +3189,19 @@
         <v>0.65</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>2.87493322216044</v>
+        <v>2.86056968123727</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>5.3354652740909</v>
+        <v>5.3665870280821</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>0.000656366348266602</v>
+        <v>0.00258636474609375</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>4.78584789310714</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="9" s="2" spans="1:6">
+        <v>4.81924947986295</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -3487,19 +3209,19 @@
         <v>5.85</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>3.03848769528147</v>
+        <v>3.04332824107064</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>6.34397439771282</v>
+        <v>6.34625428929131</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>0.000731706619262695</v>
+        <v>0.00525689125061035</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>0.572045326809471</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="10" s="2" spans="1:6">
+        <v>0.576463161572026</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -3507,19 +3229,19 @@
         <v>5.85</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>2.14340975604561</v>
+        <v>2.13730878905064</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>10.0532099918909</v>
+        <v>10.0570110763019</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>0.000655174255371094</v>
+        <v>0.00309443473815918</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>4.23207129232154</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="11" s="2" spans="1:6">
+        <v>4.23514014549845</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -3527,19 +3249,19 @@
         <v>5.85</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>3.09559092284595</v>
+        <v>3.11826708148907</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>6.39921605730552</v>
+        <v>6.36548668262097</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>0.000736236572265625</v>
+        <v>0.00280117988586426</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>0.933151291749974</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="12" s="2" spans="1:6">
+        <v>0.895075183429919</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -3547,39 +3269,39 @@
         <v>7.15</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>3.31831969038248</v>
+        <v>3.33646921858654</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>7.48057770003148</v>
+        <v>7.46051146002809</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>0.000733375549316406</v>
+        <v>0.00371980667114258</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>1.66483099699388</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="13" s="2" spans="1:6">
+        <v>1.64313692350257</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>4.95</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>8.449999999999999</v>
+        <v>8.45</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>3.45195795779642</v>
+        <v>3.47298668385036</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>7.52041704355602</v>
+        <v>7.49169795503661</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>0.000746965408325195</v>
+        <v>0.0030517578125</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>1.76302422930617</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="14" s="2" spans="1:6">
+        <v>1.76065645299256</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -3587,19 +3309,19 @@
         <v>9.75</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>3.54142225321112</v>
+        <v>3.55977223487219</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>12.3062230264711</v>
+        <v>12.2761051048483</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>0.000735282897949219</v>
+        <v>0.00274014472961426</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>2.57478084249402</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="15" s="2" spans="1:6">
+        <v>2.54272278402335</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -3607,19 +3329,19 @@
         <v>9.75</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>3.39560681235012</v>
+        <v>3.41318677229139</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>9.95941578787844</v>
+        <v>9.92737839403211</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>0.000733375549316406</v>
+        <v>0.00290751457214356</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>0.678721686971644</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="16" s="2" spans="1:6">
+        <v>0.686498208017827</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -3627,19 +3349,19 @@
         <v>9.75</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>3.97587927362266</v>
+        <v>3.99038490356136</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>5.51685603266551</v>
+        <v>5.50485043440727</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>0.000734567642211914</v>
+        <v>0.00330758094787598</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>4.83003335844049</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="17" s="2" spans="1:6">
+        <v>4.84754539236819</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -3647,19 +3369,19 @@
         <v>12.35</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>2.2586813492013</v>
+        <v>2.23128711480651</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>9.845611102260101</v>
+        <v>9.89341394087952</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>0.000663042068481445</v>
+        <v>0.00282096862792969</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>2.9671971285209</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="18" s="2" spans="1:6">
+        <v>2.94194603460984</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -3667,19 +3389,19 @@
         <v>12.35</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>3.02940003692996</v>
+        <v>3.03673746562116</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>11.911386814811</v>
+        <v>11.8953432498452</v>
       </c>
       <c r="E18" s="1" t="n">
-        <v>0.000727653503417969</v>
+        <v>0.0029604434967041</v>
       </c>
       <c r="F18" s="1" t="n">
-        <v>0.520044139336354</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="19" s="2" spans="1:6">
+        <v>0.53752314801518</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -3687,51 +3409,47 @@
         <v>12.35</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>2.55126463276175</v>
+        <v>2.53598869429032</v>
       </c>
       <c r="D19" s="1" t="n">
-        <v>11.6189044227218</v>
+        <v>11.6334973023615</v>
       </c>
       <c r="E19" s="1" t="n">
-        <v>0.000735282897949219</v>
+        <v>0.00264620780944824</v>
       </c>
       <c r="F19" s="1" t="n">
-        <v>1.16050794111152</v>
-      </c>
-    </row>
+        <v>1.13945253614775</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
-  <headerFooter differentFirst="0" differentOddEven="0">
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="A2:F19 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2:F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="12.8" r="1" s="2" spans="1:6">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3751,7 +3469,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="2" s="2" spans="1:6">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -3771,7 +3489,7 @@
         <v>3.62200220872379</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="3" s="2" spans="1:6">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -3791,7 +3509,7 @@
         <v>1.32774244490413</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="4" s="2" spans="1:6">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -3811,7 +3529,7 @@
         <v>2.03651663386283</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="5" s="2" spans="1:6">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -3831,7 +3549,7 @@
         <v>2.65994360842481</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="6" s="2" spans="1:6">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -3851,7 +3569,7 @@
         <v>5.31507290636732</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="7" s="2" spans="1:6">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -3871,7 +3589,7 @@
         <v>1.95816240388789</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="8" s="2" spans="1:6">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -3891,7 +3609,7 @@
         <v>3.98527288902529</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="9" s="2" spans="1:6">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -3911,7 +3629,7 @@
         <v>2.28600087489047</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="10" s="2" spans="1:6">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -3922,7 +3640,7 @@
         <v>3.3</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>8.779999999999999</v>
+        <v>8.78</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>0.000477790832519531</v>
@@ -3931,7 +3649,7 @@
         <v>3.36264776626991</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="11" s="2" spans="1:6">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -3951,7 +3669,7 @@
         <v>0.883911760301898</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="12" s="2" spans="1:6">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -3962,7 +3680,7 @@
         <v>3.58</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>8.449999999999999</v>
+        <v>8.45</v>
       </c>
       <c r="E12" s="1" t="n">
         <v>0.000476598739624023</v>
@@ -3971,12 +3689,12 @@
         <v>1.88862383761299</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="13" s="2" spans="1:6">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>4.95</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>8.449999999999999</v>
+        <v>8.45</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>3.58</v>
@@ -3991,7 +3709,7 @@
         <v>2.38314917703445</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="14" s="2" spans="1:6">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -4011,7 +3729,7 @@
         <v>1.32774244490413</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="15" s="2" spans="1:6">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -4031,7 +3749,7 @@
         <v>1.0463746938836</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="16" s="2" spans="1:6">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -4051,7 +3769,7 @@
         <v>5.54661157825208</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="17" s="2" spans="1:6">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -4071,7 +3789,7 @@
         <v>1.41155942134931</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="18" s="2" spans="1:6">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -4091,7 +3809,7 @@
         <v>0.889550448260243</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="19" s="2" spans="1:6">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -4111,39 +3829,53 @@
         <v>0.893196506934504</v>
       </c>
     </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>1124085</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
-  <headerFooter differentFirst="0" differentOddEven="0">
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="A2:F19 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F2:F19 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="12.8" r="1" s="2" spans="1:6">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4163,7 +3895,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="2" s="2" spans="1:6">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -4183,7 +3915,7 @@
         <v>8.46788049041789</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="3" s="2" spans="1:6">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -4203,7 +3935,7 @@
         <v>0.85146931829632</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="4" s="2" spans="1:6">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -4223,7 +3955,7 @@
         <v>1.77341478509682</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="5" s="2" spans="1:6">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -4243,7 +3975,7 @@
         <v>2.93981291921782</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="6" s="2" spans="1:6">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -4263,7 +3995,7 @@
         <v>2.10059515376</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="7" s="2" spans="1:6">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -4283,7 +4015,7 @@
         <v>3.04179223485103</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="8" s="2" spans="1:6">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -4303,7 +4035,7 @@
         <v>3.07936681803256</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="9" s="2" spans="1:6">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -4323,7 +4055,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="10" s="2" spans="1:6">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -4343,7 +4075,7 @@
         <v>6.07823987680644</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="11" s="2" spans="1:6">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -4363,7 +4095,7 @@
         <v>1.77341478509682</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="12" s="2" spans="1:6">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -4383,12 +4115,12 @@
         <v>4.83993801613202</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="13" s="2" spans="1:6">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>4.95</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>8.449999999999999</v>
+        <v>8.45</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>4.4</v>
@@ -4403,7 +4135,7 @@
         <v>3.2962099447699</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="14" s="2" spans="1:6">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -4423,7 +4155,7 @@
         <v>2.65753645318366</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="15" s="2" spans="1:6">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -4443,7 +4175,7 @@
         <v>2.23886131772381</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="16" s="2" spans="1:6">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -4463,7 +4195,7 @@
         <v>7.55463433926487</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="17" s="2" spans="1:6">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -4483,7 +4215,7 @@
         <v>2.02607995893548</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="18" s="2" spans="1:6">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -4503,7 +4235,7 @@
         <v>1.70293863659264</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="19" s="2" spans="1:6">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -4524,38 +4256,33 @@
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
-  <headerFooter differentFirst="0" differentOddEven="0">
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="A2:F19 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F2:F19 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="12.8" r="1" s="2" spans="1:6">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4575,7 +4302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="2" s="2" spans="1:6">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -4595,7 +4322,7 @@
         <v>4.77445284823298</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="3" s="2" spans="1:6">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -4615,7 +4342,7 @@
         <v>1.23490890352285</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="4" s="2" spans="1:6">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -4635,7 +4362,7 @@
         <v>1.90420587122296</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="5" s="2" spans="1:6">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -4655,7 +4382,7 @@
         <v>2.58213090295593</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="6" s="2" spans="1:6">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -4675,7 +4402,7 @@
         <v>4.65842247976716</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="7" s="2" spans="1:6">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -4695,7 +4422,7 @@
         <v>2.02071769428587</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="8" s="2" spans="1:6">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -4715,7 +4442,7 @@
         <v>3.74862641510194</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="9" s="2" spans="1:6">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -4735,7 +4462,7 @@
         <v>2.27378539004894</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="10" s="2" spans="1:6">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -4755,7 +4482,7 @@
         <v>3.73530453912395</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="11" s="2" spans="1:6">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -4775,7 +4502,7 @@
         <v>1.20353645561736</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="12" s="2" spans="1:6">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -4795,12 +4522,12 @@
         <v>2.92697796370249</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="13" s="2" spans="1:6">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>4.95</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>8.449999999999999</v>
+        <v>8.45</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>3.76</v>
@@ -4815,7 +4542,7 @@
         <v>2.85029823001032</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="14" s="2" spans="1:6">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -4835,7 +4562,7 @@
         <v>1.63012269476871</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="15" s="2" spans="1:6">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -4855,7 +4582,7 @@
         <v>1.3877319625922</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="16" s="2" spans="1:6">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -4875,7 +4602,7 @@
         <v>6.07783678622584</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="17" s="2" spans="1:6">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -4895,7 +4622,7 @@
         <v>2.47872951327893</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="18" s="2" spans="1:6">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -4915,7 +4642,7 @@
         <v>1.02396288995256</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="19" s="2" spans="1:6">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -4936,16 +4663,12 @@
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
-  <headerFooter differentFirst="0" differentOddEven="0">
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
--- a/Data/methods.xlsx
+++ b/Data/methods.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="FingerKnn3" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,6 +19,8 @@
     <sheet name="WeightedFingerKnn4" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="W_CircularAlgo" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="MultNN" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="MultPoly" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="WeightedMultPoly" sheetId="13" state="visible" r:id="rId14"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="185">
   <si>
     <t xml:space="preserve">Real X</t>
   </si>
@@ -60,6 +62,531 @@
   </si>
   <si>
     <t xml:space="preserve">2.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4664402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2508356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00375557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45704806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00467205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87455345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79642531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00331354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.54697668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00275159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82738045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57320642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00779247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44189218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00825906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31115351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35617067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00512481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12709579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00652719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3770369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03956045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00289345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7583891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00473118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69736044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83262718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00334883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61373848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00346899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0291783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5685964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00346518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09217047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00363898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11072885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36712233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00263691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44386766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00270677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.40326436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89943037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00634623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29444614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00633621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93090674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59343413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00856829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.26902035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00851488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46835439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01841648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00348353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2446576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00350308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97677377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70142019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00344157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63650396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00341344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00388143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.50956774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0035665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13703992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00371528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73768075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.24369298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00382471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12628727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00392556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40569635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76276995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00309467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47752303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00455475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49129688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.54094837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00464296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97256593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00490475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47396821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.75258837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.01002026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62108528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.01064658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.72698196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0588967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00385332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58710744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00356913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6581897405598958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52814466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40337249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00335312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34872282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38172632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17169565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00321627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06407506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11460523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01231206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00441575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54747926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58703099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68985416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00339174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49834319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57371331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90901943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00684905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67331995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65485072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44240692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00333476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60404512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51676474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58196432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00285053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50383232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83956191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97882465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00302362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39502389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19659287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06669483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00330234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29843149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88087639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55936005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00883484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.29227544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83020149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08847392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00693727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37898233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9324729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41392439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00285721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64529432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79372661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.61607449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00903249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36594235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42763457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1533033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00548625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5163071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20264692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89364262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00294995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37451128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25116025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.63360609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.004601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81786059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9843581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.52027789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00742888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84466982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51191123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.91853297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00401211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67092454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7688911598024113</t>
   </si>
 </sst>
 </file>
@@ -69,7 +596,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -90,11 +617,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -148,7 +670,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -172,7 +694,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F2:F19"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -579,8 +1101,8 @@
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G11" activeCellId="1" sqref="F2:F19 G11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I24" activeCellId="0" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -987,7 +1509,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="F2:F19 A2"/>
+      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1382,6 +1904,1189 @@
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:R22"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M22" activeCellId="0" sqref="M22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="30.84"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="R7" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q8" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="R8" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q9" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="R9" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="O10" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="P10" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q10" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="R10" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="O11" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="P11" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q11" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="R11" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="O12" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="P12" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q12" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="R12" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="N13" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="O13" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="R13" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="O14" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="P14" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q14" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="R14" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="M15" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N15" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="O15" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="P15" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q15" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="R15" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="M16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N16" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="O16" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="P16" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q16" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="R16" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="M17" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="N17" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="O17" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="P17" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q17" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="R17" s="0" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="M18" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N18" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="O18" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="P18" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q18" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="R18" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="M19" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N19" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="O19" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="P19" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q19" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="R19" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="M22" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="R22" s="0" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>184</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1394,7 +3099,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F2:F19"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1801,7 +3506,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F2:F19 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2209,7 +3914,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A22" activeCellId="1" sqref="F2:F19 A22"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2625,7 +4330,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="F2:F19 F1"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3033,7 +4738,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K11" activeCellId="1" sqref="F2:F19 K11"/>
+      <selection pane="topLeft" activeCell="K11" activeCellId="0" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3440,8 +5145,8 @@
   </sheetPr>
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2:F19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3867,7 +5572,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F2:F19 A1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4274,7 +5979,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F2:F19 A1"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Data/methods.xlsx
+++ b/Data/methods.xlsx
@@ -1,592 +1,590 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView activeTab="9"/>
   </bookViews>
   <sheets>
-    <sheet name="FingerKnn3" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="WeightedFingerKnn3" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="HyperbolicAlgo" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="CircularAlgo" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="FingerKnn1" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="FingerNN" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="FingerKnn4" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="FingerKnn2" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="WeightedFingerKnn4" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="W_CircularAlgo" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="MultNN" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="MultPoly" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="WeightedMultPoly" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FingerKnn3" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WeightedFingerKnn3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HyperbolicAlgo" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CircularAlgo" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FingerKnn1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FingerNN" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FingerKnn4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FingerKnn2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WeightedFingerKnn4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="W_CircularAlgo" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultNN" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultPoly" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WeightedMultPoly" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="185">
-  <si>
-    <t xml:space="preserve">Real X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Real Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Est. X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Est. Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of executions:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4664402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2508356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00375557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45704806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00467205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87455345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79642531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00331354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.54697668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00275159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82738045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57320642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00779247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44189218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00825906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31115351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35617067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00512481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12709579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00652719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3770369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03956045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00289345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7583891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00473118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69736044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83262718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00334883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61373848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00346899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0291783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5685964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00346518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09217047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00363898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11072885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36712233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00263691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44386766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00270677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.40326436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89943037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00634623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29444614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00633621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93090674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59343413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00856829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.26902035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00851488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46835439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01841648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00348353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2446576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00350308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97677377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70142019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00344157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63650396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00341344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00388143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.50956774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0035665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13703992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00371528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73768075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.24369298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00382471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12628727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00392556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40569635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76276995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00309467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47752303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00455475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49129688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.54094837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00464296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97256593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00490475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47396821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.75258837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.01002026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62108528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.01064658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.72698196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0588967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00385332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58710744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00356913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6581897405598958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52814466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40337249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00335312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34872282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38172632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17169565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00321627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06407506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11460523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01231206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00441575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54747926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58703099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68985416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00339174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49834319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57371331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90901943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00684905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67331995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65485072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44240692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00333476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.60404512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51676474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58196432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00285053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50383232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83956191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97882465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00302362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39502389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19659287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06669483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00330234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29843149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88087639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55936005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00883484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.29227544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83020149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08847392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00693727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37898233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9324729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41392439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00285721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64529432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79372661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.61607449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00903249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36594235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42763457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1533033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00548625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5163071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20264692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89364262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00294995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37451128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25116025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.63360609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.004601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81786059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9843581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.52027789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00742888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84466982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51191123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.91853297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00401211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67092454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7688911598024113</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="186">
+  <si>
+    <t>Real X</t>
+  </si>
+  <si>
+    <t>Real Y</t>
+  </si>
+  <si>
+    <t>Est. X</t>
+  </si>
+  <si>
+    <t>Est. Y</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Number of executions:</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>3.262832114</t>
+  </si>
+  <si>
+    <t>0.00047</t>
+  </si>
+  <si>
+    <t>2.37</t>
+  </si>
+  <si>
+    <t>2.75</t>
+  </si>
+  <si>
+    <t>3.25</t>
+  </si>
+  <si>
+    <t>4.4664402</t>
+  </si>
+  <si>
+    <t>6.2508356</t>
+  </si>
+  <si>
+    <t>0.00375557</t>
+  </si>
+  <si>
+    <t>3.45704806</t>
+  </si>
+  <si>
+    <t>0.00467205</t>
+  </si>
+  <si>
+    <t>3.85</t>
+  </si>
+  <si>
+    <t>3.87455345</t>
+  </si>
+  <si>
+    <t>3.79642531</t>
+  </si>
+  <si>
+    <t>0.00331354</t>
+  </si>
+  <si>
+    <t>0.54697668</t>
+  </si>
+  <si>
+    <t>0.00275159</t>
+  </si>
+  <si>
+    <t>1.65</t>
+  </si>
+  <si>
+    <t>4.82738045</t>
+  </si>
+  <si>
+    <t>4.57320642</t>
+  </si>
+  <si>
+    <t>0.00779247</t>
+  </si>
+  <si>
+    <t>3.44189218</t>
+  </si>
+  <si>
+    <t>0.00825906</t>
+  </si>
+  <si>
+    <t>4.95</t>
+  </si>
+  <si>
+    <t>5.31115351</t>
+  </si>
+  <si>
+    <t>6.35617067</t>
+  </si>
+  <si>
+    <t>0.00512481</t>
+  </si>
+  <si>
+    <t>3.12709579</t>
+  </si>
+  <si>
+    <t>0.00652719</t>
+  </si>
+  <si>
+    <t>0.65</t>
+  </si>
+  <si>
+    <t>5.3770369</t>
+  </si>
+  <si>
+    <t>5.03956045</t>
+  </si>
+  <si>
+    <t>0.00289345</t>
+  </si>
+  <si>
+    <t>5.7583891</t>
+  </si>
+  <si>
+    <t>0.00473118</t>
+  </si>
+  <si>
+    <t>4.69736044</t>
+  </si>
+  <si>
+    <t>4.83262718</t>
+  </si>
+  <si>
+    <t>0.00334883</t>
+  </si>
+  <si>
+    <t>4.61373848</t>
+  </si>
+  <si>
+    <t>0.00346899</t>
+  </si>
+  <si>
+    <t>5.0291783</t>
+  </si>
+  <si>
+    <t>4.5685964</t>
+  </si>
+  <si>
+    <t>0.00346518</t>
+  </si>
+  <si>
+    <t>4.09217047</t>
+  </si>
+  <si>
+    <t>0.00363898</t>
+  </si>
+  <si>
+    <t>5.85</t>
+  </si>
+  <si>
+    <t>4.11072885</t>
+  </si>
+  <si>
+    <t>5.36712233</t>
+  </si>
+  <si>
+    <t>0.00263691</t>
+  </si>
+  <si>
+    <t>1.44386766</t>
+  </si>
+  <si>
+    <t>0.00270677</t>
+  </si>
+  <si>
+    <t>0.40326436</t>
+  </si>
+  <si>
+    <t>8.89943037</t>
+  </si>
+  <si>
+    <t>0.00634623</t>
+  </si>
+  <si>
+    <t>3.29444614</t>
+  </si>
+  <si>
+    <t>0.00633621</t>
+  </si>
+  <si>
+    <t>3.93090674</t>
+  </si>
+  <si>
+    <t>5.59343413</t>
+  </si>
+  <si>
+    <t>0.00856829</t>
+  </si>
+  <si>
+    <t>0.26902035</t>
+  </si>
+  <si>
+    <t>0.00851488</t>
+  </si>
+  <si>
+    <t>7.15</t>
+  </si>
+  <si>
+    <t>5.46835439</t>
+  </si>
+  <si>
+    <t>6.01841648</t>
+  </si>
+  <si>
+    <t>0.00348353</t>
+  </si>
+  <si>
+    <t>1.2446576</t>
+  </si>
+  <si>
+    <t>0.00350308</t>
+  </si>
+  <si>
+    <t>8.45</t>
+  </si>
+  <si>
+    <t>2.97677377</t>
+  </si>
+  <si>
+    <t>6.70142019</t>
+  </si>
+  <si>
+    <t>0.00344157</t>
+  </si>
+  <si>
+    <t>2.63650396</t>
+  </si>
+  <si>
+    <t>0.00341344</t>
+  </si>
+  <si>
+    <t>9.75</t>
+  </si>
+  <si>
+    <t>3.00388143</t>
+  </si>
+  <si>
+    <t>10.50956774</t>
+  </si>
+  <si>
+    <t>0.0035665</t>
+  </si>
+  <si>
+    <t>1.13703992</t>
+  </si>
+  <si>
+    <t>0.00371528</t>
+  </si>
+  <si>
+    <t>1.73768075</t>
+  </si>
+  <si>
+    <t>10.24369298</t>
+  </si>
+  <si>
+    <t>0.00382471</t>
+  </si>
+  <si>
+    <t>1.12628727</t>
+  </si>
+  <si>
+    <t>0.00392556</t>
+  </si>
+  <si>
+    <t>5.40569635</t>
+  </si>
+  <si>
+    <t>5.76276995</t>
+  </si>
+  <si>
+    <t>0.00309467</t>
+  </si>
+  <si>
+    <t>5.47752303</t>
+  </si>
+  <si>
+    <t>0.00455475</t>
+  </si>
+  <si>
+    <t>12.35</t>
+  </si>
+  <si>
+    <t>1.49129688</t>
+  </si>
+  <si>
+    <t>10.54094837</t>
+  </si>
+  <si>
+    <t>0.00464296</t>
+  </si>
+  <si>
+    <t>2.97256593</t>
+  </si>
+  <si>
+    <t>0.00490475</t>
+  </si>
+  <si>
+    <t>2.47396821</t>
+  </si>
+  <si>
+    <t>10.75258837</t>
+  </si>
+  <si>
+    <t>0.01002026</t>
+  </si>
+  <si>
+    <t>1.62108528</t>
+  </si>
+  <si>
+    <t>0.01064658</t>
+  </si>
+  <si>
+    <t>0.72698196</t>
+  </si>
+  <si>
+    <t>11.0588967</t>
+  </si>
+  <si>
+    <t>0.00385332</t>
+  </si>
+  <si>
+    <t>1.58710744</t>
+  </si>
+  <si>
+    <t>0.00356913</t>
+  </si>
+  <si>
+    <t>2.6581897405598958</t>
+  </si>
+  <si>
+    <t>6.52814466</t>
+  </si>
+  <si>
+    <t>5.40337249</t>
+  </si>
+  <si>
+    <t>0.00335312</t>
+  </si>
+  <si>
+    <t>4.34872282</t>
+  </si>
+  <si>
+    <t>4.38172632</t>
+  </si>
+  <si>
+    <t>4.17169565</t>
+  </si>
+  <si>
+    <t>0.00321627</t>
+  </si>
+  <si>
+    <t>1.06407506</t>
+  </si>
+  <si>
+    <t>5.11460523</t>
+  </si>
+  <si>
+    <t>4.01231206</t>
+  </si>
+  <si>
+    <t>0.00441575</t>
+  </si>
+  <si>
+    <t>3.54747926</t>
+  </si>
+  <si>
+    <t>5.58703099</t>
+  </si>
+  <si>
+    <t>6.68985416</t>
+  </si>
+  <si>
+    <t>0.00339174</t>
+  </si>
+  <si>
+    <t>3.49834319</t>
+  </si>
+  <si>
+    <t>3.57371331</t>
+  </si>
+  <si>
+    <t>4.90901943</t>
+  </si>
+  <si>
+    <t>0.00684905</t>
+  </si>
+  <si>
+    <t>4.67331995</t>
+  </si>
+  <si>
+    <t>5.65485072</t>
+  </si>
+  <si>
+    <t>5.44240692</t>
+  </si>
+  <si>
+    <t>0.00333476</t>
+  </si>
+  <si>
+    <t>5.60404512</t>
+  </si>
+  <si>
+    <t>6.51676474</t>
+  </si>
+  <si>
+    <t>6.58196432</t>
+  </si>
+  <si>
+    <t>0.00285053</t>
+  </si>
+  <si>
+    <t>6.50383232</t>
+  </si>
+  <si>
+    <t>3.83956191</t>
+  </si>
+  <si>
+    <t>4.97882465</t>
+  </si>
+  <si>
+    <t>0.00302362</t>
+  </si>
+  <si>
+    <t>1.39502389</t>
+  </si>
+  <si>
+    <t>1.19659287</t>
+  </si>
+  <si>
+    <t>7.06669483</t>
+  </si>
+  <si>
+    <t>0.00330234</t>
+  </si>
+  <si>
+    <t>1.29843149</t>
+  </si>
+  <si>
+    <t>3.88087639</t>
+  </si>
+  <si>
+    <t>5.55936005</t>
+  </si>
+  <si>
+    <t>0.00883484</t>
+  </si>
+  <si>
+    <t>0.29227544</t>
+  </si>
+  <si>
+    <t>5.83020149</t>
+  </si>
+  <si>
+    <t>6.08847392</t>
+  </si>
+  <si>
+    <t>0.00693727</t>
+  </si>
+  <si>
+    <t>1.37898233</t>
+  </si>
+  <si>
+    <t>2.9324729</t>
+  </si>
+  <si>
+    <t>5.41392439</t>
+  </si>
+  <si>
+    <t>0.00285721</t>
+  </si>
+  <si>
+    <t>3.64529432</t>
+  </si>
+  <si>
+    <t>2.79372661</t>
+  </si>
+  <si>
+    <t>10.61607449</t>
+  </si>
+  <si>
+    <t>0.00903249</t>
+  </si>
+  <si>
+    <t>1.36594235</t>
+  </si>
+  <si>
+    <t>2.42763457</t>
+  </si>
+  <si>
+    <t>10.1533033</t>
+  </si>
+  <si>
+    <t>0.00548625</t>
+  </si>
+  <si>
+    <t>0.5163071</t>
+  </si>
+  <si>
+    <t>6.20264692</t>
+  </si>
+  <si>
+    <t>6.89364262</t>
+  </si>
+  <si>
+    <t>0.00294995</t>
+  </si>
+  <si>
+    <t>5.37451128</t>
+  </si>
+  <si>
+    <t>3.25116025</t>
+  </si>
+  <si>
+    <t>10.63360609</t>
+  </si>
+  <si>
+    <t>0.004601</t>
+  </si>
+  <si>
+    <t>1.81786059</t>
+  </si>
+  <si>
+    <t>2.9843581</t>
+  </si>
+  <si>
+    <t>10.52027789</t>
+  </si>
+  <si>
+    <t>0.00742888</t>
+  </si>
+  <si>
+    <t>1.84466982</t>
+  </si>
+  <si>
+    <t>2.51191123</t>
+  </si>
+  <si>
+    <t>10.91853297</t>
+  </si>
+  <si>
+    <t>0.00401211</t>
+  </si>
+  <si>
+    <t>1.67092454</t>
+  </si>
+  <si>
+    <t>2.7688911598024113</t>
   </si>
 </sst>
 </file>
@@ -594,41 +592,41 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt formatCode="General" numFmtId="164"/>
   </numFmts>
   <fonts count="4">
     <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -636,73 +634,335 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="6">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="3" name="Comma" xfId="1"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="2"/>
+    <cellStyle builtinId="4" name="Currency" xfId="3"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
+    <cellStyle builtinId="5" name="Percent" xfId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F1048576"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="F2" activeCellId="0" pane="topLeft" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
+    <col customWidth="1" max="1025" min="1" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="1" s="2" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -722,7 +982,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="2" s="2" spans="1:6">
       <c r="A2" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -742,7 +1002,7 @@
         <v>5.56909328347084</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="3" s="2" spans="1:6">
       <c r="A3" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -762,7 +1022,7 @@
         <v>1.21198184804889</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="4" s="2" spans="1:6">
       <c r="A4" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -782,7 +1042,7 @@
         <v>2.0319448811422</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="5" s="2" spans="1:6">
       <c r="A5" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -802,7 +1062,7 @@
         <v>1.67475371323667</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="6" s="2" spans="1:6">
       <c r="A6" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -822,7 +1082,7 @@
         <v>4.31425543981809</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="7" s="2" spans="1:6">
       <c r="A7" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -842,7 +1102,7 @@
         <v>1.67475371323667</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="8" s="2" spans="1:6">
       <c r="A8" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -862,7 +1122,7 @@
         <v>5.01027943332505</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="9" s="2" spans="1:6">
       <c r="A9" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -882,7 +1142,7 @@
         <v>1.5306207890918</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="10" s="2" spans="1:6">
       <c r="A10" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -893,7 +1153,7 @@
         <v>4.03</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>9.97</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>0.000472068786621094</v>
@@ -902,7 +1162,7 @@
         <v>4.75802480027164</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="11" s="2" spans="1:6">
       <c r="A11" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -922,7 +1182,7 @@
         <v>1.29876864760434</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="12" s="2" spans="1:6">
       <c r="A12" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -942,12 +1202,12 @@
         <v>2.33257368586718</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="13" s="2" spans="1:6">
       <c r="A13" s="1" t="n">
         <v>4.95</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>8.45</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>3.3</v>
@@ -962,7 +1222,7 @@
         <v>4.43811897091549</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="14" s="2" spans="1:6">
       <c r="A14" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -982,7 +1242,7 @@
         <v>1.95829007044411</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="15" s="2" spans="1:6">
       <c r="A15" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -1002,7 +1262,7 @@
         <v>1.97202941154538</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="16" s="2" spans="1:6">
       <c r="A16" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -1022,7 +1282,7 @@
         <v>7.53570832768891</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="17" s="2" spans="1:6">
       <c r="A17" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -1042,7 +1302,7 @@
         <v>1.21198184804889</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="18" s="2" spans="1:6">
       <c r="A18" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -1062,7 +1322,7 @@
         <v>0.85146931829632</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="19" s="2" spans="1:6">
       <c r="A19" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -1082,35 +1342,40 @@
         <v>1.12645461515323</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row customHeight="1" ht="12.8" r="1048576" s="2" spans="1:6"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1.025" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.025"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="1" verticalDpi="300"/>
+  <headerFooter differentFirst="0" differentOddEven="0">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I24" activeCellId="0" sqref="I24"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
+    <col customWidth="1" max="1025" min="1" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="1" s="2" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1130,394 +1395,400 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:6">
+      <c r="A2" t="n">
         <v>2.75</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" t="n">
         <v>3.25</v>
       </c>
-      <c r="C2" s="1" t="n">
-        <v>5.05665372976325</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>7.53804876036549</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <v>0.00351762771606445</v>
-      </c>
-      <c r="F2" s="1" t="n">
-        <v>4.86908755315642</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="C2" t="n">
+        <v>2.37743165</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.0348139</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.00512266</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4.79929695</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="n">
         <v>3.85</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" t="n">
         <v>3.25</v>
       </c>
-      <c r="C3" s="1" t="n">
-        <v>1.58585972686162</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>-1.57510611647158</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>0.00784683227539063</v>
-      </c>
-      <c r="F3" s="1" t="n">
-        <v>5.32991371521703</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+      <c r="C3" t="n">
+        <v>4.56610986</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.07530078</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.01086164</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.09267319</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="n">
         <v>1.65</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" t="n">
         <v>3.25</v>
       </c>
-      <c r="C4" s="1" t="n">
-        <v>4.35618511750805</v>
-      </c>
-      <c r="D4" s="1" t="n">
-        <v>2.62578298592961</v>
-      </c>
-      <c r="E4" s="1" t="n">
-        <v>0.00981736183166504</v>
-      </c>
-      <c r="F4" s="1" t="n">
-        <v>2.7772440963799</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+      <c r="C4" t="n">
+        <v>4.42424241</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.31241488</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.01288915</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.97071479</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="n">
         <v>4.95</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" t="n">
         <v>3.25</v>
       </c>
-      <c r="C5" s="1" t="n">
-        <v>8.59255942372088</v>
-      </c>
-      <c r="D5" s="1" t="n">
-        <v>10.7399449460558</v>
-      </c>
-      <c r="E5" s="1" t="n">
-        <v>0.00303483009338379</v>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>8.32871625463878</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+      <c r="C5" t="n">
+        <v>1.86041391</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.98163249</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.00265312</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5.65100772</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="n">
         <v>1.65</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" t="n">
         <v>0.65</v>
       </c>
-      <c r="C6" s="1" t="n">
-        <v>-1.8076599496001</v>
-      </c>
-      <c r="D6" s="1" t="n">
-        <v>8.00137624668449</v>
-      </c>
-      <c r="E6" s="1" t="n">
-        <v>0.00250959396362305</v>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>8.12392423939228</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+      <c r="C6" t="n">
+        <v>2.01309285</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.51794148</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.00343251</v>
+      </c>
+      <c r="F6" t="n">
+        <v>5.87916436</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="n">
         <v>2.75</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" t="n">
         <v>0.65</v>
       </c>
-      <c r="C7" s="1" t="n">
-        <v>3.91322616652906</v>
-      </c>
-      <c r="D7" s="1" t="n">
-        <v>4.61559045954938</v>
-      </c>
-      <c r="E7" s="1" t="n">
-        <v>0.0123591423034668</v>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>4.13267501835881</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+      <c r="C7" t="n">
+        <v>4.42324764</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.96261655</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.00585055</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5.569888</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="n">
         <v>3.85</v>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" t="n">
         <v>0.65</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <v>8.66148058833245</v>
-      </c>
-      <c r="D8" s="1" t="n">
-        <v>7.78592571286994</v>
-      </c>
-      <c r="E8" s="1" t="n">
-        <v>0.00264453887939453</v>
-      </c>
-      <c r="F8" s="1" t="n">
-        <v>8.60649645509125</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+      <c r="C8" t="n">
+        <v>5.36583714</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6.71729996</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.00233674</v>
+      </c>
+      <c r="F8" t="n">
+        <v>6.25379014</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="n">
         <v>2.75</v>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B9" t="n">
         <v>5.85</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <v>3.82379907564578</v>
-      </c>
-      <c r="D9" s="1" t="n">
-        <v>5.18682514226004</v>
-      </c>
-      <c r="E9" s="1" t="n">
-        <v>0.00258207321166992</v>
-      </c>
-      <c r="F9" s="1" t="n">
-        <v>1.26207977037751</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+      <c r="C9" t="n">
+        <v>1.90314338</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7.69738967</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0036335</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2.03224376</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="n">
         <v>1.65</v>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B10" t="n">
         <v>5.85</v>
       </c>
-      <c r="C10" s="1" t="n">
-        <v>-3.12558571223969</v>
-      </c>
-      <c r="D10" s="1" t="n">
-        <v>13.9052971484581</v>
-      </c>
-      <c r="E10" s="1" t="n">
-        <v>0.00323009490966797</v>
-      </c>
-      <c r="F10" s="1" t="n">
-        <v>9.36450911927078</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+      <c r="C10" t="n">
+        <v>0.36333717</v>
+      </c>
+      <c r="D10" t="n">
+        <v>8.613162559999999</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.00322151</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3.0480434</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="n">
         <v>3.85</v>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11" t="n">
         <v>5.85</v>
       </c>
-      <c r="C11" s="1" t="n">
-        <v>1.40651152228009</v>
-      </c>
-      <c r="D11" s="1" t="n">
-        <v>6.09031270963019</v>
-      </c>
-      <c r="E11" s="1" t="n">
-        <v>0.00236845016479492</v>
-      </c>
-      <c r="F11" s="1" t="n">
-        <v>2.45527720210158</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+      <c r="C11" t="n">
+        <v>2.26443038</v>
+      </c>
+      <c r="D11" t="n">
+        <v>7.06045348</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.009058480000000001</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.9948004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="n">
         <v>4.95</v>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B12" t="n">
         <v>7.15</v>
       </c>
-      <c r="C12" s="1" t="n">
-        <v>4.50724584147636</v>
-      </c>
-      <c r="D12" s="1" t="n">
-        <v>4.5628185114286</v>
-      </c>
-      <c r="E12" s="1" t="n">
-        <v>0.00251889228820801</v>
-      </c>
-      <c r="F12" s="1" t="n">
-        <v>2.62479319179559</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+      <c r="C12" t="n">
+        <v>4.90376335</v>
+      </c>
+      <c r="D12" t="n">
+        <v>6.20146799</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.00541663</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.94965826</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="n">
         <v>4.95</v>
       </c>
-      <c r="B13" s="1" t="n">
-        <v>8.45</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>2.28392944511862</v>
-      </c>
-      <c r="D13" s="1" t="n">
-        <v>5.78002319646129</v>
-      </c>
-      <c r="E13" s="1" t="n">
-        <v>0.00215005874633789</v>
-      </c>
-      <c r="F13" s="1" t="n">
-        <v>3.77315628288046</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+      <c r="B13" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.92807437</v>
+      </c>
+      <c r="D13" t="n">
+        <v>7.83666566</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.00926137</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3.08353913</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="n">
         <v>3.85</v>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B14" t="n">
         <v>9.75</v>
       </c>
-      <c r="C14" s="1" t="n">
-        <v>2.70871666762948</v>
-      </c>
-      <c r="D14" s="1" t="n">
-        <v>14.7229931071785</v>
-      </c>
-      <c r="E14" s="1" t="n">
-        <v>0.00441813468933106</v>
-      </c>
-      <c r="F14" s="1" t="n">
-        <v>5.10227283558921</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+      <c r="C14" t="n">
+        <v>2.04486599</v>
+      </c>
+      <c r="D14" t="n">
+        <v>9.64267267</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.01506829</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.80832186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="n">
         <v>2.75</v>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B15" t="n">
         <v>9.75</v>
       </c>
-      <c r="C15" s="1" t="n">
-        <v>1.98122443196609</v>
-      </c>
-      <c r="D15" s="1" t="n">
-        <v>8.9038517695522</v>
-      </c>
-      <c r="E15" s="1" t="n">
-        <v>0.00294041633605957</v>
-      </c>
-      <c r="F15" s="1" t="n">
-        <v>1.14323344155767</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+      <c r="C15" t="n">
+        <v>1.9741835</v>
+      </c>
+      <c r="D15" t="n">
+        <v>8.70913453</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.00822663</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.29818804</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="n">
         <v>1.65</v>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B16" t="n">
         <v>9.75</v>
       </c>
-      <c r="C16" s="1" t="n">
-        <v>10.2170082823894</v>
-      </c>
-      <c r="D16" s="1" t="n">
-        <v>9.90141974248763</v>
-      </c>
-      <c r="E16" s="1" t="n">
-        <v>0.00271463394165039</v>
-      </c>
-      <c r="F16" s="1" t="n">
-        <v>8.56834633105734</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+      <c r="C16" t="n">
+        <v>5.4790111</v>
+      </c>
+      <c r="D16" t="n">
+        <v>6.97964534</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.00221682</v>
+      </c>
+      <c r="F16" t="n">
+        <v>4.72611796</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="n">
         <v>3.85</v>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B17" t="n">
         <v>12.35</v>
       </c>
-      <c r="C17" s="1" t="n">
-        <v>-5.10270750141464</v>
-      </c>
-      <c r="D17" s="1" t="n">
-        <v>15.3173204375574</v>
-      </c>
-      <c r="E17" s="1" t="n">
-        <v>0.00433254241943359</v>
-      </c>
-      <c r="F17" s="1" t="n">
-        <v>9.43164684374007</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+      <c r="C17" t="n">
+        <v>2.12016378</v>
+      </c>
+      <c r="D17" t="n">
+        <v>10.02125574</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.00460982</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2.90092798</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="n">
         <v>2.75</v>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B18" t="n">
         <v>12.35</v>
       </c>
-      <c r="C18" s="1" t="n">
-        <v>-1.81367339442714</v>
-      </c>
-      <c r="D18" s="1" t="n">
-        <v>13.6687700988394</v>
-      </c>
-      <c r="E18" s="1" t="n">
-        <v>0.00468325614929199</v>
-      </c>
-      <c r="F18" s="1" t="n">
-        <v>4.75039676496555</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+      <c r="C18" t="n">
+        <v>1.38272462</v>
+      </c>
+      <c r="D18" t="n">
+        <v>9.484190529999999</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.01050806</v>
+      </c>
+      <c r="F18" t="n">
+        <v>3.17526469</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="n">
         <v>1.65</v>
       </c>
-      <c r="B19" s="1" t="n">
+      <c r="B19" t="n">
         <v>12.35</v>
       </c>
-      <c r="C19" s="1" t="n">
-        <v>-0.96673447689274</v>
-      </c>
-      <c r="D19" s="1" t="n">
-        <v>12.931055427691</v>
-      </c>
-      <c r="E19" s="1" t="n">
-        <v>0.00574874877929688</v>
-      </c>
-      <c r="F19" s="1" t="n">
-        <v>2.68047099081641</v>
-      </c>
-    </row>
+      <c r="C19" t="n">
+        <v>1.82572723</v>
+      </c>
+      <c r="D19" t="n">
+        <v>9.59119003</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.00274086</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2.76440093</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="1048576" s="2" spans="1:6"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
+  <headerFooter differentFirst="0" differentOddEven="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A22" activeCellId="0" pane="topLeft" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
+    <col customWidth="1" max="1025" min="1" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="1" s="2" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1537,7 +1808,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="2" s="2" spans="1:6">
       <c r="A2" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -1557,7 +1828,7 @@
         <v>4.36539020676702</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="3" s="2" spans="1:6">
       <c r="A3" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -1577,7 +1848,7 @@
         <v>4.52772293532608</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="4" s="2" spans="1:6">
       <c r="A4" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -1597,7 +1868,7 @@
         <v>6.5929732491912</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="5" s="2" spans="1:6">
       <c r="A5" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -1617,7 +1888,7 @@
         <v>4.10423885741945</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="6" s="2" spans="1:6">
       <c r="A6" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -1628,7 +1899,7 @@
         <v>1.54</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>8.21</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>0.105590330229865</v>
@@ -1637,7 +1908,7 @@
         <v>7.5630521897079</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="7" s="2" spans="1:6">
       <c r="A7" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -1657,7 +1928,7 @@
         <v>6.29342951009626</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="8" s="2" spans="1:6">
       <c r="A8" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -1677,7 +1948,7 @@
         <v>7.14561881505527</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="9" s="2" spans="1:6">
       <c r="A9" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -1688,7 +1959,7 @@
         <v>4.25</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>8.78</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="E9" s="1" t="n">
         <v>0.103717313872443</v>
@@ -1697,7 +1968,7 @@
         <v>3.29652029193337</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="10" s="2" spans="1:6">
       <c r="A10" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -1708,7 +1979,7 @@
         <v>-0.05</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>9.36</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>0.129703746901618</v>
@@ -1717,7 +1988,7 @@
         <v>3.90392520048098</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="11" s="2" spans="1:6">
       <c r="A11" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -1728,7 +1999,7 @@
         <v>4.21</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>8.55</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>0.144157634841071</v>
@@ -1737,7 +2008,7 @@
         <v>2.72603207550789</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="12" s="2" spans="1:6">
       <c r="A12" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -1757,12 +2028,12 @@
         <v>3.93486037648595</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="13" s="2" spans="1:6">
       <c r="A13" s="1" t="n">
         <v>4.95</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>8.45</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>4.72</v>
@@ -1777,7 +2048,7 @@
         <v>0.353732658584854</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="14" s="2" spans="1:6">
       <c r="A14" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -1797,7 +2068,7 @@
         <v>4.82738910882902</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="15" s="2" spans="1:6">
       <c r="A15" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -1817,7 +2088,7 @@
         <v>3.93414120028723</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="16" s="2" spans="1:6">
       <c r="A16" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -1837,7 +2108,7 @@
         <v>3.00388009733781</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="17" s="2" spans="1:6">
       <c r="A17" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -1857,7 +2128,7 @@
         <v>5.06892884859794</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="18" s="2" spans="1:6">
       <c r="A18" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -1877,7 +2148,7 @@
         <v>6.09549990638718</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="19" s="2" spans="1:6">
       <c r="A19" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -1898,38 +2169,43 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
+  <headerFooter differentFirst="0" differentOddEven="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M22" activeCellId="0" sqref="M22"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="M1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="S2" activeCellId="0" pane="topLeft" sqref="S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="30.84"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11.52"/>
+    <col customWidth="1" max="2" min="1" style="1" width="11.52"/>
+    <col customWidth="1" max="3" min="3" style="1" width="20.83"/>
+    <col customWidth="1" max="4" min="4" style="1" width="25.4"/>
+    <col customWidth="1" max="5" min="5" style="1" width="26.26"/>
+    <col customWidth="1" max="6" min="6" style="1" width="30.84"/>
+    <col customWidth="1" max="1025" min="7" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="1" s="2" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1967,732 +2243,737 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="0" t="s">
+    <row customHeight="1" ht="12.8" r="2" s="2" spans="1:18">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="0" t="s">
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="0" t="s">
+      <c r="N2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="0" t="s">
+      <c r="O2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="0" t="s">
+      <c r="P2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="0" t="s">
+    </row>
+    <row customHeight="1" ht="12.8" r="3" s="2" spans="1:18">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="4" s="2" spans="1:18">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="5" s="2" spans="1:18">
+      <c r="A5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="6" s="2" spans="1:18">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="7" s="2" spans="1:18">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="B7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="8" s="2" spans="1:18">
+      <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="N3" s="0" t="s">
+      <c r="B8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="9" s="2" spans="1:18">
+      <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="0" t="s">
+      <c r="B9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="10" s="2" spans="1:18">
+      <c r="A10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="11" s="2" spans="1:18">
+      <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P3" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="R3" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="0" t="s">
+      <c r="B11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="12" s="2" spans="1:18">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="13" s="2" spans="1:18">
+      <c r="A13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="14" s="2" spans="1:18">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="15" s="2" spans="1:18">
+      <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="B15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="16" s="2" spans="1:18">
+      <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="N4" s="0" t="s">
+      <c r="B16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="17" s="2" spans="1:18">
+      <c r="A17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="18" s="2" spans="1:18">
+      <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="0" t="s">
+      <c r="B18" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="19" s="2" spans="1:18">
+      <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="P4" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="R4" s="0" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="P5" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q5" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="R5" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="O6" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="P6" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q6" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="R6" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="M7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N7" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="O7" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="P7" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q7" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="R7" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="M8" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="N8" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="O8" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="P8" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q8" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="R8" s="0" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="M9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N9" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="O9" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="P9" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q9" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="R9" s="0" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="M10" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="N10" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="O10" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="P10" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="R10" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="M11" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="N11" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="O11" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="P11" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q11" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="R11" s="0" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="M12" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="N12" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="O12" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="P12" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q12" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="R12" s="0" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="M13" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="N13" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="O13" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="P13" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q13" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="R13" s="0" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="M14" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="N14" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="O14" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="P14" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q14" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="R14" s="0" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="M15" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N15" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="O15" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="P15" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q15" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="R15" s="0" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="M16" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="N16" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="O16" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="P16" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q16" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="R16" s="0" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D17" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="M17" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="N17" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="O17" s="0" t="s">
+      <c r="C19" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N19" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="P17" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q17" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="R17" s="0" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="M18" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N18" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="O18" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="P18" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q18" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="R18" s="0" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="D19" s="0" t="s">
+      <c r="O19" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="P19" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F19" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="M19" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="N19" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="O19" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="P19" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q19" s="0" t="s">
+      <c r="Q19" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="R19" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="R19" s="0" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row customHeight="1" ht="12.8" r="22" s="2" spans="1:18">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="M22" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="M22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R22" s="0" t="s">
-        <v>111</v>
+      <c r="R22" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
+  <headerFooter differentFirst="0" differentOddEven="0">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="F2" activeCellId="0" pane="topLeft" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col customWidth="1" max="1025" min="1" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="1" s="2" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2712,402 +2993,407 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="0" t="s">
+    <row customHeight="1" ht="12.8" r="2" s="2" spans="1:6">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="D2" s="0" t="s">
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="0" t="s">
+      <c r="F2" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="3" s="2" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="4" s="2" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="5" s="2" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="6" s="2" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="7" s="2" spans="1:6">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="0" t="s">
+      <c r="B7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="8" s="2" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="9" s="2" spans="1:6">
+      <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="0" t="s">
+      <c r="B9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="10" s="2" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="11" s="2" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="12" s="2" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="13" s="2" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="14" s="2" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="15" s="2" spans="1:6">
+      <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="D15" s="0" t="s">
+      <c r="B15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="E15" s="1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="C16" s="0" t="s">
+      <c r="F15" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D16" s="0" t="s">
+    </row>
+    <row customHeight="1" ht="12.8" r="16" s="2" spans="1:6">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="E16" s="1" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17" s="0" t="s">
+      <c r="F16" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D17" s="0" t="s">
+    </row>
+    <row customHeight="1" ht="12.8" r="17" s="2" spans="1:6">
+      <c r="A17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="D17" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="F17" s="0" t="s">
+      <c r="E17" s="1" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="0" t="s">
+      <c r="F17" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D18" s="0" t="s">
+    </row>
+    <row customHeight="1" ht="12.8" r="18" s="2" spans="1:6">
+      <c r="A18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="D18" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="F18" s="0" t="s">
+      <c r="E18" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="C19" s="0" t="s">
+      <c r="F18" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D19" s="0" t="s">
+    </row>
+    <row customHeight="1" ht="12.8" r="19" s="2" spans="1:6">
+      <c r="A19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="D19" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="F19" s="0" t="s">
+      <c r="E19" s="1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="F19" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="21" s="2" spans="1:6">
+      <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="0" t="s">
-        <v>184</v>
+      <c r="F21" s="1" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
+  <headerFooter differentFirst="0" differentOddEven="0">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
+    <col customWidth="1" max="1025" min="1" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="1" s="2" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3127,7 +3413,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="2" s="2" spans="1:6">
       <c r="A2" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -3138,7 +3424,7 @@
         <v>3.94</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>9.54</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>0.000669956207275391</v>
@@ -3147,7 +3433,7 @@
         <v>6.40157793047933</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="3" s="2" spans="1:6">
       <c r="A3" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -3167,7 +3453,7 @@
         <v>1.13648581161403</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="4" s="2" spans="1:6">
       <c r="A4" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -3187,7 +3473,7 @@
         <v>1.8965494984313</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="5" s="2" spans="1:6">
       <c r="A5" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -3207,7 +3493,7 @@
         <v>1.70801053860917</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="6" s="2" spans="1:6">
       <c r="A6" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -3227,7 +3513,7 @@
         <v>3.9355431645454</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="7" s="2" spans="1:6">
       <c r="A7" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -3247,7 +3533,7 @@
         <v>1.89129585205488</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="8" s="2" spans="1:6">
       <c r="A8" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -3267,7 +3553,7 @@
         <v>4.3851567816898</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="9" s="2" spans="1:6">
       <c r="A9" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -3287,7 +3573,7 @@
         <v>2.00848201386022</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="10" s="2" spans="1:6">
       <c r="A10" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -3307,7 +3593,7 @@
         <v>4.97129761732287</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="11" s="2" spans="1:6">
       <c r="A11" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -3327,7 +3613,7 @@
         <v>1.51713545868522</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="12" s="2" spans="1:6">
       <c r="A12" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -3347,12 +3633,12 @@
         <v>3.30151480384384</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="13" s="2" spans="1:6">
       <c r="A13" s="1" t="n">
         <v>4.95</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>8.45</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>3.64</v>
@@ -3367,7 +3653,7 @@
         <v>4.18055020302352</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="14" s="2" spans="1:6">
       <c r="A14" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -3387,7 +3673,7 @@
         <v>2.18874393203042</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="15" s="2" spans="1:6">
       <c r="A15" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -3407,7 +3693,7 @@
         <v>2.0068383093812</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="16" s="2" spans="1:6">
       <c r="A16" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -3427,7 +3713,7 @@
         <v>7.5304714327856</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="17" s="2" spans="1:6">
       <c r="A17" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -3447,7 +3733,7 @@
         <v>2.54049207831869</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="18" s="2" spans="1:6">
       <c r="A18" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -3467,7 +3753,7 @@
         <v>1.07168092266309</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="19" s="2" spans="1:6">
       <c r="A19" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -3488,33 +3774,38 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
+  <headerFooter differentFirst="0" differentOddEven="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F1048576"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="F2" activeCellId="0" pane="topLeft" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
+    <col customWidth="1" max="1025" min="1" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="1" s="2" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3534,7 +3825,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="2" s="2" spans="1:6">
       <c r="A2" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -3542,19 +3833,19 @@
         <v>3.25</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>1.66931893319866</v>
+        <v>2.20745715</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>8.1934280153518</v>
+        <v>7.61805954</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0.0303432941436768</v>
+        <v>0.00020742</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>5.06017313054682</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>4.40162435</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="3" s="2" spans="1:6">
       <c r="A3" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -3562,19 +3853,19 @@
         <v>3.25</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>0.930058501866501</v>
+        <v>4.36072764</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>-5.08947644873305</v>
+        <v>4.2510725</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0.000896215438842773</v>
+        <v>0.00017357</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>8.83588851171716</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>1.12382778</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="4" s="2" spans="1:6">
       <c r="A4" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -3582,19 +3873,19 @@
         <v>3.25</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>1.17925873178072</v>
+        <v>4.36451538</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>4.24277684892561</v>
+        <v>6.40499919</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0.000892162322998047</v>
+        <v>0.00017452</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>1.0987279978991</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>4.16204441</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="5" s="2" spans="1:6">
       <c r="A5" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -3602,19 +3893,19 @@
         <v>3.25</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>6.81986614523879</v>
+        <v>1.69461853</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>9.54585996826885</v>
+        <v>7.31087655</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>0.000878095626831055</v>
+        <v>0.00017834</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>6.56766717649124</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>5.20463514</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="6" s="2" spans="1:6">
       <c r="A6" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -3622,19 +3913,19 @@
         <v>0.65</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>2.7606668318794</v>
+        <v>3.39670288</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>6.74949099987825</v>
+        <v>6.93749086</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>0.000970840454101562</v>
+        <v>0.00017667</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>6.19978800194271</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>6.52560436</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="7" s="2" spans="1:6">
       <c r="A7" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -3642,19 +3933,19 @@
         <v>0.65</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>2.47089409027441</v>
+        <v>3.18441936</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>5.08510473248561</v>
+        <v>6.15624373</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>0.000886440277099609</v>
+        <v>0.0001905</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>4.44387827206822</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>5.52335407</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="8" s="2" spans="1:6">
       <c r="A8" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -3662,19 +3953,19 @@
         <v>0.65</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>-2.46592999746089</v>
+        <v>3.82864689</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>5.7706557636954</v>
+        <v>6.35790706</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>0.000884056091308594</v>
+        <v>0.00018001</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>8.13093396745375</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>5.707947</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="9" s="2" spans="1:6">
       <c r="A9" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -3682,19 +3973,19 @@
         <v>5.85</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>6.727274225714</v>
+        <v>2.62735037</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>5.88044814549354</v>
+        <v>6.89871076</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>0.000987768173217773</v>
+        <v>0.00016594</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>3.97739077236483</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>1.05585851</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="10" s="2" spans="1:6">
       <c r="A10" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -3702,19 +3993,19 @@
         <v>5.85</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>-17.0517413000674</v>
+        <v>2.92834749</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>21.9994714346168</v>
+        <v>8.84251177</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>0.000891208648681641</v>
+        <v>0.00017476</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>24.709523574366</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>3.25412031</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="11" s="2" spans="1:6">
       <c r="A11" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -3722,19 +4013,19 @@
         <v>5.85</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>2.96166961477637</v>
+        <v>3.0233008</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>6.33201339498666</v>
+        <v>6.77050618</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>0.000893831253051758</v>
+        <v>0.00016689</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>1.01067689508474</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>1.23724015</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="12" s="2" spans="1:6">
       <c r="A12" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -3742,39 +4033,39 @@
         <v>7.15</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>2.19245533434216</v>
+        <v>3.95929467</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>6.31796782784971</v>
+        <v>6.97588974</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>0.000890493392944336</v>
+        <v>0.00017834</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>2.88033507054147</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>1.00588838</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="13" s="2" spans="1:6">
       <c r="A13" s="1" t="n">
         <v>4.95</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>8.45</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>7.2215343250765</v>
+        <v>1.32793015</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>7.56051552825167</v>
+        <v>7.62933677</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>0.00104665756225586</v>
+        <v>0.00017953</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>2.43947757019452</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>3.71387643</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="14" s="2" spans="1:6">
       <c r="A14" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -3782,19 +4073,19 @@
         <v>9.75</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>-2.47785528914652</v>
+        <v>2.24650576</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>17.1456896533485</v>
+        <v>9.59546102</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>0.000882625579833984</v>
+        <v>0.00017357</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>9.7333436191797</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>1.61092398</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="15" s="2" spans="1:6">
       <c r="A15" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -3802,19 +4093,19 @@
         <v>9.75</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>2.97315961791636</v>
+        <v>1.63317882</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>9.16433076512769</v>
+        <v>8.441345399999999</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>0.000887155532836914</v>
+        <v>0.00016832</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>0.626744499572588</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>1.72042623</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="16" s="2" spans="1:6">
       <c r="A16" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -3822,19 +4113,19 @@
         <v>9.75</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>3.49450862479594</v>
+        <v>3.49568118</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>9.06693196227493</v>
+        <v>6.80144971</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>0.000852108001708984</v>
+        <v>0.00017786</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>1.96692501410404</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>3.47857554</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="17" s="2" spans="1:6">
       <c r="A17" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -3842,19 +4133,19 @@
         <v>12.35</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>-4.82903436702385</v>
+        <v>3.09631518</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>21.4185746845695</v>
+        <v>9.16852763</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>0.000894308090209961</v>
+        <v>0.00017571</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>12.5524772197999</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>3.26952706</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="18" s="2" spans="1:6">
       <c r="A18" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -3862,19 +4153,19 @@
         <v>12.35</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>-5.47784927898253</v>
+        <v>2.04097795</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>17.5863043614723</v>
+        <v>9.557343270000001</v>
       </c>
       <c r="E18" s="1" t="n">
-        <v>0.000840425491333008</v>
+        <v>0.00017786</v>
       </c>
       <c r="F18" s="1" t="n">
-        <v>9.75276305072707</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>2.88125734</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="19" s="2" spans="1:6">
       <c r="A19" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -3882,47 +4173,51 @@
         <v>12.35</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>-3.06059312907243</v>
+        <v>2.11286856</v>
       </c>
       <c r="D19" s="1" t="n">
-        <v>13.8692384925925</v>
+        <v>9.14753968</v>
       </c>
       <c r="E19" s="1" t="n">
-        <v>0.000903129577636719</v>
+        <v>0.00017357</v>
       </c>
       <c r="F19" s="1" t="n">
-        <v>4.94952252495522</v>
-      </c>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+        <v>3.23573784</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
+  <headerFooter differentFirst="0" differentOddEven="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F1048576"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="G24" activeCellId="0" pane="topLeft" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
+    <col customWidth="1" max="1025" min="1" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="1" s="2" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3942,7 +4237,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="2" s="2" spans="1:6">
       <c r="A2" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -3950,19 +4245,19 @@
         <v>3.25</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>1.28090014362402</v>
+        <v>1.46830068</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>8.4982930539111</v>
+        <v>7.76160636</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0.0182821750640869</v>
+        <v>0.00305653</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>5.4500306758527</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>4.69013274</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="3" s="2" spans="1:6">
       <c r="A3" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -3970,19 +4265,19 @@
         <v>3.25</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>3.0470607640423</v>
+        <v>4.40596575</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>-1.36813569191296</v>
+        <v>4.00921821</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0.0426394939422607</v>
+        <v>0.01105714</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>4.68741812574479</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>0.94101552</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="4" s="2" spans="1:6">
       <c r="A4" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -3990,19 +4285,19 @@
         <v>3.25</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>5.54845698820164</v>
+        <v>1.9648108</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>2.1852634085148</v>
+        <v>6.22774758</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0.0287375450134277</v>
+        <v>0.00399351</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>4.0412412571023</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>2.99434241</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="5" s="2" spans="1:6">
       <c r="A5" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -4010,19 +4305,19 @@
         <v>3.25</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>8.36042301704494</v>
+        <v>2.39397133</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>9.41282706214786</v>
+        <v>7.19515492</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>0.0116221904754639</v>
+        <v>0.00357223</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>7.04353764475863</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>4.70080099</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="6" s="2" spans="1:6">
       <c r="A6" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -4030,19 +4325,19 @@
         <v>0.65</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>-1.07344275946728</v>
+        <v>1.54620834</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>7.38230187632474</v>
+        <v>7.07008761</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>0.0130586624145508</v>
+        <v>0.00388122</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>7.26230190904099</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>6.42092654</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="7" s="2" spans="1:6">
       <c r="A7" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -4050,19 +4345,19 @@
         <v>0.65</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>0.785910292193495</v>
+        <v>2.68921202</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>4.84370777266906</v>
+        <v>5.98000397</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>0.0434374809265137</v>
+        <v>0.00378704</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>4.6308566446022</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>5.3303506</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="8" s="2" spans="1:6">
       <c r="A8" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -4070,19 +4365,19 @@
         <v>0.65</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>-3.59299037603762</v>
+        <v>1.77843303</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>5.94832794635701</v>
+        <v>6.26230504</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>0.01253342628479</v>
+        <v>0.00448108</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>9.13621282397341</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>5.98242071</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="9" s="2" spans="1:6">
       <c r="A9" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -4090,19 +4385,19 @@
         <v>5.85</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>5.19147835820936</v>
+        <v>2.15253528</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>5.82342161045461</v>
+        <v>6.8461981</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>0.0267913341522217</v>
+        <v>0.0094769</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>2.44162302258057</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>1.16162591</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="10" s="2" spans="1:6">
       <c r="A10" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -4110,19 +4405,19 @@
         <v>5.85</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>-3.68990522356622</v>
+        <v>0.53898672</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>15.054081838452</v>
+        <v>9.307992049999999</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>0.0146679878234863</v>
+        <v>0.009324789999999999</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>10.640944990253</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>3.63208749</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="11" s="2" spans="1:6">
       <c r="A11" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -4130,19 +4425,19 @@
         <v>5.85</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>2.65270300977418</v>
+        <v>2.43838294</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>6.44153826376387</v>
+        <v>6.77727723</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>0.0192825794219971</v>
+        <v>0.01266694</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>1.33545408019167</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>1.68893629</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="12" s="2" spans="1:6">
       <c r="A12" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -4150,39 +4445,39 @@
         <v>7.15</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>4.84774010005663</v>
+        <v>4.3578916</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>5.94611540052177</v>
+        <v>6.64852395</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>0.0147182941436768</v>
+        <v>0.00494552</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>1.2082198541645</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>0.77593208</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="13" s="2" spans="1:6">
       <c r="A13" s="1" t="n">
         <v>4.95</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>8.45</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>3.78195120725769</v>
+        <v>1.94973894</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>7.69428859846727</v>
+        <v>7.57738658</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>0.0135738849639893</v>
+        <v>0.01622605</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>1.39120009510973</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>3.12458326</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="14" s="2" spans="1:6">
       <c r="A14" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -4190,19 +4485,19 @@
         <v>9.75</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>3.13262956245206</v>
+        <v>2.24382624</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>15.0177024853081</v>
+        <v>9.726713139999999</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>0.0178403854370117</v>
+        <v>0.01599145</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>5.31632484131553</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>1.60634256</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="15" s="2" spans="1:6">
       <c r="A15" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -4210,19 +4505,19 @@
         <v>9.75</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>2.33290630378232</v>
+        <v>1.85965172</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>8.87890437243762</v>
+        <v>8.4285383</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>0.0145282745361328</v>
+        <v>0.00332332</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>0.965802642252972</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>1.59341805</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="16" s="2" spans="1:6">
       <c r="A16" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -4230,19 +4525,19 @@
         <v>9.75</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>8.43268690770465</v>
+        <v>4.29235976</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>8.89146890353844</v>
+        <v>6.42743743</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>0.0154190063476563</v>
+        <v>0.0103848</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>6.83680607678319</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>4.24517221</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="17" s="2" spans="1:6">
       <c r="A17" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -4250,19 +4545,19 @@
         <v>12.35</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>-0.594708492629935</v>
+        <v>1.16018426</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>17.0320206901621</v>
+        <v>9.67517026</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>0.0439562797546387</v>
+        <v>0.009001729999999999</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>6.4557533508927</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>3.793392</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="18" s="2" spans="1:6">
       <c r="A18" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -4270,19 +4565,19 @@
         <v>12.35</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>-0.438463096075891</v>
+        <v>1.65699816</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>14.1343212382254</v>
+        <v>9.63925034</v>
       </c>
       <c r="E18" s="1" t="n">
-        <v>0.0177671909332275</v>
+        <v>0.00301504</v>
       </c>
       <c r="F18" s="1" t="n">
-        <v>3.65377875578419</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>2.92280973</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="19" s="2" spans="1:6">
       <c r="A19" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -4290,19 +4585,19 @@
         <v>12.35</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>-2.03768048892229</v>
+        <v>1.01518831</v>
       </c>
       <c r="D19" s="1" t="n">
-        <v>12.9634614002119</v>
+        <v>9.2884321</v>
       </c>
       <c r="E19" s="1" t="n">
-        <v>0.0137386322021484</v>
+        <v>0.00810289</v>
       </c>
       <c r="F19" s="1" t="n">
-        <v>3.73835823295843</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>3.12668897</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="22" s="2" spans="1:6">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
@@ -4310,35 +4605,48 @@
         <v>465552</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row customHeight="1" ht="12.8" r="24" s="2" spans="1:6">
+      <c r="A24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="1048576" s="2" spans="1:6"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
+  <headerFooter differentFirst="0" differentOddEven="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F1048576"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="F2" activeCellId="0" pane="topLeft" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
+    <col customWidth="1" max="1025" min="1" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="1" s="2" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4358,7 +4666,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="2" s="2" spans="1:6">
       <c r="A2" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -4375,10 +4683,10 @@
         <v>0.00048065185546875</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>9.88862983430971</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>9.888629834309709</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="3" s="2" spans="1:6">
       <c r="A3" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -4398,7 +4706,7 @@
         <v>0.85146931829632</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="4" s="2" spans="1:6">
       <c r="A4" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -4418,7 +4726,7 @@
         <v>0.85146931829632</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="5" s="2" spans="1:6">
       <c r="A5" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -4438,7 +4746,7 @@
         <v>4.31566912540802</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="6" s="2" spans="1:6">
       <c r="A6" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -4458,7 +4766,7 @@
         <v>4.31566912540802</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="7" s="2" spans="1:6">
       <c r="A7" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -4478,7 +4786,7 @@
         <v>3.37120156620752</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="8" s="2" spans="1:6">
       <c r="A8" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -4498,7 +4806,7 @@
         <v>2.55440795488896</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="9" s="2" spans="1:6">
       <c r="A9" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -4518,7 +4826,7 @@
         <v>2.55440795488896</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="10" s="2" spans="1:6">
       <c r="A10" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -4538,7 +4846,7 @@
         <v>7.66061355245127</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="11" s="2" spans="1:6">
       <c r="A11" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -4558,7 +4866,7 @@
         <v>2.55440795488896</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="12" s="2" spans="1:6">
       <c r="A12" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -4578,12 +4886,12 @@
         <v>4.2573465914816</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="13" s="2" spans="1:6">
       <c r="A13" s="1" t="n">
         <v>4.95</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>8.45</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>4.4</v>
@@ -4598,7 +4906,7 @@
         <v>4.58312120721239</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="14" s="2" spans="1:6">
       <c r="A14" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -4618,7 +4926,7 @@
         <v>3.64485939372152</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="15" s="2" spans="1:6">
       <c r="A15" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -4638,7 +4946,7 @@
         <v>3.64485939372152</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="16" s="2" spans="1:6">
       <c r="A16" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -4658,7 +4966,7 @@
         <v>8.12065268312837</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="17" s="2" spans="1:6">
       <c r="A17" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -4678,7 +4986,7 @@
         <v>3.64485939372152</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="18" s="2" spans="1:6">
       <c r="A18" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -4698,7 +5006,7 @@
         <v>2.02607995893548</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="19" s="2" spans="1:6">
       <c r="A19" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -4718,35 +5026,40 @@
         <v>2.55440795488896</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row customHeight="1" ht="12.8" r="1048576" s="2" spans="1:6"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
+  <headerFooter differentFirst="0" differentOddEven="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F1048576"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K11" activeCellId="0" sqref="K11"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="K11" activeCellId="0" pane="topLeft" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
+    <col customWidth="1" max="1025" min="1" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="1" s="2" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4766,7 +5079,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="2" s="2" spans="1:6">
       <c r="A2" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -4786,7 +5099,7 @@
         <v>4.50422654693714</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="3" s="2" spans="1:6">
       <c r="A3" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -4800,13 +5113,13 @@
         <v>0.0561174089667693</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0.00911211967468262</v>
+        <v>0.009112119674682621</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>3.23054249462045</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="4" s="2" spans="1:6">
       <c r="A4" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -4826,7 +5139,7 @@
         <v>2.87245294105496</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="5" s="2" spans="1:6">
       <c r="A5" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -4846,7 +5159,7 @@
         <v>2.92368848531063</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="6" s="2" spans="1:6">
       <c r="A6" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -4866,7 +5179,7 @@
         <v>5.82760782309516</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="7" s="2" spans="1:6">
       <c r="A7" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -4886,7 +5199,7 @@
         <v>3.43342976012678</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="8" s="2" spans="1:6">
       <c r="A8" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -4906,7 +5219,7 @@
         <v>4.81924947986295</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="9" s="2" spans="1:6">
       <c r="A9" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -4926,7 +5239,7 @@
         <v>0.576463161572026</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="10" s="2" spans="1:6">
       <c r="A10" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -4946,7 +5259,7 @@
         <v>4.23514014549845</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="11" s="2" spans="1:6">
       <c r="A11" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -4966,7 +5279,7 @@
         <v>0.895075183429919</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="12" s="2" spans="1:6">
       <c r="A12" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -4986,12 +5299,12 @@
         <v>1.64313692350257</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="13" s="2" spans="1:6">
       <c r="A13" s="1" t="n">
         <v>4.95</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>8.45</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>3.47298668385036</v>
@@ -5006,7 +5319,7 @@
         <v>1.76065645299256</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="14" s="2" spans="1:6">
       <c r="A14" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -5026,7 +5339,7 @@
         <v>2.54272278402335</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="15" s="2" spans="1:6">
       <c r="A15" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -5037,7 +5350,7 @@
         <v>3.41318677229139</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>9.92737839403211</v>
+        <v>9.927378394032109</v>
       </c>
       <c r="E15" s="1" t="n">
         <v>0.00290751457214356</v>
@@ -5046,7 +5359,7 @@
         <v>0.686498208017827</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="16" s="2" spans="1:6">
       <c r="A16" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -5066,7 +5379,7 @@
         <v>4.84754539236819</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="17" s="2" spans="1:6">
       <c r="A17" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -5077,7 +5390,7 @@
         <v>2.23128711480651</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>9.89341394087952</v>
+        <v>9.893413940879521</v>
       </c>
       <c r="E17" s="1" t="n">
         <v>0.00282096862792969</v>
@@ -5086,7 +5399,7 @@
         <v>2.94194603460984</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="18" s="2" spans="1:6">
       <c r="A18" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -5106,7 +5419,7 @@
         <v>0.53752314801518</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="19" s="2" spans="1:6">
       <c r="A19" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -5126,35 +5439,40 @@
         <v>1.13945253614775</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row customHeight="1" ht="12.8" r="1048576" s="2" spans="1:6"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
+  <headerFooter differentFirst="0" differentOddEven="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="F2" activeCellId="0" pane="topLeft" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
+    <col customWidth="1" max="1025" min="1" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="1" s="2" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5174,7 +5492,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="2" s="2" spans="1:6">
       <c r="A2" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -5194,7 +5512,7 @@
         <v>3.62200220872379</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="3" s="2" spans="1:6">
       <c r="A3" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -5214,7 +5532,7 @@
         <v>1.32774244490413</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="4" s="2" spans="1:6">
       <c r="A4" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -5234,7 +5552,7 @@
         <v>2.03651663386283</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="5" s="2" spans="1:6">
       <c r="A5" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -5254,7 +5572,7 @@
         <v>2.65994360842481</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="6" s="2" spans="1:6">
       <c r="A6" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -5274,7 +5592,7 @@
         <v>5.31507290636732</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="7" s="2" spans="1:6">
       <c r="A7" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -5294,7 +5612,7 @@
         <v>1.95816240388789</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="8" s="2" spans="1:6">
       <c r="A8" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -5314,7 +5632,7 @@
         <v>3.98527288902529</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="9" s="2" spans="1:6">
       <c r="A9" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -5334,7 +5652,7 @@
         <v>2.28600087489047</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="10" s="2" spans="1:6">
       <c r="A10" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -5345,7 +5663,7 @@
         <v>3.3</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>8.78</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>0.000477790832519531</v>
@@ -5354,7 +5672,7 @@
         <v>3.36264776626991</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="11" s="2" spans="1:6">
       <c r="A11" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -5374,7 +5692,7 @@
         <v>0.883911760301898</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="12" s="2" spans="1:6">
       <c r="A12" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -5385,7 +5703,7 @@
         <v>3.58</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>8.45</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="E12" s="1" t="n">
         <v>0.000476598739624023</v>
@@ -5394,12 +5712,12 @@
         <v>1.88862383761299</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="13" s="2" spans="1:6">
       <c r="A13" s="1" t="n">
         <v>4.95</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>8.45</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>3.58</v>
@@ -5414,7 +5732,7 @@
         <v>2.38314917703445</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="14" s="2" spans="1:6">
       <c r="A14" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -5434,7 +5752,7 @@
         <v>1.32774244490413</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="15" s="2" spans="1:6">
       <c r="A15" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -5454,7 +5772,7 @@
         <v>1.0463746938836</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="16" s="2" spans="1:6">
       <c r="A16" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -5474,7 +5792,7 @@
         <v>5.54661157825208</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="17" s="2" spans="1:6">
       <c r="A17" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -5494,7 +5812,7 @@
         <v>1.41155942134931</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="18" s="2" spans="1:6">
       <c r="A18" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -5514,7 +5832,7 @@
         <v>0.889550448260243</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="19" s="2" spans="1:6">
       <c r="A19" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -5534,19 +5852,19 @@
         <v>0.893196506934504</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="21" s="2" spans="1:6">
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="22" s="2" spans="1:6">
+      <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="1" t="n">
@@ -5554,33 +5872,38 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
+  <headerFooter differentFirst="0" differentOddEven="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="F1" activeCellId="0" pane="topLeft" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
+    <col customWidth="1" max="1025" min="1" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="1" s="2" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5600,7 +5923,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="2" s="2" spans="1:6">
       <c r="A2" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -5620,7 +5943,7 @@
         <v>8.46788049041789</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="3" s="2" spans="1:6">
       <c r="A3" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -5640,7 +5963,7 @@
         <v>0.85146931829632</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="4" s="2" spans="1:6">
       <c r="A4" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -5660,7 +5983,7 @@
         <v>1.77341478509682</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="5" s="2" spans="1:6">
       <c r="A5" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -5680,7 +6003,7 @@
         <v>2.93981291921782</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="6" s="2" spans="1:6">
       <c r="A6" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -5700,7 +6023,7 @@
         <v>2.10059515376</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="7" s="2" spans="1:6">
       <c r="A7" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -5720,7 +6043,7 @@
         <v>3.04179223485103</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="8" s="2" spans="1:6">
       <c r="A8" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -5740,7 +6063,7 @@
         <v>3.07936681803256</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="9" s="2" spans="1:6">
       <c r="A9" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -5760,7 +6083,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="10" s="2" spans="1:6">
       <c r="A10" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -5780,7 +6103,7 @@
         <v>6.07823987680644</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="11" s="2" spans="1:6">
       <c r="A11" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -5800,7 +6123,7 @@
         <v>1.77341478509682</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="12" s="2" spans="1:6">
       <c r="A12" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -5820,12 +6143,12 @@
         <v>4.83993801613202</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="13" s="2" spans="1:6">
       <c r="A13" s="1" t="n">
         <v>4.95</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>8.45</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>4.4</v>
@@ -5840,7 +6163,7 @@
         <v>3.2962099447699</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="14" s="2" spans="1:6">
       <c r="A14" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -5860,7 +6183,7 @@
         <v>2.65753645318366</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="15" s="2" spans="1:6">
       <c r="A15" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -5880,7 +6203,7 @@
         <v>2.23886131772381</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="16" s="2" spans="1:6">
       <c r="A16" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -5900,7 +6223,7 @@
         <v>7.55463433926487</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="17" s="2" spans="1:6">
       <c r="A17" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -5920,7 +6243,7 @@
         <v>2.02607995893548</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="18" s="2" spans="1:6">
       <c r="A18" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -5940,7 +6263,7 @@
         <v>1.70293863659264</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="19" s="2" spans="1:6">
       <c r="A19" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -5961,33 +6284,38 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
+  <headerFooter differentFirst="0" differentOddEven="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="F2" activeCellId="0" pane="topLeft" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
+    <col customWidth="1" max="1025" min="1" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="1" s="2" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6007,7 +6335,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="2" s="2" spans="1:6">
       <c r="A2" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -6027,7 +6355,7 @@
         <v>4.77445284823298</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="3" s="2" spans="1:6">
       <c r="A3" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -6047,7 +6375,7 @@
         <v>1.23490890352285</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="4" s="2" spans="1:6">
       <c r="A4" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -6067,7 +6395,7 @@
         <v>1.90420587122296</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="5" s="2" spans="1:6">
       <c r="A5" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -6087,7 +6415,7 @@
         <v>2.58213090295593</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="6" s="2" spans="1:6">
       <c r="A6" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -6107,7 +6435,7 @@
         <v>4.65842247976716</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="7" s="2" spans="1:6">
       <c r="A7" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -6127,7 +6455,7 @@
         <v>2.02071769428587</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="8" s="2" spans="1:6">
       <c r="A8" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -6147,7 +6475,7 @@
         <v>3.74862641510194</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="9" s="2" spans="1:6">
       <c r="A9" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -6167,7 +6495,7 @@
         <v>2.27378539004894</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="10" s="2" spans="1:6">
       <c r="A10" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -6187,7 +6515,7 @@
         <v>3.73530453912395</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="11" s="2" spans="1:6">
       <c r="A11" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -6207,7 +6535,7 @@
         <v>1.20353645561736</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="12" s="2" spans="1:6">
       <c r="A12" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -6227,12 +6555,12 @@
         <v>2.92697796370249</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="13" s="2" spans="1:6">
       <c r="A13" s="1" t="n">
         <v>4.95</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>8.45</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>3.76</v>
@@ -6247,7 +6575,7 @@
         <v>2.85029823001032</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="14" s="2" spans="1:6">
       <c r="A14" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -6267,7 +6595,7 @@
         <v>1.63012269476871</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="15" s="2" spans="1:6">
       <c r="A15" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -6287,7 +6615,7 @@
         <v>1.3877319625922</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="16" s="2" spans="1:6">
       <c r="A16" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -6307,7 +6635,7 @@
         <v>6.07783678622584</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="17" s="2" spans="1:6">
       <c r="A17" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -6327,7 +6655,7 @@
         <v>2.47872951327893</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="18" s="2" spans="1:6">
       <c r="A18" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -6347,7 +6675,7 @@
         <v>1.02396288995256</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="19" s="2" spans="1:6">
       <c r="A19" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -6368,12 +6696,16 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
+  <headerFooter differentFirst="0" differentOddEven="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
--- a/Data/methods.xlsx
+++ b/Data/methods.xlsx
@@ -1,590 +1,566 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="15"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FingerKnn3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WeightedFingerKnn3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HyperbolicAlgo" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CircularAlgo" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FingerKnn1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FingerNN" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FingerKnn4" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FingerKnn2" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WeightedFingerKnn4" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="W_CircularAlgo" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultNN" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultPoly" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WeightedMultPoly" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="FingerKnn3" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="WeightedFingerKnn3" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="HyperbolicAlgo" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="CircularAlgo" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="FingerKnn1" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="FingerNN" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="FingerKnn4" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="FingerKnn2" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="WeightedFingerKnn4" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="W_CircularAlgo" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="MultNN" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="WeightedMultPoly" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="CircularAlgo4" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="CircularAlgo3" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="MultPoly" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="MultPoly4" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="MultPoly6" sheetId="17" state="visible" r:id="rId18"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="186">
-  <si>
-    <t>Real X</t>
-  </si>
-  <si>
-    <t>Real Y</t>
-  </si>
-  <si>
-    <t>Est. X</t>
-  </si>
-  <si>
-    <t>Est. Y</t>
-  </si>
-  <si>
-    <t>Duration</t>
-  </si>
-  <si>
-    <t>Error</t>
-  </si>
-  <si>
-    <t>Number of executions:</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>3.262832114</t>
-  </si>
-  <si>
-    <t>0.00047</t>
-  </si>
-  <si>
-    <t>2.37</t>
-  </si>
-  <si>
-    <t>2.75</t>
-  </si>
-  <si>
-    <t>3.25</t>
-  </si>
-  <si>
-    <t>4.4664402</t>
-  </si>
-  <si>
-    <t>6.2508356</t>
-  </si>
-  <si>
-    <t>0.00375557</t>
-  </si>
-  <si>
-    <t>3.45704806</t>
-  </si>
-  <si>
-    <t>0.00467205</t>
-  </si>
-  <si>
-    <t>3.85</t>
-  </si>
-  <si>
-    <t>3.87455345</t>
-  </si>
-  <si>
-    <t>3.79642531</t>
-  </si>
-  <si>
-    <t>0.00331354</t>
-  </si>
-  <si>
-    <t>0.54697668</t>
-  </si>
-  <si>
-    <t>0.00275159</t>
-  </si>
-  <si>
-    <t>1.65</t>
-  </si>
-  <si>
-    <t>4.82738045</t>
-  </si>
-  <si>
-    <t>4.57320642</t>
-  </si>
-  <si>
-    <t>0.00779247</t>
-  </si>
-  <si>
-    <t>3.44189218</t>
-  </si>
-  <si>
-    <t>0.00825906</t>
-  </si>
-  <si>
-    <t>4.95</t>
-  </si>
-  <si>
-    <t>5.31115351</t>
-  </si>
-  <si>
-    <t>6.35617067</t>
-  </si>
-  <si>
-    <t>0.00512481</t>
-  </si>
-  <si>
-    <t>3.12709579</t>
-  </si>
-  <si>
-    <t>0.00652719</t>
-  </si>
-  <si>
-    <t>0.65</t>
-  </si>
-  <si>
-    <t>5.3770369</t>
-  </si>
-  <si>
-    <t>5.03956045</t>
-  </si>
-  <si>
-    <t>0.00289345</t>
-  </si>
-  <si>
-    <t>5.7583891</t>
-  </si>
-  <si>
-    <t>0.00473118</t>
-  </si>
-  <si>
-    <t>4.69736044</t>
-  </si>
-  <si>
-    <t>4.83262718</t>
-  </si>
-  <si>
-    <t>0.00334883</t>
-  </si>
-  <si>
-    <t>4.61373848</t>
-  </si>
-  <si>
-    <t>0.00346899</t>
-  </si>
-  <si>
-    <t>5.0291783</t>
-  </si>
-  <si>
-    <t>4.5685964</t>
-  </si>
-  <si>
-    <t>0.00346518</t>
-  </si>
-  <si>
-    <t>4.09217047</t>
-  </si>
-  <si>
-    <t>0.00363898</t>
-  </si>
-  <si>
-    <t>5.85</t>
-  </si>
-  <si>
-    <t>4.11072885</t>
-  </si>
-  <si>
-    <t>5.36712233</t>
-  </si>
-  <si>
-    <t>0.00263691</t>
-  </si>
-  <si>
-    <t>1.44386766</t>
-  </si>
-  <si>
-    <t>0.00270677</t>
-  </si>
-  <si>
-    <t>0.40326436</t>
-  </si>
-  <si>
-    <t>8.89943037</t>
-  </si>
-  <si>
-    <t>0.00634623</t>
-  </si>
-  <si>
-    <t>3.29444614</t>
-  </si>
-  <si>
-    <t>0.00633621</t>
-  </si>
-  <si>
-    <t>3.93090674</t>
-  </si>
-  <si>
-    <t>5.59343413</t>
-  </si>
-  <si>
-    <t>0.00856829</t>
-  </si>
-  <si>
-    <t>0.26902035</t>
-  </si>
-  <si>
-    <t>0.00851488</t>
-  </si>
-  <si>
-    <t>7.15</t>
-  </si>
-  <si>
-    <t>5.46835439</t>
-  </si>
-  <si>
-    <t>6.01841648</t>
-  </si>
-  <si>
-    <t>0.00348353</t>
-  </si>
-  <si>
-    <t>1.2446576</t>
-  </si>
-  <si>
-    <t>0.00350308</t>
-  </si>
-  <si>
-    <t>8.45</t>
-  </si>
-  <si>
-    <t>2.97677377</t>
-  </si>
-  <si>
-    <t>6.70142019</t>
-  </si>
-  <si>
-    <t>0.00344157</t>
-  </si>
-  <si>
-    <t>2.63650396</t>
-  </si>
-  <si>
-    <t>0.00341344</t>
-  </si>
-  <si>
-    <t>9.75</t>
-  </si>
-  <si>
-    <t>3.00388143</t>
-  </si>
-  <si>
-    <t>10.50956774</t>
-  </si>
-  <si>
-    <t>0.0035665</t>
-  </si>
-  <si>
-    <t>1.13703992</t>
-  </si>
-  <si>
-    <t>0.00371528</t>
-  </si>
-  <si>
-    <t>1.73768075</t>
-  </si>
-  <si>
-    <t>10.24369298</t>
-  </si>
-  <si>
-    <t>0.00382471</t>
-  </si>
-  <si>
-    <t>1.12628727</t>
-  </si>
-  <si>
-    <t>0.00392556</t>
-  </si>
-  <si>
-    <t>5.40569635</t>
-  </si>
-  <si>
-    <t>5.76276995</t>
-  </si>
-  <si>
-    <t>0.00309467</t>
-  </si>
-  <si>
-    <t>5.47752303</t>
-  </si>
-  <si>
-    <t>0.00455475</t>
-  </si>
-  <si>
-    <t>12.35</t>
-  </si>
-  <si>
-    <t>1.49129688</t>
-  </si>
-  <si>
-    <t>10.54094837</t>
-  </si>
-  <si>
-    <t>0.00464296</t>
-  </si>
-  <si>
-    <t>2.97256593</t>
-  </si>
-  <si>
-    <t>0.00490475</t>
-  </si>
-  <si>
-    <t>2.47396821</t>
-  </si>
-  <si>
-    <t>10.75258837</t>
-  </si>
-  <si>
-    <t>0.01002026</t>
-  </si>
-  <si>
-    <t>1.62108528</t>
-  </si>
-  <si>
-    <t>0.01064658</t>
-  </si>
-  <si>
-    <t>0.72698196</t>
-  </si>
-  <si>
-    <t>11.0588967</t>
-  </si>
-  <si>
-    <t>0.00385332</t>
-  </si>
-  <si>
-    <t>1.58710744</t>
-  </si>
-  <si>
-    <t>0.00356913</t>
-  </si>
-  <si>
-    <t>2.6581897405598958</t>
-  </si>
-  <si>
-    <t>6.52814466</t>
-  </si>
-  <si>
-    <t>5.40337249</t>
-  </si>
-  <si>
-    <t>0.00335312</t>
-  </si>
-  <si>
-    <t>4.34872282</t>
-  </si>
-  <si>
-    <t>4.38172632</t>
-  </si>
-  <si>
-    <t>4.17169565</t>
-  </si>
-  <si>
-    <t>0.00321627</t>
-  </si>
-  <si>
-    <t>1.06407506</t>
-  </si>
-  <si>
-    <t>5.11460523</t>
-  </si>
-  <si>
-    <t>4.01231206</t>
-  </si>
-  <si>
-    <t>0.00441575</t>
-  </si>
-  <si>
-    <t>3.54747926</t>
-  </si>
-  <si>
-    <t>5.58703099</t>
-  </si>
-  <si>
-    <t>6.68985416</t>
-  </si>
-  <si>
-    <t>0.00339174</t>
-  </si>
-  <si>
-    <t>3.49834319</t>
-  </si>
-  <si>
-    <t>3.57371331</t>
-  </si>
-  <si>
-    <t>4.90901943</t>
-  </si>
-  <si>
-    <t>0.00684905</t>
-  </si>
-  <si>
-    <t>4.67331995</t>
-  </si>
-  <si>
-    <t>5.65485072</t>
-  </si>
-  <si>
-    <t>5.44240692</t>
-  </si>
-  <si>
-    <t>0.00333476</t>
-  </si>
-  <si>
-    <t>5.60404512</t>
-  </si>
-  <si>
-    <t>6.51676474</t>
-  </si>
-  <si>
-    <t>6.58196432</t>
-  </si>
-  <si>
-    <t>0.00285053</t>
-  </si>
-  <si>
-    <t>6.50383232</t>
-  </si>
-  <si>
-    <t>3.83956191</t>
-  </si>
-  <si>
-    <t>4.97882465</t>
-  </si>
-  <si>
-    <t>0.00302362</t>
-  </si>
-  <si>
-    <t>1.39502389</t>
-  </si>
-  <si>
-    <t>1.19659287</t>
-  </si>
-  <si>
-    <t>7.06669483</t>
-  </si>
-  <si>
-    <t>0.00330234</t>
-  </si>
-  <si>
-    <t>1.29843149</t>
-  </si>
-  <si>
-    <t>3.88087639</t>
-  </si>
-  <si>
-    <t>5.55936005</t>
-  </si>
-  <si>
-    <t>0.00883484</t>
-  </si>
-  <si>
-    <t>0.29227544</t>
-  </si>
-  <si>
-    <t>5.83020149</t>
-  </si>
-  <si>
-    <t>6.08847392</t>
-  </si>
-  <si>
-    <t>0.00693727</t>
-  </si>
-  <si>
-    <t>1.37898233</t>
-  </si>
-  <si>
-    <t>2.9324729</t>
-  </si>
-  <si>
-    <t>5.41392439</t>
-  </si>
-  <si>
-    <t>0.00285721</t>
-  </si>
-  <si>
-    <t>3.64529432</t>
-  </si>
-  <si>
-    <t>2.79372661</t>
-  </si>
-  <si>
-    <t>10.61607449</t>
-  </si>
-  <si>
-    <t>0.00903249</t>
-  </si>
-  <si>
-    <t>1.36594235</t>
-  </si>
-  <si>
-    <t>2.42763457</t>
-  </si>
-  <si>
-    <t>10.1533033</t>
-  </si>
-  <si>
-    <t>0.00548625</t>
-  </si>
-  <si>
-    <t>0.5163071</t>
-  </si>
-  <si>
-    <t>6.20264692</t>
-  </si>
-  <si>
-    <t>6.89364262</t>
-  </si>
-  <si>
-    <t>0.00294995</t>
-  </si>
-  <si>
-    <t>5.37451128</t>
-  </si>
-  <si>
-    <t>3.25116025</t>
-  </si>
-  <si>
-    <t>10.63360609</t>
-  </si>
-  <si>
-    <t>0.004601</t>
-  </si>
-  <si>
-    <t>1.81786059</t>
-  </si>
-  <si>
-    <t>2.9843581</t>
-  </si>
-  <si>
-    <t>10.52027789</t>
-  </si>
-  <si>
-    <t>0.00742888</t>
-  </si>
-  <si>
-    <t>1.84466982</t>
-  </si>
-  <si>
-    <t>2.51191123</t>
-  </si>
-  <si>
-    <t>10.91853297</t>
-  </si>
-  <si>
-    <t>0.00401211</t>
-  </si>
-  <si>
-    <t>1.67092454</t>
-  </si>
-  <si>
-    <t>2.7688911598024113</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="175">
+  <si>
+    <t xml:space="preserve">Real X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Real Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Est. X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Est. Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of executions:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.262832114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Without node TiagoLocalizacao2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Without TiagoLocalizacao0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52814466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40337249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00335312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34872282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38172632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17169565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00321627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06407506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11460523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01231206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00441575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54747926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58703099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68985416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00339174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49834319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57371331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90901943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00684905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67331995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65485072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44240692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00333476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60404512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51676474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58196432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00285053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50383232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83956191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97882465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00302362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39502389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19659287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06669483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00330234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29843149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88087639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55936005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00883484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.29227544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83020149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08847392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00693727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37898233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9324729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41392439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00285721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64529432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79372661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.61607449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00903249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36594235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42763457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1533033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00548625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5163071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20264692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89364262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00294995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37451128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25116025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.63360609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.004601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81786059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9843581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.52027789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00742888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84466982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51191123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.91853297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00401211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67092454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7688911598024113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Without the two “bad” sensor: TiagoLocalizacao1, TiagoLocalizacao2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">With just the “best” sensor:  TiagoLocalizacao0, TiagoLocalizacao3, LSC_HoneyPot.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4664402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2508356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00467205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45704806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87455345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79642531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00275159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.54697668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82738045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57320642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00825906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44189218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31115351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35617067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00652719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12709579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3770369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03956045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00473118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7583891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69736044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83262718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00346899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61373848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0291783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5685964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00363898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09217047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11072885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36712233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00270677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44386766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.40326436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89943037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00633621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29444614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93090674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59343413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00851488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.26902035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46835439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01841648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00350308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2446576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97677377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70142019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00341344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63650396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00388143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.50956774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00371528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13703992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73768075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.24369298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00392556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12628727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40569635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76276995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00455475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47752303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49129688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.54094837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00490475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97256593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47396821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.75258837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.01064658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62108528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.72698196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0588967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00356913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58710744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6581897405598958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Without node TiagoLocalizacao1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Without the worst sensors: TiagoLocalizacao1, TiagoLocalizacao2, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">With all sensors</t>
   </si>
 </sst>
 </file>
@@ -592,41 +568,46 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="General" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -634,335 +615,73 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" name="Comma" xfId="1"/>
-    <cellStyle builtinId="6" name="Comma [0]" xfId="2"/>
-    <cellStyle builtinId="4" name="Currency" xfId="3"/>
-    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
-    <cellStyle builtinId="5" name="Percent" xfId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="F2" activeCellId="0" pane="topLeft" sqref="F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="12.8" r="1" s="2" spans="1:6">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -982,7 +701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="2" s="2" spans="1:6">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -1002,7 +721,7 @@
         <v>5.56909328347084</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="3" s="2" spans="1:6">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -1022,7 +741,7 @@
         <v>1.21198184804889</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="4" s="2" spans="1:6">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -1042,7 +761,7 @@
         <v>2.0319448811422</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="5" s="2" spans="1:6">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -1062,7 +781,7 @@
         <v>1.67475371323667</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="6" s="2" spans="1:6">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -1082,7 +801,7 @@
         <v>4.31425543981809</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="7" s="2" spans="1:6">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -1102,7 +821,7 @@
         <v>1.67475371323667</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="8" s="2" spans="1:6">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -1122,7 +841,7 @@
         <v>5.01027943332505</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="9" s="2" spans="1:6">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -1142,7 +861,7 @@
         <v>1.5306207890918</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="10" s="2" spans="1:6">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -1153,7 +872,7 @@
         <v>4.03</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>9.970000000000001</v>
+        <v>9.97</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>0.000472068786621094</v>
@@ -1162,7 +881,7 @@
         <v>4.75802480027164</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="11" s="2" spans="1:6">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -1182,7 +901,7 @@
         <v>1.29876864760434</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="12" s="2" spans="1:6">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -1202,12 +921,12 @@
         <v>2.33257368586718</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="13" s="2" spans="1:6">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>4.95</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>8.449999999999999</v>
+        <v>8.45</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>3.3</v>
@@ -1222,7 +941,7 @@
         <v>4.43811897091549</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="14" s="2" spans="1:6">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -1242,7 +961,7 @@
         <v>1.95829007044411</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="15" s="2" spans="1:6">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -1262,7 +981,7 @@
         <v>1.97202941154538</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="16" s="2" spans="1:6">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -1282,7 +1001,7 @@
         <v>7.53570832768891</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="17" s="2" spans="1:6">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -1302,7 +1021,7 @@
         <v>1.21198184804889</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="18" s="2" spans="1:6">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -1322,7 +1041,7 @@
         <v>0.85146931829632</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="19" s="2" spans="1:6">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -1342,40 +1061,35 @@
         <v>1.12645461515323</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="1048576" s="2" spans="1:6"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
-  <pageMargins bottom="1.025" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.025"/>
-  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="1" verticalDpi="300"/>
-  <headerFooter differentFirst="0" differentOddEven="0">
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="12.8" r="1" s="2" spans="1:6">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1395,400 +1109,400 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="B2" s="1" t="n">
         <v>3.25</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="1" t="n">
         <v>2.37743165</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="1" t="n">
         <v>8.0348139</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="1" t="n">
         <v>0.00512266</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" s="1" t="n">
         <v>4.79929695</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="B3" s="1" t="n">
         <v>3.25</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="1" t="n">
         <v>4.56610986</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="1" t="n">
         <v>4.07530078</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="1" t="n">
         <v>0.01086164</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="1" t="n">
         <v>1.09267319</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="n">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
         <v>1.65</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="1" t="n">
         <v>3.25</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="1" t="n">
         <v>4.42424241</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="1" t="n">
         <v>4.31241488</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="1" t="n">
         <v>0.01288915</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" s="1" t="n">
         <v>2.97071479</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="n">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
         <v>4.95</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="1" t="n">
         <v>3.25</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="1" t="n">
         <v>1.86041391</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="1" t="n">
         <v>7.98163249</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" s="1" t="n">
         <v>0.00265312</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" s="1" t="n">
         <v>5.65100772</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="n">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
         <v>1.65</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="1" t="n">
         <v>0.65</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="1" t="n">
         <v>2.01309285</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="1" t="n">
         <v>6.51794148</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" s="1" t="n">
         <v>0.00343251</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" s="1" t="n">
         <v>5.87916436</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="B7" s="1" t="n">
         <v>0.65</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="1" t="n">
         <v>4.42324764</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="1" t="n">
         <v>5.96261655</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7" s="1" t="n">
         <v>0.00585055</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7" s="1" t="n">
         <v>5.569888</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="B8" s="1" t="n">
         <v>0.65</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="1" t="n">
         <v>5.36583714</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="1" t="n">
         <v>6.71729996</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8" s="1" t="n">
         <v>0.00233674</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8" s="1" t="n">
         <v>6.25379014</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="B9" s="1" t="n">
         <v>5.85</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="1" t="n">
         <v>1.90314338</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="1" t="n">
         <v>7.69738967</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9" s="1" t="n">
         <v>0.0036335</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9" s="1" t="n">
         <v>2.03224376</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="n">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
         <v>1.65</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="1" t="n">
         <v>5.85</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="1" t="n">
         <v>0.36333717</v>
       </c>
-      <c r="D10" t="n">
-        <v>8.613162559999999</v>
-      </c>
-      <c r="E10" t="n">
+      <c r="D10" s="1" t="n">
+        <v>8.61316256</v>
+      </c>
+      <c r="E10" s="1" t="n">
         <v>0.00322151</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10" s="1" t="n">
         <v>3.0480434</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="B11" t="n">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="B11" s="1" t="n">
         <v>5.85</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="1" t="n">
         <v>2.26443038</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="1" t="n">
         <v>7.06045348</v>
       </c>
-      <c r="E11" t="n">
-        <v>0.009058480000000001</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="E11" s="1" t="n">
+        <v>0.00905848</v>
+      </c>
+      <c r="F11" s="1" t="n">
         <v>1.9948004</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="n">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
         <v>4.95</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" s="1" t="n">
         <v>7.15</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" s="1" t="n">
         <v>4.90376335</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" s="1" t="n">
         <v>6.20146799</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12" s="1" t="n">
         <v>0.00541663</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12" s="1" t="n">
         <v>0.94965826</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="n">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
         <v>4.95</v>
       </c>
-      <c r="B13" t="n">
-        <v>8.449999999999999</v>
-      </c>
-      <c r="C13" t="n">
+      <c r="B13" s="1" t="n">
+        <v>8.45</v>
+      </c>
+      <c r="C13" s="1" t="n">
         <v>1.92807437</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" s="1" t="n">
         <v>7.83666566</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13" s="1" t="n">
         <v>0.00926137</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13" s="1" t="n">
         <v>3.08353913</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="B14" t="n">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="B14" s="1" t="n">
         <v>9.75</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" s="1" t="n">
         <v>2.04486599</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" s="1" t="n">
         <v>9.64267267</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14" s="1" t="n">
         <v>0.01506829</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14" s="1" t="n">
         <v>1.80832186</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="B15" t="n">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="B15" s="1" t="n">
         <v>9.75</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" s="1" t="n">
         <v>1.9741835</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="1" t="n">
         <v>8.70913453</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15" s="1" t="n">
         <v>0.00822663</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15" s="1" t="n">
         <v>1.29818804</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="n">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
         <v>1.65</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" s="1" t="n">
         <v>9.75</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16" s="1" t="n">
         <v>5.4790111</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" s="1" t="n">
         <v>6.97964534</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16" s="1" t="n">
         <v>0.00221682</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16" s="1" t="n">
         <v>4.72611796</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="B17" t="n">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="B17" s="1" t="n">
         <v>12.35</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17" s="1" t="n">
         <v>2.12016378</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" s="1" t="n">
         <v>10.02125574</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17" s="1" t="n">
         <v>0.00460982</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17" s="1" t="n">
         <v>2.90092798</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="B18" t="n">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="B18" s="1" t="n">
         <v>12.35</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18" s="1" t="n">
         <v>1.38272462</v>
       </c>
-      <c r="D18" t="n">
-        <v>9.484190529999999</v>
-      </c>
-      <c r="E18" t="n">
+      <c r="D18" s="1" t="n">
+        <v>9.48419053</v>
+      </c>
+      <c r="E18" s="1" t="n">
         <v>0.01050806</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18" s="1" t="n">
         <v>3.17526469</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="n">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
         <v>1.65</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19" s="1" t="n">
         <v>12.35</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19" s="1" t="n">
         <v>1.82572723</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19" s="1" t="n">
         <v>9.59119003</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19" s="1" t="n">
         <v>0.00274086</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19" s="1" t="n">
         <v>2.76440093</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="1048576" s="2" spans="1:6"/>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
-  <headerFooter differentFirst="0" differentOddEven="0">
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A22" activeCellId="0" pane="topLeft" sqref="A22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="12.8" r="1" s="2" spans="1:6">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1808,7 +1522,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="2" s="2" spans="1:6">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -1828,7 +1542,7 @@
         <v>4.36539020676702</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="3" s="2" spans="1:6">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -1848,7 +1562,7 @@
         <v>4.52772293532608</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="4" s="2" spans="1:6">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -1868,7 +1582,7 @@
         <v>6.5929732491912</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="5" s="2" spans="1:6">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -1888,7 +1602,7 @@
         <v>4.10423885741945</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="6" s="2" spans="1:6">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -1899,7 +1613,7 @@
         <v>1.54</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>8.210000000000001</v>
+        <v>8.21</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>0.105590330229865</v>
@@ -1908,7 +1622,7 @@
         <v>7.5630521897079</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="7" s="2" spans="1:6">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -1928,7 +1642,7 @@
         <v>6.29342951009626</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="8" s="2" spans="1:6">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -1948,7 +1662,7 @@
         <v>7.14561881505527</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="9" s="2" spans="1:6">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -1959,7 +1673,7 @@
         <v>4.25</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>8.779999999999999</v>
+        <v>8.78</v>
       </c>
       <c r="E9" s="1" t="n">
         <v>0.103717313872443</v>
@@ -1968,7 +1682,7 @@
         <v>3.29652029193337</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="10" s="2" spans="1:6">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -1979,7 +1693,7 @@
         <v>-0.05</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>9.359999999999999</v>
+        <v>9.36</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>0.129703746901618</v>
@@ -1988,7 +1702,7 @@
         <v>3.90392520048098</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="11" s="2" spans="1:6">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -1999,7 +1713,7 @@
         <v>4.21</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>8.550000000000001</v>
+        <v>8.55</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>0.144157634841071</v>
@@ -2008,7 +1722,7 @@
         <v>2.72603207550789</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="12" s="2" spans="1:6">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -2028,12 +1742,12 @@
         <v>3.93486037648595</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="13" s="2" spans="1:6">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>4.95</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>8.449999999999999</v>
+        <v>8.45</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>4.72</v>
@@ -2048,7 +1762,7 @@
         <v>0.353732658584854</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="14" s="2" spans="1:6">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -2068,7 +1782,7 @@
         <v>4.82738910882902</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="15" s="2" spans="1:6">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -2088,7 +1802,7 @@
         <v>3.93414120028723</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="16" s="2" spans="1:6">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -2108,7 +1822,7 @@
         <v>3.00388009733781</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="17" s="2" spans="1:6">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -2128,7 +1842,7 @@
         <v>5.06892884859794</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="18" s="2" spans="1:6">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -2148,7 +1862,7 @@
         <v>6.09549990638718</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="19" s="2" spans="1:6">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -2169,43 +1883,33 @@
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
-  <headerFooter differentFirst="0" differentOddEven="0">
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R22"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="M1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="S2" activeCellId="0" pane="topLeft" sqref="S2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="2" min="1" style="1" width="11.52"/>
-    <col customWidth="1" max="3" min="3" style="1" width="20.83"/>
-    <col customWidth="1" max="4" min="4" style="1" width="25.4"/>
-    <col customWidth="1" max="5" min="5" style="1" width="26.26"/>
-    <col customWidth="1" max="6" min="6" style="1" width="30.84"/>
-    <col customWidth="1" max="1025" min="7" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="12.8" r="1" s="2" spans="1:18">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2224,107 +1928,53 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="2" s="2" spans="1:18">
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="3" s="2" spans="1:18">
-      <c r="A3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="R3" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="4" s="2" spans="1:18">
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>25</v>
@@ -2338,642 +1988,348 @@
       <c r="F4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q4" s="1" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="R4" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="5" s="2" spans="1:18">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="6" s="2" spans="1:18">
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="1" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q6" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="R6" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="7" s="2" spans="1:18">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="1" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q7" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="R7" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="8" s="2" spans="1:18">
-      <c r="A8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="1" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="R8" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="9" s="2" spans="1:18">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="10" s="2" spans="1:18">
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="1" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="M10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q10" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="R10" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="11" s="2" spans="1:18">
-      <c r="A11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="1" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="M11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q11" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="R11" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="12" s="2" spans="1:18">
-      <c r="A12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="1" t="s">
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="M12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="P12" s="1" t="s">
+      <c r="E14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="Q12" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="13" s="2" spans="1:18">
-      <c r="A13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="M13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="14" s="2" spans="1:18">
-      <c r="A14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="15" s="2" spans="1:18">
-      <c r="A15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="16" s="2" spans="1:18">
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="E16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="17" s="2" spans="1:18">
-      <c r="A17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="18" s="2" spans="1:18">
-      <c r="A18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="19" s="2" spans="1:18">
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="22" s="2" spans="1:18">
-      <c r="A22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R22" s="1" t="s">
-        <v>112</v>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
-  <headerFooter differentFirst="0" differentOddEven="0">
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="F2" activeCellId="0" pane="topLeft" sqref="F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J22" activeCellId="0" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="12.8" r="1" s="2" spans="1:6">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2993,407 +2349,2059 @@
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="2" s="2" spans="1:6">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>4.81537956</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>4.08634366</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>0.00254536</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>2.22828711</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>4.45878695</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>3.7667694</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>0.00623965</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>0.79854378</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>4.81047301</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>4.44683658</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>0.00560212</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>3.37949811</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>5.51929288</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>4.28361195</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>0.00215054</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>1.18002035</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>5.07210163</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>3.92780545</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>0.00243139</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>4.73864834</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>4.78983301</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>3.90338405</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>0.00547624</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>3.83997741</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>5.00503633</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>3.44490152</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>0.00175929</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>3.02416657</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>4.65653255</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>4.82041378</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>0.00497723</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>2.16677506</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>4.29115169</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>4.31773551</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>0.00231576</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>3.05344342</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>3.95941196</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>5.35324309</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>0.00490355</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>0.50866335</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>4.49268049</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>5.96990084</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>0.00260282</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>1.26561256</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>8.45</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>4.46497119</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>4.99228757</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>0.00595784</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>3.49156529</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>5.36650072</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>5.85496644</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>0.00240779</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>4.17983981</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>4.7227725</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>4.8329953</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>0.00227213</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>5.29799647</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>5.45166558</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>4.58550263</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>0.00248623</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>6.41285383</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>5.57720767</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>4.35876263</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>0.00436831</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>8.17576425</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>5.05705653</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>5.14667895</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>0.003227</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>7.56375198</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>5.17740684</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>3.73391933</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>0.00401521</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>9.31017965</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>3.8197378</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>4.29058001</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>0.00509334</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>1.49236246</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>4.10980886</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>3.83819633</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>0.00588274</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>0.64302066</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>4.51941134</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>4.47795581</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>0.00560451</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>3.12112109</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>4.28815437</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>4.37797608</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>0.0021708</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>1.30781103</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>4.34964452</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>4.01225455</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>0.00264597</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>4.31194111</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>4.20210035</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>3.99772338</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>0.00206733</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>3.64908855</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>3.87779361</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>3.64503136</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>0.0027318</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>2.99516032</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>4.66272202</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>4.81978015</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>0.00202847</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>2.17252353</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>3.22016416</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>4.66561818</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>0.0058949</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>1.96676785</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>4.13338623</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>5.32380374</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>0.00248957</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>0.59765396</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>3.98400228</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>6.00041718</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>0.00293899</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>1.50156327</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>8.45</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>4.56671957</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>4.97731235</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>0.00334597</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>3.49377495</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>4.35258392</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>5.83106017</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>0.00352407</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>3.9510353</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>4.10181494</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>4.94030347</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>0.00261688</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>4.99605688</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>4.30553086</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>4.65124401</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>0.00592446</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>5.7488396</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>4.89934198</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>4.3485624</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>0.003613</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>8.06995181</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>4.33487941</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>5.20720095</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>0.00371051</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>7.316517</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>4.33322085</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>3.82898798</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>0.00499177</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>8.93349427</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="11.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17.64"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="1" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="3" s="2" spans="1:6">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="4" s="2" spans="1:6">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="5" s="2" spans="1:6">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="6" s="2" spans="1:6">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="7" s="2" spans="1:6">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="8" s="2" spans="1:6">
-      <c r="A8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="9" s="2" spans="1:6">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="10" s="2" spans="1:6">
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E10" s="1" t="s">
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="11" s="2" spans="1:6">
-      <c r="A11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E11" s="1" t="s">
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="12" s="2" spans="1:6">
-      <c r="A12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="13" s="2" spans="1:6">
-      <c r="A13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="14" s="2" spans="1:6">
-      <c r="A14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="15" s="2" spans="1:6">
-      <c r="A15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="16" s="2" spans="1:6">
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="17" s="2" spans="1:6">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="18" s="2" spans="1:6">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="19" s="2" spans="1:6">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="21" s="2" spans="1:6">
-      <c r="A21" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>185</v>
+      <c r="F22" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
-  <headerFooter differentFirst="0" differentOddEven="0">
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>5.71995357</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>3.3964195</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>0.00213051</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>2.97356064</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>4.27633055</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>3.14411037</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>0.00273991</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>0.43928391</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>5.10980848</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>3.9191723</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>0.00315762</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>3.52392768</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>5.98140837</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>4.25290726</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>0.00219774</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>1.43861954</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>5.89231834</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>3.31061842</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>0.00320601</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>5.00760973</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>5.39799628</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>3.19426915</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>0.00196028</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>3.67221864</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>5.64863822</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>2.84474805</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>0.00565434</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>2.83760787</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>4.35247543</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>4.9392478</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>0.00265241</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>1.84320294</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>4.64481407</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>3.73681525</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>0.00203872</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>3.66530505</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>4.22747377</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>5.08775894</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>0.00562382</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>0.85058678</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>2.78524658</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>9.95086148</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>0.0066638</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>3.53991277</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>8.45</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>3.8441829</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>5.46175968</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>0.00259304</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>3.18628493</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>2.95655041</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>10.56556997</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>0.00716734</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>1.20971342</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>5.54404413</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>4.69493909</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>0.00397277</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>5.77583963</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>5.89385007</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>4.2372295</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>0.00273871</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>6.95707568</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>6.19453634</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>4.1402093</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>0.00458908</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>8.5380041</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>6.09355123</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>5.7219421</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>0.00237894</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>7.42364374</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>5.90537149</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>3.1007453</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>0.00187826</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>10.18120322</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>0.83220827</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>8.8490188</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>0.00306249</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>5.91835591</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>-1.72094737</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>10.11029178</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>0.00225568</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>8.83736714</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>5.44487659</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>5.30448851</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>0.00381351</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>4.31532286</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>5.24579617</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>6.13708747</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>0.00257921</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>2.90220079</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>6.05891779</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>5.93046835</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>0.00242782</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>6.87909166</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>4.69470498</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>4.82721954</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>0.00239992</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>4.60771533</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>5.303532</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>4.82684024</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>0.00372601</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>4.42252752</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>3.258379</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>6.32377695</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>0.00363088</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>0.69492</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>0.36405818</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>8.98259748</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>0.00376177</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>3.38626835</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>2.99967598</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>6.54908889</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>0.00347638</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>1.10080708</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>5.76163127</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>7.07471783</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>0.00255895</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>0.81511515</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>8.45</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>2.03970931</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>7.67014955</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>0.00246596</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>3.01296509</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>3.18361092</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>10.25039966</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>0.01029825</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>0.8333512</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>2.12566454</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>9.63272138</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>0.00932193</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>0.6352551</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>5.35915008</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>5.67427976</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>0.00690794</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>5.51083386</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>1.8168494</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>10.06353898</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>0.00548315</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>3.05967406</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>2.75524556</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>10.35049486</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>0.00827432</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>1.99951202</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>1.05927589</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>10.28111379</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>0.00268507</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>2.15156806</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="12.8" r="1" s="2" spans="1:6">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3413,7 +4421,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="2" s="2" spans="1:6">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -3424,7 +4432,7 @@
         <v>3.94</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>9.539999999999999</v>
+        <v>9.54</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>0.000669956207275391</v>
@@ -3433,7 +4441,7 @@
         <v>6.40157793047933</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="3" s="2" spans="1:6">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -3453,7 +4461,7 @@
         <v>1.13648581161403</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="4" s="2" spans="1:6">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -3473,7 +4481,7 @@
         <v>1.8965494984313</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="5" s="2" spans="1:6">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -3493,7 +4501,7 @@
         <v>1.70801053860917</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="6" s="2" spans="1:6">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -3513,7 +4521,7 @@
         <v>3.9355431645454</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="7" s="2" spans="1:6">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -3533,7 +4541,7 @@
         <v>1.89129585205488</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="8" s="2" spans="1:6">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -3553,7 +4561,7 @@
         <v>4.3851567816898</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="9" s="2" spans="1:6">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -3573,7 +4581,7 @@
         <v>2.00848201386022</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="10" s="2" spans="1:6">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -3593,7 +4601,7 @@
         <v>4.97129761732287</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="11" s="2" spans="1:6">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -3613,7 +4621,7 @@
         <v>1.51713545868522</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="12" s="2" spans="1:6">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -3633,12 +4641,12 @@
         <v>3.30151480384384</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="13" s="2" spans="1:6">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>4.95</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>8.449999999999999</v>
+        <v>8.45</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>3.64</v>
@@ -3653,7 +4661,7 @@
         <v>4.18055020302352</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="14" s="2" spans="1:6">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -3673,7 +4681,7 @@
         <v>2.18874393203042</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="15" s="2" spans="1:6">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -3693,7 +4701,7 @@
         <v>2.0068383093812</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="16" s="2" spans="1:6">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -3713,7 +4721,7 @@
         <v>7.5304714327856</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="17" s="2" spans="1:6">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -3733,7 +4741,7 @@
         <v>2.54049207831869</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="18" s="2" spans="1:6">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -3753,7 +4761,7 @@
         <v>1.07168092266309</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="19" s="2" spans="1:6">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -3774,38 +4782,33 @@
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
-  <headerFooter differentFirst="0" differentOddEven="0">
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="F2" activeCellId="0" pane="topLeft" sqref="F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="12.8" r="1" s="2" spans="1:6">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3825,7 +4828,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="2" s="2" spans="1:6">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -3845,7 +4848,7 @@
         <v>4.40162435</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="3" s="2" spans="1:6">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -3865,7 +4868,7 @@
         <v>1.12382778</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="4" s="2" spans="1:6">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -3885,7 +4888,7 @@
         <v>4.16204441</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="5" s="2" spans="1:6">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -3905,7 +4908,7 @@
         <v>5.20463514</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="6" s="2" spans="1:6">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -3925,7 +4928,7 @@
         <v>6.52560436</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="7" s="2" spans="1:6">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -3945,7 +4948,7 @@
         <v>5.52335407</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="8" s="2" spans="1:6">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -3965,7 +4968,7 @@
         <v>5.707947</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="9" s="2" spans="1:6">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -3985,7 +4988,7 @@
         <v>1.05585851</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="10" s="2" spans="1:6">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -4005,7 +5008,7 @@
         <v>3.25412031</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="11" s="2" spans="1:6">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -4025,7 +5028,7 @@
         <v>1.23724015</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="12" s="2" spans="1:6">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -4045,12 +5048,12 @@
         <v>1.00588838</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="13" s="2" spans="1:6">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>4.95</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>8.449999999999999</v>
+        <v>8.45</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>1.32793015</v>
@@ -4065,7 +5068,7 @@
         <v>3.71387643</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="14" s="2" spans="1:6">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -4085,7 +5088,7 @@
         <v>1.61092398</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="15" s="2" spans="1:6">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -4096,7 +5099,7 @@
         <v>1.63317882</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>8.441345399999999</v>
+        <v>8.4413454</v>
       </c>
       <c r="E15" s="1" t="n">
         <v>0.00016832</v>
@@ -4105,7 +5108,7 @@
         <v>1.72042623</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="16" s="2" spans="1:6">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -4125,7 +5128,7 @@
         <v>3.47857554</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="17" s="2" spans="1:6">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -4145,7 +5148,7 @@
         <v>3.26952706</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="18" s="2" spans="1:6">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -4156,7 +5159,7 @@
         <v>2.04097795</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>9.557343270000001</v>
+        <v>9.55734327</v>
       </c>
       <c r="E18" s="1" t="n">
         <v>0.00017786</v>
@@ -4165,7 +5168,7 @@
         <v>2.88125734</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="19" s="2" spans="1:6">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -4186,38 +5189,33 @@
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
-  <headerFooter differentFirst="0" differentOddEven="0">
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="G24" activeCellId="0" pane="topLeft" sqref="G24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="12.8" r="1" s="2" spans="1:6">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4237,7 +5235,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="2" s="2" spans="1:6">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -4257,7 +5255,7 @@
         <v>4.69013274</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="3" s="2" spans="1:6">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -4277,7 +5275,7 @@
         <v>0.94101552</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="4" s="2" spans="1:6">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -4297,7 +5295,7 @@
         <v>2.99434241</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="5" s="2" spans="1:6">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -4317,7 +5315,7 @@
         <v>4.70080099</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="6" s="2" spans="1:6">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -4337,7 +5335,7 @@
         <v>6.42092654</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="7" s="2" spans="1:6">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -4357,7 +5355,7 @@
         <v>5.3303506</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="8" s="2" spans="1:6">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -4377,7 +5375,7 @@
         <v>5.98242071</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="9" s="2" spans="1:6">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -4397,7 +5395,7 @@
         <v>1.16162591</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="10" s="2" spans="1:6">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -4408,16 +5406,16 @@
         <v>0.53898672</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>9.307992049999999</v>
+        <v>9.30799205</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>0.009324789999999999</v>
+        <v>0.00932479</v>
       </c>
       <c r="F10" s="1" t="n">
         <v>3.63208749</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="11" s="2" spans="1:6">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -4437,7 +5435,7 @@
         <v>1.68893629</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="12" s="2" spans="1:6">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -4457,12 +5455,12 @@
         <v>0.77593208</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="13" s="2" spans="1:6">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>4.95</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>8.449999999999999</v>
+        <v>8.45</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>1.94973894</v>
@@ -4477,7 +5475,7 @@
         <v>3.12458326</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="14" s="2" spans="1:6">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -4488,7 +5486,7 @@
         <v>2.24382624</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>9.726713139999999</v>
+        <v>9.72671314</v>
       </c>
       <c r="E14" s="1" t="n">
         <v>0.01599145</v>
@@ -4497,7 +5495,7 @@
         <v>1.60634256</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="15" s="2" spans="1:6">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -4517,7 +5515,7 @@
         <v>1.59341805</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="16" s="2" spans="1:6">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -4537,7 +5535,7 @@
         <v>4.24517221</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="17" s="2" spans="1:6">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -4551,13 +5549,13 @@
         <v>9.67517026</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>0.009001729999999999</v>
+        <v>0.00900173</v>
       </c>
       <c r="F17" s="1" t="n">
         <v>3.793392</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="18" s="2" spans="1:6">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -4577,7 +5575,7 @@
         <v>2.92280973</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="19" s="2" spans="1:6">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -4597,7 +5595,7 @@
         <v>3.12668897</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="22" s="2" spans="1:6">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
@@ -4605,7 +5603,7 @@
         <v>465552</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="24" s="2" spans="1:6">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
@@ -4613,40 +5611,40 @@
         <v>8</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="1048576" s="2" spans="1:6"/>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
-  <headerFooter differentFirst="0" differentOddEven="0">
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="F2" activeCellId="0" pane="topLeft" sqref="F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="12.8" r="1" s="2" spans="1:6">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4666,7 +5664,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="2" s="2" spans="1:6">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -4683,10 +5681,10 @@
         <v>0.00048065185546875</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>9.888629834309709</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="3" s="2" spans="1:6">
+        <v>9.88862983430971</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -4706,7 +5704,7 @@
         <v>0.85146931829632</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="4" s="2" spans="1:6">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -4726,7 +5724,7 @@
         <v>0.85146931829632</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="5" s="2" spans="1:6">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -4746,7 +5744,7 @@
         <v>4.31566912540802</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="6" s="2" spans="1:6">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -4766,7 +5764,7 @@
         <v>4.31566912540802</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="7" s="2" spans="1:6">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -4786,7 +5784,7 @@
         <v>3.37120156620752</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="8" s="2" spans="1:6">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -4806,7 +5804,7 @@
         <v>2.55440795488896</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="9" s="2" spans="1:6">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -4826,7 +5824,7 @@
         <v>2.55440795488896</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="10" s="2" spans="1:6">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -4846,7 +5844,7 @@
         <v>7.66061355245127</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="11" s="2" spans="1:6">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -4866,7 +5864,7 @@
         <v>2.55440795488896</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="12" s="2" spans="1:6">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -4886,12 +5884,12 @@
         <v>4.2573465914816</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="13" s="2" spans="1:6">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>4.95</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>8.449999999999999</v>
+        <v>8.45</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>4.4</v>
@@ -4906,7 +5904,7 @@
         <v>4.58312120721239</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="14" s="2" spans="1:6">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -4926,7 +5924,7 @@
         <v>3.64485939372152</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="15" s="2" spans="1:6">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -4946,7 +5944,7 @@
         <v>3.64485939372152</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="16" s="2" spans="1:6">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -4966,7 +5964,7 @@
         <v>8.12065268312837</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="17" s="2" spans="1:6">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -4986,7 +5984,7 @@
         <v>3.64485939372152</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="18" s="2" spans="1:6">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -5006,7 +6004,7 @@
         <v>2.02607995893548</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="19" s="2" spans="1:6">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -5026,40 +6024,35 @@
         <v>2.55440795488896</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="1048576" s="2" spans="1:6"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
-  <headerFooter differentFirst="0" differentOddEven="0">
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="K11" activeCellId="0" pane="topLeft" sqref="K11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K11" activeCellId="0" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="12.8" r="1" s="2" spans="1:6">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5079,7 +6072,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="2" s="2" spans="1:6">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -5099,7 +6092,7 @@
         <v>4.50422654693714</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="3" s="2" spans="1:6">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -5113,13 +6106,13 @@
         <v>0.0561174089667693</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0.009112119674682621</v>
+        <v>0.00911211967468262</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>3.23054249462045</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="4" s="2" spans="1:6">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -5139,7 +6132,7 @@
         <v>2.87245294105496</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="5" s="2" spans="1:6">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -5159,7 +6152,7 @@
         <v>2.92368848531063</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="6" s="2" spans="1:6">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -5179,7 +6172,7 @@
         <v>5.82760782309516</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="7" s="2" spans="1:6">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -5199,7 +6192,7 @@
         <v>3.43342976012678</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="8" s="2" spans="1:6">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -5219,7 +6212,7 @@
         <v>4.81924947986295</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="9" s="2" spans="1:6">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -5239,7 +6232,7 @@
         <v>0.576463161572026</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="10" s="2" spans="1:6">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -5259,7 +6252,7 @@
         <v>4.23514014549845</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="11" s="2" spans="1:6">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -5279,7 +6272,7 @@
         <v>0.895075183429919</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="12" s="2" spans="1:6">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -5299,12 +6292,12 @@
         <v>1.64313692350257</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="13" s="2" spans="1:6">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>4.95</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>8.449999999999999</v>
+        <v>8.45</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>3.47298668385036</v>
@@ -5319,7 +6312,7 @@
         <v>1.76065645299256</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="14" s="2" spans="1:6">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -5339,7 +6332,7 @@
         <v>2.54272278402335</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="15" s="2" spans="1:6">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -5350,7 +6343,7 @@
         <v>3.41318677229139</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>9.927378394032109</v>
+        <v>9.92737839403211</v>
       </c>
       <c r="E15" s="1" t="n">
         <v>0.00290751457214356</v>
@@ -5359,7 +6352,7 @@
         <v>0.686498208017827</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="16" s="2" spans="1:6">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -5379,7 +6372,7 @@
         <v>4.84754539236819</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="17" s="2" spans="1:6">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -5390,7 +6383,7 @@
         <v>2.23128711480651</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>9.893413940879521</v>
+        <v>9.89341394087952</v>
       </c>
       <c r="E17" s="1" t="n">
         <v>0.00282096862792969</v>
@@ -5399,7 +6392,7 @@
         <v>2.94194603460984</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="18" s="2" spans="1:6">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -5419,7 +6412,7 @@
         <v>0.53752314801518</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="19" s="2" spans="1:6">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -5439,40 +6432,35 @@
         <v>1.13945253614775</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="1048576" s="2" spans="1:6"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
-  <headerFooter differentFirst="0" differentOddEven="0">
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="F2" activeCellId="0" pane="topLeft" sqref="F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="12.8" r="1" s="2" spans="1:6">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5492,7 +6480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="2" s="2" spans="1:6">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -5512,7 +6500,7 @@
         <v>3.62200220872379</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="3" s="2" spans="1:6">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -5532,7 +6520,7 @@
         <v>1.32774244490413</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="4" s="2" spans="1:6">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -5552,7 +6540,7 @@
         <v>2.03651663386283</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="5" s="2" spans="1:6">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -5572,7 +6560,7 @@
         <v>2.65994360842481</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="6" s="2" spans="1:6">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -5592,7 +6580,7 @@
         <v>5.31507290636732</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="7" s="2" spans="1:6">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -5612,7 +6600,7 @@
         <v>1.95816240388789</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="8" s="2" spans="1:6">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -5632,7 +6620,7 @@
         <v>3.98527288902529</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="9" s="2" spans="1:6">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -5652,7 +6640,7 @@
         <v>2.28600087489047</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="10" s="2" spans="1:6">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -5663,7 +6651,7 @@
         <v>3.3</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>8.779999999999999</v>
+        <v>8.78</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>0.000477790832519531</v>
@@ -5672,7 +6660,7 @@
         <v>3.36264776626991</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="11" s="2" spans="1:6">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -5692,7 +6680,7 @@
         <v>0.883911760301898</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="12" s="2" spans="1:6">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -5703,7 +6691,7 @@
         <v>3.58</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>8.449999999999999</v>
+        <v>8.45</v>
       </c>
       <c r="E12" s="1" t="n">
         <v>0.000476598739624023</v>
@@ -5712,12 +6700,12 @@
         <v>1.88862383761299</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="13" s="2" spans="1:6">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>4.95</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>8.449999999999999</v>
+        <v>8.45</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>3.58</v>
@@ -5732,7 +6720,7 @@
         <v>2.38314917703445</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="14" s="2" spans="1:6">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -5752,7 +6740,7 @@
         <v>1.32774244490413</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="15" s="2" spans="1:6">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -5772,7 +6760,7 @@
         <v>1.0463746938836</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="16" s="2" spans="1:6">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -5792,7 +6780,7 @@
         <v>5.54661157825208</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="17" s="2" spans="1:6">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -5812,7 +6800,7 @@
         <v>1.41155942134931</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="18" s="2" spans="1:6">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -5832,7 +6820,7 @@
         <v>0.889550448260243</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="19" s="2" spans="1:6">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -5852,18 +6840,18 @@
         <v>0.893196506934504</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="21" s="2" spans="1:6">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="22" s="2" spans="1:6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
@@ -5872,38 +6860,33 @@
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
-  <headerFooter differentFirst="0" differentOddEven="0">
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="F1" activeCellId="0" pane="topLeft" sqref="F1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="12.8" r="1" s="2" spans="1:6">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5923,7 +6906,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="2" s="2" spans="1:6">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -5943,7 +6926,7 @@
         <v>8.46788049041789</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="3" s="2" spans="1:6">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -5963,7 +6946,7 @@
         <v>0.85146931829632</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="4" s="2" spans="1:6">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -5983,7 +6966,7 @@
         <v>1.77341478509682</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="5" s="2" spans="1:6">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -6003,7 +6986,7 @@
         <v>2.93981291921782</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="6" s="2" spans="1:6">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -6023,7 +7006,7 @@
         <v>2.10059515376</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="7" s="2" spans="1:6">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -6043,7 +7026,7 @@
         <v>3.04179223485103</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="8" s="2" spans="1:6">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -6063,7 +7046,7 @@
         <v>3.07936681803256</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="9" s="2" spans="1:6">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -6083,7 +7066,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="10" s="2" spans="1:6">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -6103,7 +7086,7 @@
         <v>6.07823987680644</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="11" s="2" spans="1:6">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -6123,7 +7106,7 @@
         <v>1.77341478509682</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="12" s="2" spans="1:6">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -6143,12 +7126,12 @@
         <v>4.83993801613202</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="13" s="2" spans="1:6">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>4.95</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>8.449999999999999</v>
+        <v>8.45</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>4.4</v>
@@ -6163,7 +7146,7 @@
         <v>3.2962099447699</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="14" s="2" spans="1:6">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -6183,7 +7166,7 @@
         <v>2.65753645318366</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="15" s="2" spans="1:6">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -6203,7 +7186,7 @@
         <v>2.23886131772381</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="16" s="2" spans="1:6">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -6223,7 +7206,7 @@
         <v>7.55463433926487</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="17" s="2" spans="1:6">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -6243,7 +7226,7 @@
         <v>2.02607995893548</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="18" s="2" spans="1:6">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -6263,7 +7246,7 @@
         <v>1.70293863659264</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="19" s="2" spans="1:6">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -6284,38 +7267,33 @@
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
-  <headerFooter differentFirst="0" differentOddEven="0">
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="F2" activeCellId="0" pane="topLeft" sqref="F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="12.8" r="1" s="2" spans="1:6">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6335,7 +7313,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="2" s="2" spans="1:6">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -6355,7 +7333,7 @@
         <v>4.77445284823298</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="3" s="2" spans="1:6">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -6375,7 +7353,7 @@
         <v>1.23490890352285</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="4" s="2" spans="1:6">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -6395,7 +7373,7 @@
         <v>1.90420587122296</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="5" s="2" spans="1:6">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -6415,7 +7393,7 @@
         <v>2.58213090295593</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="6" s="2" spans="1:6">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -6435,7 +7413,7 @@
         <v>4.65842247976716</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="7" s="2" spans="1:6">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -6455,7 +7433,7 @@
         <v>2.02071769428587</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="8" s="2" spans="1:6">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -6475,7 +7453,7 @@
         <v>3.74862641510194</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="9" s="2" spans="1:6">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -6495,7 +7473,7 @@
         <v>2.27378539004894</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="10" s="2" spans="1:6">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -6515,7 +7493,7 @@
         <v>3.73530453912395</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="11" s="2" spans="1:6">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -6535,7 +7513,7 @@
         <v>1.20353645561736</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="12" s="2" spans="1:6">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -6555,12 +7533,12 @@
         <v>2.92697796370249</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="13" s="2" spans="1:6">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>4.95</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>8.449999999999999</v>
+        <v>8.45</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>3.76</v>
@@ -6575,7 +7553,7 @@
         <v>2.85029823001032</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="14" s="2" spans="1:6">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -6595,7 +7573,7 @@
         <v>1.63012269476871</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="15" s="2" spans="1:6">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -6615,7 +7593,7 @@
         <v>1.3877319625922</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="16" s="2" spans="1:6">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -6635,7 +7613,7 @@
         <v>6.07783678622584</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="17" s="2" spans="1:6">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -6655,7 +7633,7 @@
         <v>2.47872951327893</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="18" s="2" spans="1:6">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -6675,7 +7653,7 @@
         <v>1.02396288995256</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="19" s="2" spans="1:6">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -6696,16 +7674,12 @@
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
-  <headerFooter differentFirst="0" differentOddEven="0">
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
--- a/Data/methods.xlsx
+++ b/Data/methods.xlsx
@@ -1,566 +1,115 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="15"/>
+    <workbookView activeTab="17"/>
   </bookViews>
   <sheets>
-    <sheet name="FingerKnn3" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="WeightedFingerKnn3" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="HyperbolicAlgo" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="CircularAlgo" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="FingerKnn1" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="FingerNN" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="FingerKnn4" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="FingerKnn2" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="WeightedFingerKnn4" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="W_CircularAlgo" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="MultNN" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="WeightedMultPoly" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="CircularAlgo4" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="CircularAlgo3" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="MultPoly" sheetId="15" state="visible" r:id="rId16"/>
-    <sheet name="MultPoly4" sheetId="16" state="visible" r:id="rId17"/>
-    <sheet name="MultPoly6" sheetId="17" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FingerKnn3" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WeightedFingerKnn3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HyperbolicAlgo" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CircularAlgo" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FingerKnn1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FingerNN" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FingerKnn4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FingerKnn2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WeightedFingerKnn4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="W_CircularAlgo" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultNN" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WeightedMultPoly" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CircularAlgo4" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CircularAlgo3" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultPoly" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultPoly4" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MultPoly6" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HyperbolicAlgoPoly" sheetId="18" state="visible" r:id="rId18"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <definedNames>
+    <definedName function="0" hidden="0" localSheetId="0" name="_xlnm.Sheet_Title" vbProcedure="0">"FingerKnn3"</definedName>
+    <definedName function="0" hidden="0" localSheetId="1" name="_xlnm.Sheet_Title" vbProcedure="0">"WeightedFingerKnn3"</definedName>
+    <definedName function="0" hidden="0" localSheetId="2" name="_xlnm.Sheet_Title" vbProcedure="0">"HyperbolicAlgo"</definedName>
+    <definedName function="0" hidden="0" localSheetId="3" name="_xlnm.Sheet_Title" vbProcedure="0">"CircularAlgo"</definedName>
+    <definedName function="0" hidden="0" localSheetId="4" name="_xlnm.Sheet_Title" vbProcedure="0">"FingerKnn1"</definedName>
+    <definedName function="0" hidden="0" localSheetId="5" name="_xlnm.Sheet_Title" vbProcedure="0">"FingerNN"</definedName>
+    <definedName function="0" hidden="0" localSheetId="6" name="_xlnm.Sheet_Title" vbProcedure="0">"FingerKnn4"</definedName>
+    <definedName function="0" hidden="0" localSheetId="7" name="_xlnm.Sheet_Title" vbProcedure="0">"FingerKnn2"</definedName>
+    <definedName function="0" hidden="0" localSheetId="8" name="_xlnm.Sheet_Title" vbProcedure="0">"WeightedFingerKnn4"</definedName>
+    <definedName function="0" hidden="0" localSheetId="9" name="_xlnm.Sheet_Title" vbProcedure="0">"W_CircularAlgo"</definedName>
+    <definedName function="0" hidden="0" localSheetId="10" name="_xlnm.Sheet_Title" vbProcedure="0">"MultNN"</definedName>
+    <definedName function="0" hidden="0" localSheetId="11" name="_xlnm.Sheet_Title" vbProcedure="0">"WeightedMultPoly"</definedName>
+    <definedName function="0" hidden="0" localSheetId="12" name="_xlnm.Sheet_Title" vbProcedure="0">"CircularAlgo4"</definedName>
+    <definedName function="0" hidden="0" localSheetId="13" name="_xlnm.Sheet_Title" vbProcedure="0">"CircularAlgo3"</definedName>
+    <definedName function="0" hidden="0" localSheetId="14" name="_xlnm.Sheet_Title" vbProcedure="0">"MultPoly"</definedName>
+    <definedName function="0" hidden="0" localSheetId="15" name="_xlnm.Sheet_Title" vbProcedure="0">"MultPoly4"</definedName>
+    <definedName function="0" hidden="0" localSheetId="16" name="_xlnm.Sheet_Title" vbProcedure="0">"MultPoly6"</definedName>
+  </definedNames>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
   <si>
-    <t xml:space="preserve">Real X</t>
+    <t>Real X</t>
   </si>
   <si>
-    <t xml:space="preserve">Real Y</t>
+    <t>Real Y</t>
   </si>
   <si>
-    <t xml:space="preserve">Est. X</t>
+    <t>Est. X</t>
   </si>
   <si>
-    <t xml:space="preserve">Est. Y</t>
+    <t>Est. Y</t>
   </si>
   <si>
-    <t xml:space="preserve">Duration</t>
+    <t>Duration</t>
   </si>
   <si>
-    <t xml:space="preserve">Error</t>
+    <t>Error</t>
   </si>
   <si>
-    <t xml:space="preserve">Number of executions:</t>
+    <t>Number of executions:</t>
   </si>
   <si>
-    <t xml:space="preserve">Average</t>
+    <t>Average</t>
   </si>
   <si>
-    <t xml:space="preserve">3.262832114</t>
+    <t>3.262832114</t>
   </si>
   <si>
-    <t xml:space="preserve">Without node TiagoLocalizacao2</t>
+    <t>Without node TiagoLocalizacao2</t>
   </si>
   <si>
-    <t xml:space="preserve">0.00047</t>
+    <t>0.00047</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37</t>
+    <t>2.37</t>
   </si>
   <si>
-    <t xml:space="preserve">Without TiagoLocalizacao0</t>
+    <t>Without TiagoLocalizacao0</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75</t>
+    <t>2.7688911598024113</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25</t>
+    <t>Without the two “bad” sensor: TiagoLocalizacao1, TiagoLocalizacao2</t>
   </si>
   <si>
-    <t xml:space="preserve">6.52814466</t>
+    <t>With just the “best” sensor:  TiagoLocalizacao0, TiagoLocalizacao3, LSC_HoneyPot.</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40337249</t>
+    <t>2.6581897405598958</t>
   </si>
   <si>
-    <t xml:space="preserve">0.00335312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34872282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38172632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17169565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00321627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06407506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11460523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01231206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00441575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54747926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58703099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68985416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00339174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49834319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57371331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90901943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00684905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67331995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65485072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44240692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00333476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.60404512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51676474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58196432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00285053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50383232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83956191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97882465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00302362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39502389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19659287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06669483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00330234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29843149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88087639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55936005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00883484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.29227544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83020149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08847392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00693727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37898233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9324729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41392439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00285721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64529432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79372661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.61607449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00903249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36594235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42763457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1533033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00548625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5163071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20264692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89364262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00294995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37451128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25116025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.63360609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.004601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81786059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9843581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.52027789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00742888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84466982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51191123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.91853297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00401211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67092454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7688911598024113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Without the two “bad” sensor: TiagoLocalizacao1, TiagoLocalizacao2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">With just the “best” sensor:  TiagoLocalizacao0, TiagoLocalizacao3, LSC_HoneyPot.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4664402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2508356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00467205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45704806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87455345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79642531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00275159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.54697668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82738045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57320642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00825906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44189218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31115351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35617067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00652719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12709579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3770369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03956045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00473118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7583891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69736044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83262718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00346899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61373848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0291783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5685964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00363898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09217047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11072885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36712233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00270677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44386766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.40326436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89943037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00633621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29444614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93090674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59343413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00851488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.26902035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46835439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01841648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00350308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2446576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97677377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70142019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00341344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63650396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00388143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.50956774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00371528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13703992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73768075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.24369298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00392556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12628727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40569635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76276995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00455475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47752303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49129688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.54094837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00490475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97256593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47396821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.75258837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.01064658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62108528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.72698196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0588967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00356913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58710744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6581897405598958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Without node TiagoLocalizacao1</t>
+    <t>Without node TiagoLocalizacao1</t>
   </si>
   <si>
     <t xml:space="preserve">Without the worst sensors: TiagoLocalizacao1, TiagoLocalizacao2, </t>
   </si>
   <si>
-    <t xml:space="preserve">With all sensors</t>
+    <t>With all sensors</t>
   </si>
 </sst>
 </file>
@@ -568,46 +117,40 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt formatCode="General" numFmtId="164"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -615,73 +158,335 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="6">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="3" name="Comma" xfId="1"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="2"/>
+    <cellStyle builtinId="4" name="Currency" xfId="3"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
+    <cellStyle builtinId="5" name="Percent" xfId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F1048576"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="F2" activeCellId="1" pane="topLeft" sqref="A1:F1 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="13.18359375" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
+    <col customWidth="1" max="1024" min="1" style="1" width="13.17"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="1" s="2" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -701,7 +506,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="2" s="2" spans="1:6">
       <c r="A2" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -721,7 +526,7 @@
         <v>5.56909328347084</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="3" s="2" spans="1:6">
       <c r="A3" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -741,7 +546,7 @@
         <v>1.21198184804889</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="4" s="2" spans="1:6">
       <c r="A4" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -761,7 +566,7 @@
         <v>2.0319448811422</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="5" s="2" spans="1:6">
       <c r="A5" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -781,7 +586,7 @@
         <v>1.67475371323667</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="6" s="2" spans="1:6">
       <c r="A6" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -801,7 +606,7 @@
         <v>4.31425543981809</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="7" s="2" spans="1:6">
       <c r="A7" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -821,7 +626,7 @@
         <v>1.67475371323667</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="8" s="2" spans="1:6">
       <c r="A8" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -841,7 +646,7 @@
         <v>5.01027943332505</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="9" s="2" spans="1:6">
       <c r="A9" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -861,7 +666,7 @@
         <v>1.5306207890918</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="10" s="2" spans="1:6">
       <c r="A10" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -872,7 +677,7 @@
         <v>4.03</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>9.97</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>0.000472068786621094</v>
@@ -881,7 +686,7 @@
         <v>4.75802480027164</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="11" s="2" spans="1:6">
       <c r="A11" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -901,7 +706,7 @@
         <v>1.29876864760434</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="12" s="2" spans="1:6">
       <c r="A12" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -921,12 +726,12 @@
         <v>2.33257368586718</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="13" s="2" spans="1:6">
       <c r="A13" s="1" t="n">
         <v>4.95</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>8.45</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>3.3</v>
@@ -941,7 +746,7 @@
         <v>4.43811897091549</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="14" s="2" spans="1:6">
       <c r="A14" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -961,7 +766,7 @@
         <v>1.95829007044411</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="15" s="2" spans="1:6">
       <c r="A15" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -981,7 +786,7 @@
         <v>1.97202941154538</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="16" s="2" spans="1:6">
       <c r="A16" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -1001,7 +806,7 @@
         <v>7.53570832768891</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="17" s="2" spans="1:6">
       <c r="A17" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -1021,7 +826,7 @@
         <v>1.21198184804889</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="18" s="2" spans="1:6">
       <c r="A18" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -1041,7 +846,7 @@
         <v>0.85146931829632</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="19" s="2" spans="1:6">
       <c r="A19" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -1061,35 +866,40 @@
         <v>1.12645461515323</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row customHeight="1" ht="12.8" r="1048576" s="2" spans="1:6"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1.025" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.025"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="1" verticalDpi="300"/>
+  <headerFooter differentFirst="0" differentOddEven="0">
+    <oddHeader>&amp;C&amp;"Sans,Regular"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Sans,Regular"Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F1048576"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="G24" activeCellId="1" pane="topLeft" sqref="A1:F1 G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="13.18359375" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
+    <col customWidth="1" max="1024" min="1" style="1" width="13.17"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="1" s="2" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1109,7 +919,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="2" s="2" spans="1:6">
       <c r="A2" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -1129,7 +939,7 @@
         <v>4.79929695</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="3" s="2" spans="1:6">
       <c r="A3" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -1149,7 +959,7 @@
         <v>1.09267319</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="4" s="2" spans="1:6">
       <c r="A4" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -1169,7 +979,7 @@
         <v>2.97071479</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="5" s="2" spans="1:6">
       <c r="A5" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -1189,7 +999,7 @@
         <v>5.65100772</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="6" s="2" spans="1:6">
       <c r="A6" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -1209,7 +1019,7 @@
         <v>5.87916436</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="7" s="2" spans="1:6">
       <c r="A7" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -1229,7 +1039,7 @@
         <v>5.569888</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="8" s="2" spans="1:6">
       <c r="A8" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -1249,7 +1059,7 @@
         <v>6.25379014</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="9" s="2" spans="1:6">
       <c r="A9" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -1269,7 +1079,7 @@
         <v>2.03224376</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="10" s="2" spans="1:6">
       <c r="A10" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -1280,7 +1090,7 @@
         <v>0.36333717</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>8.61316256</v>
+        <v>8.613162559999999</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>0.00322151</v>
@@ -1289,7 +1099,7 @@
         <v>3.0480434</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="11" s="2" spans="1:6">
       <c r="A11" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -1303,13 +1113,13 @@
         <v>7.06045348</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>0.00905848</v>
+        <v>0.009058480000000001</v>
       </c>
       <c r="F11" s="1" t="n">
         <v>1.9948004</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="12" s="2" spans="1:6">
       <c r="A12" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -1329,12 +1139,12 @@
         <v>0.94965826</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="13" s="2" spans="1:6">
       <c r="A13" s="1" t="n">
         <v>4.95</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>8.45</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>1.92807437</v>
@@ -1349,7 +1159,7 @@
         <v>3.08353913</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="14" s="2" spans="1:6">
       <c r="A14" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -1369,7 +1179,7 @@
         <v>1.80832186</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="15" s="2" spans="1:6">
       <c r="A15" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -1389,7 +1199,7 @@
         <v>1.29818804</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="16" s="2" spans="1:6">
       <c r="A16" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -1409,7 +1219,7 @@
         <v>4.72611796</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="17" s="2" spans="1:6">
       <c r="A17" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -1429,7 +1239,7 @@
         <v>2.90092798</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="18" s="2" spans="1:6">
       <c r="A18" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -1440,7 +1250,7 @@
         <v>1.38272462</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>9.48419053</v>
+        <v>9.484190529999999</v>
       </c>
       <c r="E18" s="1" t="n">
         <v>0.01050806</v>
@@ -1449,7 +1259,7 @@
         <v>3.17526469</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="19" s="2" spans="1:6">
       <c r="A19" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -1469,40 +1279,45 @@
         <v>2.76440093</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="25" s="2" spans="1:6">
       <c r="A25" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row customHeight="1" ht="12.8" r="1048576" s="2" spans="1:6"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
+  <headerFooter differentFirst="0" differentOddEven="0">
+    <oddHeader>&amp;C&amp;"Sans,Regular"Times New Roman,Regular"2 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Sans,Regular"Times New Roman,Regular"2 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A22" activeCellId="1" pane="topLeft" sqref="A1:F1 A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="13.18359375" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
+    <col customWidth="1" max="1024" min="1" style="1" width="13.17"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="1" s="2" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1522,7 +1337,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="2" s="2" spans="1:6">
       <c r="A2" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -1542,7 +1357,7 @@
         <v>4.36539020676702</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="3" s="2" spans="1:6">
       <c r="A3" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -1562,7 +1377,7 @@
         <v>4.52772293532608</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="4" s="2" spans="1:6">
       <c r="A4" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -1582,7 +1397,7 @@
         <v>6.5929732491912</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="5" s="2" spans="1:6">
       <c r="A5" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -1602,7 +1417,7 @@
         <v>4.10423885741945</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="6" s="2" spans="1:6">
       <c r="A6" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -1613,7 +1428,7 @@
         <v>1.54</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>8.21</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>0.105590330229865</v>
@@ -1622,7 +1437,7 @@
         <v>7.5630521897079</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="7" s="2" spans="1:6">
       <c r="A7" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -1642,7 +1457,7 @@
         <v>6.29342951009626</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="8" s="2" spans="1:6">
       <c r="A8" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -1662,7 +1477,7 @@
         <v>7.14561881505527</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="9" s="2" spans="1:6">
       <c r="A9" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -1673,7 +1488,7 @@
         <v>4.25</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>8.78</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="E9" s="1" t="n">
         <v>0.103717313872443</v>
@@ -1682,7 +1497,7 @@
         <v>3.29652029193337</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="10" s="2" spans="1:6">
       <c r="A10" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -1693,7 +1508,7 @@
         <v>-0.05</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>9.36</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>0.129703746901618</v>
@@ -1702,7 +1517,7 @@
         <v>3.90392520048098</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="11" s="2" spans="1:6">
       <c r="A11" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -1713,7 +1528,7 @@
         <v>4.21</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>8.55</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>0.144157634841071</v>
@@ -1722,7 +1537,7 @@
         <v>2.72603207550789</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="12" s="2" spans="1:6">
       <c r="A12" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -1742,12 +1557,12 @@
         <v>3.93486037648595</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="13" s="2" spans="1:6">
       <c r="A13" s="1" t="n">
         <v>4.95</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>8.45</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>4.72</v>
@@ -1762,7 +1577,7 @@
         <v>0.353732658584854</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="14" s="2" spans="1:6">
       <c r="A14" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -1782,7 +1597,7 @@
         <v>4.82738910882902</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="15" s="2" spans="1:6">
       <c r="A15" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -1802,7 +1617,7 @@
         <v>3.93414120028723</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="16" s="2" spans="1:6">
       <c r="A16" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -1822,7 +1637,7 @@
         <v>3.00388009733781</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="17" s="2" spans="1:6">
       <c r="A17" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -1842,7 +1657,7 @@
         <v>5.06892884859794</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="18" s="2" spans="1:6">
       <c r="A18" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -1862,7 +1677,7 @@
         <v>6.09549990638718</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="19" s="2" spans="1:6">
       <c r="A19" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -1883,33 +1698,38 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
+  <headerFooter differentFirst="0" differentOddEven="0">
+    <oddHeader>&amp;C&amp;"Sans,Regular"Times New Roman,Regular"2 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Sans,Regular"Times New Roman,Regular"2 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="K24" activeCellId="1" pane="topLeft" sqref="A1:F1 K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="13.18359375" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
+    <col customWidth="1" max="1024" min="1" style="1" width="13.17"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="1" s="2" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1929,407 +1749,790 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="2" s="2" spans="1:6"/>
+    <row customHeight="1" ht="12.8" r="3" s="2" spans="1:6"/>
+    <row customHeight="1" ht="12.8" r="4" s="2" spans="1:6"/>
+    <row customHeight="1" ht="12.8" r="5" s="2" spans="1:6"/>
+    <row customHeight="1" ht="12.8" r="6" s="2" spans="1:6"/>
+    <row customHeight="1" ht="12.8" r="7" s="2" spans="1:6"/>
+    <row customHeight="1" ht="12.8" r="8" s="2" spans="1:6"/>
+    <row customHeight="1" ht="12.8" r="9" s="2" spans="1:6"/>
+    <row customHeight="1" ht="12.8" r="10" s="2" spans="1:6"/>
+    <row customHeight="1" ht="12.8" r="11" s="2" spans="1:6"/>
+    <row customHeight="1" ht="12.8" r="12" s="2" spans="1:6"/>
+    <row customHeight="1" ht="12.8" r="13" s="2" spans="1:6"/>
+    <row customHeight="1" ht="12.8" r="14" s="2" spans="1:6"/>
+    <row customHeight="1" ht="12.8" r="15" s="2" spans="1:6"/>
+    <row customHeight="1" ht="12.8" r="16" s="2" spans="1:6"/>
+    <row customHeight="1" ht="12.8" r="17" s="2" spans="1:6"/>
+    <row customHeight="1" ht="12.8" r="18" s="2" spans="1:6"/>
+    <row customHeight="1" ht="12.8" r="19" s="2" spans="1:6"/>
+    <row customHeight="1" ht="12.8" r="21" s="2" spans="1:6">
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="25" s="2" spans="1:6">
+      <c r="A25" s="1" t="s">
         <v>12</v>
       </c>
     </row>
+    <row customHeight="1" ht="12.8" r="26" s="2" spans="1:6">
+      <c r="A26" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>2.12421339</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>9.40610669</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>0.05204701</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>6.18783148</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="27" s="2" spans="1:6">
+      <c r="A27" s="1" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>-0.35288386</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>11.31617744</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>0.02394152</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>9.09546323</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="28" s="2" spans="1:6">
+      <c r="A28" s="1" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>5.29695214</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>4.00173556</v>
+      </c>
+      <c r="E28" s="1" t="n">
+        <v>0.09161735</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <v>3.72362274</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="29" s="2" spans="1:6">
+      <c r="A29" s="1" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>5.74445274</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>6.36685271</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>0.02761936</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <v>3.21650835</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="30" s="2" spans="1:6">
+      <c r="A30" s="1" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>2.66242001</v>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>5.64023994</v>
+      </c>
+      <c r="E30" s="1" t="n">
+        <v>0.04097748</v>
+      </c>
+      <c r="F30" s="1" t="n">
+        <v>5.09190426</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="31" s="2" spans="1:6">
+      <c r="A31" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>6.05868032</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>5.21248714</v>
+      </c>
+      <c r="E31" s="1" t="n">
+        <v>0.09859395</v>
+      </c>
+      <c r="F31" s="1" t="n">
+        <v>5.63592533</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="32" s="2" spans="1:6">
+      <c r="A32" s="1" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>6.7356341</v>
+      </c>
+      <c r="D32" s="1" t="n">
+        <v>6.6022151</v>
+      </c>
+      <c r="E32" s="1" t="n">
+        <v>0.02847886</v>
+      </c>
+      <c r="F32" s="1" t="n">
+        <v>6.61481283</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="33" s="2" spans="1:6">
+      <c r="A33" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>1.65469817</v>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>7.16867596</v>
+      </c>
+      <c r="E33" s="1" t="n">
+        <v>0.10657549</v>
+      </c>
+      <c r="F33" s="1" t="n">
+        <v>1.71423231</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="34" s="2" spans="1:6">
+      <c r="A34" s="1" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>0.21980721</v>
+      </c>
+      <c r="D34" s="1" t="n">
+        <v>7.80476086</v>
+      </c>
+      <c r="E34" s="1" t="n">
+        <v>0.08678818000000001</v>
+      </c>
+      <c r="F34" s="1" t="n">
+        <v>2.42209444</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="35" s="2" spans="1:6">
+      <c r="A35" s="1" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>1.67863554</v>
+      </c>
+      <c r="D35" s="1" t="n">
+        <v>7.6013042</v>
+      </c>
+      <c r="E35" s="1" t="n">
+        <v>0.04234099</v>
+      </c>
+      <c r="F35" s="1" t="n">
+        <v>2.78960392</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="36" s="2" spans="1:6">
+      <c r="A36" s="1" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="C36" s="1" t="n">
+        <v>6.30837879</v>
+      </c>
+      <c r="D36" s="1" t="n">
+        <v>6.30581614</v>
+      </c>
+      <c r="E36" s="1" t="n">
+        <v>0.02970266</v>
+      </c>
+      <c r="F36" s="1" t="n">
+        <v>1.59932465</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="37" s="2" spans="1:6">
+      <c r="A37" s="1" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>0.7745053</v>
+      </c>
+      <c r="D37" s="1" t="n">
+        <v>6.91518668</v>
+      </c>
+      <c r="E37" s="1" t="n">
+        <v>0.09887195</v>
+      </c>
+      <c r="F37" s="1" t="n">
+        <v>4.44864113</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="38" s="2" spans="1:6">
+      <c r="A38" s="1" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="C38" s="1" t="n">
+        <v>2.71101052</v>
+      </c>
+      <c r="D38" s="1" t="n">
+        <v>10.28039572</v>
+      </c>
+      <c r="E38" s="1" t="n">
+        <v>0.11189771</v>
+      </c>
+      <c r="F38" s="1" t="n">
+        <v>1.25643013</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="39" s="2" spans="1:6">
+      <c r="A39" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="C39" s="1" t="n">
+        <v>2.36346667</v>
+      </c>
+      <c r="D39" s="1" t="n">
+        <v>9.72388099</v>
+      </c>
+      <c r="E39" s="1" t="n">
+        <v>0.09857106</v>
+      </c>
+      <c r="F39" s="1" t="n">
+        <v>0.38741479</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="40" s="2" spans="1:6">
+      <c r="A40" s="1" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="C40" s="1" t="n">
+        <v>6.23056471</v>
+      </c>
+      <c r="D40" s="1" t="n">
+        <v>6.49108252</v>
+      </c>
+      <c r="E40" s="1" t="n">
+        <v>0.03230977</v>
+      </c>
+      <c r="F40" s="1" t="n">
+        <v>5.62157595</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="41" s="2" spans="1:6">
+      <c r="A41" s="1" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>2.89970303</v>
+      </c>
+      <c r="D41" s="1" t="n">
+        <v>10.1546454</v>
+      </c>
+      <c r="E41" s="1" t="n">
+        <v>0.06826615</v>
+      </c>
+      <c r="F41" s="1" t="n">
+        <v>2.39220529</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="42" s="2" spans="1:6">
+      <c r="A42" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="B42" s="1" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>3.09041569</v>
+      </c>
+      <c r="D42" s="1" t="n">
+        <v>10.27907897</v>
+      </c>
+      <c r="E42" s="1" t="n">
+        <v>0.1046226</v>
+      </c>
+      <c r="F42" s="1" t="n">
+        <v>2.09871312</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="43" s="2" spans="1:6">
+      <c r="A43" s="1" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>2.48745122</v>
+      </c>
+      <c r="D43" s="1" t="n">
+        <v>10.64859206</v>
+      </c>
+      <c r="E43" s="1" t="n">
+        <v>0.04627848</v>
+      </c>
+      <c r="F43" s="1" t="n">
+        <v>1.89634215</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="44" s="2" spans="1:6">
+      <c r="A44" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C44" s="1" t="n">
+        <v>2.12421339</v>
+      </c>
+      <c r="D44" s="1" t="n">
+        <v>9.40610669</v>
+      </c>
+      <c r="E44" s="1" t="n">
+        <v>0.02638674</v>
+      </c>
+      <c r="F44" s="1" t="n">
+        <v>6.18783148</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="45" s="2" spans="1:6">
+      <c r="A45" s="1" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="B45" s="1" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C45" s="1" t="n">
+        <v>-0.35288386</v>
+      </c>
+      <c r="D45" s="1" t="n">
+        <v>11.31617744</v>
+      </c>
+      <c r="E45" s="1" t="n">
+        <v>0.01237178</v>
+      </c>
+      <c r="F45" s="1" t="n">
+        <v>9.09546323</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="46" s="2" spans="1:6">
+      <c r="A46" s="1" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B46" s="1" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C46" s="1" t="n">
+        <v>5.29695214</v>
+      </c>
+      <c r="D46" s="1" t="n">
+        <v>4.00173556</v>
+      </c>
+      <c r="E46" s="1" t="n">
+        <v>0.04170012</v>
+      </c>
+      <c r="F46" s="1" t="n">
+        <v>3.72362274</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="47" s="2" spans="1:6">
+      <c r="A47" s="1" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="B47" s="1" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C47" s="1" t="n">
+        <v>5.74445274</v>
+      </c>
+      <c r="D47" s="1" t="n">
+        <v>6.36685271</v>
+      </c>
+      <c r="E47" s="1" t="n">
+        <v>0.01432705</v>
+      </c>
+      <c r="F47" s="1" t="n">
+        <v>3.21650835</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="48" s="2" spans="1:6">
+      <c r="A48" s="1" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B48" s="1" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C48" s="1" t="n">
+        <v>2.66242001</v>
+      </c>
+      <c r="D48" s="1" t="n">
+        <v>5.64023994</v>
+      </c>
+      <c r="E48" s="1" t="n">
+        <v>0.02114248</v>
+      </c>
+      <c r="F48" s="1" t="n">
+        <v>5.09190426</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="49" s="2" spans="1:6">
+      <c r="A49" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="B49" s="1" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C49" s="1" t="n">
+        <v>6.05868032</v>
+      </c>
+      <c r="D49" s="1" t="n">
+        <v>5.21248714</v>
+      </c>
+      <c r="E49" s="1" t="n">
+        <v>0.04977226</v>
+      </c>
+      <c r="F49" s="1" t="n">
+        <v>5.63592533</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="50" s="2" spans="1:6">
+      <c r="A50" s="1" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="B50" s="1" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C50" s="1" t="n">
+        <v>6.7356341</v>
+      </c>
+      <c r="D50" s="1" t="n">
+        <v>6.6022151</v>
+      </c>
+      <c r="E50" s="1" t="n">
+        <v>0.01485658</v>
+      </c>
+      <c r="F50" s="1" t="n">
+        <v>6.61481283</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="51" s="2" spans="1:6">
+      <c r="A51" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="B51" s="1" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="C51" s="1" t="n">
+        <v>1.65469817</v>
+      </c>
+      <c r="D51" s="1" t="n">
+        <v>7.16867596</v>
+      </c>
+      <c r="E51" s="1" t="n">
+        <v>0.05392027</v>
+      </c>
+      <c r="F51" s="1" t="n">
+        <v>1.71423231</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="52" s="2" spans="1:6">
+      <c r="A52" s="1" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B52" s="1" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="C52" s="1" t="n">
+        <v>0.21980721</v>
+      </c>
+      <c r="D52" s="1" t="n">
+        <v>7.80476086</v>
+      </c>
+      <c r="E52" s="1" t="n">
+        <v>0.04397511</v>
+      </c>
+      <c r="F52" s="1" t="n">
+        <v>2.42209444</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="53" s="2" spans="1:6">
+      <c r="A53" s="1" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="B53" s="1" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="C53" s="1" t="n">
+        <v>1.67863554</v>
+      </c>
+      <c r="D53" s="1" t="n">
+        <v>7.6013042</v>
+      </c>
+      <c r="E53" s="1" t="n">
+        <v>0.02177811</v>
+      </c>
+      <c r="F53" s="1" t="n">
+        <v>2.78960392</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="54" s="2" spans="1:6">
+      <c r="A54" s="1" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="B54" s="1" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="C54" s="1" t="n">
+        <v>6.30837879</v>
+      </c>
+      <c r="D54" s="1" t="n">
+        <v>6.30581614</v>
+      </c>
+      <c r="E54" s="1" t="n">
+        <v>0.01529145</v>
+      </c>
+      <c r="F54" s="1" t="n">
+        <v>1.59932465</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="55" s="2" spans="1:6">
+      <c r="A55" s="1" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="B55" s="1" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="C55" s="1" t="n">
+        <v>0.7745053</v>
+      </c>
+      <c r="D55" s="1" t="n">
+        <v>6.91518668</v>
+      </c>
+      <c r="E55" s="1" t="n">
+        <v>0.04968643</v>
+      </c>
+      <c r="F55" s="1" t="n">
+        <v>4.44864113</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="56" s="2" spans="1:6">
+      <c r="A56" s="1" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="B56" s="1" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="C56" s="1" t="n">
+        <v>2.71101052</v>
+      </c>
+      <c r="D56" s="1" t="n">
+        <v>10.28039572</v>
+      </c>
+      <c r="E56" s="1" t="n">
+        <v>0.05640745</v>
+      </c>
+      <c r="F56" s="1" t="n">
+        <v>1.25643013</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="57" s="2" spans="1:6">
+      <c r="A57" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="B57" s="1" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="C57" s="1" t="n">
+        <v>2.36346667</v>
+      </c>
+      <c r="D57" s="1" t="n">
+        <v>9.72388099</v>
+      </c>
+      <c r="E57" s="1" t="n">
+        <v>0.04992056</v>
+      </c>
+      <c r="F57" s="1" t="n">
+        <v>0.38741479</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="58" s="2" spans="1:6">
+      <c r="A58" s="1" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B58" s="1" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="C58" s="1" t="n">
+        <v>6.23056471</v>
+      </c>
+      <c r="D58" s="1" t="n">
+        <v>6.49108252</v>
+      </c>
+      <c r="E58" s="1" t="n">
+        <v>0.01663303</v>
+      </c>
+      <c r="F58" s="1" t="n">
+        <v>5.62157595</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="59" s="2" spans="1:6">
+      <c r="A59" s="1" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="B59" s="1" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="C59" s="1" t="n">
+        <v>2.89970303</v>
+      </c>
+      <c r="D59" s="1" t="n">
+        <v>10.1546454</v>
+      </c>
+      <c r="E59" s="1" t="n">
+        <v>0.0349133</v>
+      </c>
+      <c r="F59" s="1" t="n">
+        <v>2.39220529</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="60" s="2" spans="1:6">
+      <c r="A60" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="B60" s="1" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="C60" s="1" t="n">
+        <v>3.09041569</v>
+      </c>
+      <c r="D60" s="1" t="n">
+        <v>10.27907897</v>
+      </c>
+      <c r="E60" s="1" t="n">
+        <v>0.05201983</v>
+      </c>
+      <c r="F60" s="1" t="n">
+        <v>2.09871312</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="61" s="2" spans="1:6">
+      <c r="A61" s="1" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B61" s="1" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="C61" s="1" t="n">
+        <v>2.48745122</v>
+      </c>
+      <c r="D61" s="1" t="n">
+        <v>10.64859206</v>
+      </c>
+      <c r="E61" s="1" t="n">
+        <v>0.02361846</v>
+      </c>
+      <c r="F61" s="1" t="n">
+        <v>1.89634215</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
+  <headerFooter differentFirst="0" differentOddEven="0">
+    <oddHeader>&amp;C&amp;"Sans,Regular"Times New Roman,Regular"2 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Sans,Regular"Times New Roman,Regular"2 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J22" activeCellId="0" sqref="J22"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="J22" activeCellId="1" pane="topLeft" sqref="A1:F1 J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="13.18359375" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
+    <col customWidth="1" max="1024" min="1" style="1" width="13.17"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="1" s="2" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2349,7 +2552,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="2" s="2" spans="1:6">
       <c r="A2" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -2369,7 +2572,7 @@
         <v>2.22828711</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="3" s="2" spans="1:6">
       <c r="A3" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -2389,7 +2592,7 @@
         <v>0.79854378</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="4" s="2" spans="1:6">
       <c r="A4" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -2409,7 +2612,7 @@
         <v>3.37949811</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="5" s="2" spans="1:6">
       <c r="A5" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -2429,7 +2632,7 @@
         <v>1.18002035</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="6" s="2" spans="1:6">
       <c r="A6" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -2449,7 +2652,7 @@
         <v>4.73864834</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="7" s="2" spans="1:6">
       <c r="A7" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -2469,7 +2672,7 @@
         <v>3.83997741</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="8" s="2" spans="1:6">
       <c r="A8" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -2489,7 +2692,7 @@
         <v>3.02416657</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="9" s="2" spans="1:6">
       <c r="A9" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -2509,7 +2712,7 @@
         <v>2.16677506</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="10" s="2" spans="1:6">
       <c r="A10" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -2529,7 +2732,7 @@
         <v>3.05344342</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="11" s="2" spans="1:6">
       <c r="A11" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -2549,7 +2752,7 @@
         <v>0.50866335</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="12" s="2" spans="1:6">
       <c r="A12" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -2569,12 +2772,12 @@
         <v>1.26561256</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="13" s="2" spans="1:6">
       <c r="A13" s="1" t="n">
         <v>4.95</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>8.45</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>4.46497119</v>
@@ -2589,7 +2792,7 @@
         <v>3.49156529</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="14" s="2" spans="1:6">
       <c r="A14" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -2609,7 +2812,7 @@
         <v>4.17983981</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="15" s="2" spans="1:6">
       <c r="A15" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -2629,7 +2832,7 @@
         <v>5.29799647</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="16" s="2" spans="1:6">
       <c r="A16" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -2649,7 +2852,7 @@
         <v>6.41285383</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="17" s="2" spans="1:6">
       <c r="A17" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -2669,7 +2872,7 @@
         <v>8.17576425</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="18" s="2" spans="1:6">
       <c r="A18" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -2689,7 +2892,7 @@
         <v>7.56375198</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="19" s="2" spans="1:6">
       <c r="A19" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -2709,39 +2912,44 @@
         <v>9.31017965</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="24" s="2" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>97</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
+  <headerFooter differentFirst="0" differentOddEven="0">
+    <oddHeader>&amp;C&amp;"Sans,Regular"Times New Roman,Regular"2 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Sans,Regular"Times New Roman,Regular"2 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="13.18359375" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
+    <col customWidth="1" max="1024" min="1" style="1" width="13.17"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="1" s="2" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2761,7 +2969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="2" s="2" spans="1:6">
       <c r="A2" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -2781,7 +2989,7 @@
         <v>1.49236246</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="3" s="2" spans="1:6">
       <c r="A3" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -2801,7 +3009,7 @@
         <v>0.64302066</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="4" s="2" spans="1:6">
       <c r="A4" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -2821,7 +3029,7 @@
         <v>3.12112109</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="5" s="2" spans="1:6">
       <c r="A5" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -2841,7 +3049,7 @@
         <v>1.30781103</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="6" s="2" spans="1:6">
       <c r="A6" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -2861,7 +3069,7 @@
         <v>4.31194111</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="7" s="2" spans="1:6">
       <c r="A7" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -2881,7 +3089,7 @@
         <v>3.64908855</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="8" s="2" spans="1:6">
       <c r="A8" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -2901,7 +3109,7 @@
         <v>2.99516032</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="9" s="2" spans="1:6">
       <c r="A9" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -2921,7 +3129,7 @@
         <v>2.17252353</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="10" s="2" spans="1:6">
       <c r="A10" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -2941,7 +3149,7 @@
         <v>1.96676785</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="11" s="2" spans="1:6">
       <c r="A11" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -2961,7 +3169,7 @@
         <v>0.59765396</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="12" s="2" spans="1:6">
       <c r="A12" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -2981,12 +3189,12 @@
         <v>1.50156327</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="13" s="2" spans="1:6">
       <c r="A13" s="1" t="n">
         <v>4.95</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>8.45</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>4.56671957</v>
@@ -3001,7 +3209,7 @@
         <v>3.49377495</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="14" s="2" spans="1:6">
       <c r="A14" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -3021,7 +3229,7 @@
         <v>3.9510353</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="15" s="2" spans="1:6">
       <c r="A15" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -3041,7 +3249,7 @@
         <v>4.99605688</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="16" s="2" spans="1:6">
       <c r="A16" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -3061,7 +3269,7 @@
         <v>5.7488396</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="17" s="2" spans="1:6">
       <c r="A17" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -3078,10 +3286,10 @@
         <v>0.003613</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>8.06995181</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>8.069951809999999</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="18" s="2" spans="1:6">
       <c r="A18" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -3101,7 +3309,7 @@
         <v>7.316517</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="19" s="2" spans="1:6">
       <c r="A19" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -3118,46 +3326,51 @@
         <v>0.00499177</v>
       </c>
       <c r="F19" s="1" t="n">
-        <v>8.93349427</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>8.933494270000001</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="24" s="2" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>98</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
+  <headerFooter differentFirst="0" differentOddEven="0">
+    <oddHeader>&amp;C&amp;"Sans,Regular"Times New Roman,Regular"2 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Sans,Regular"Times New Roman,Regular"2 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A25" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="F19" activeCellId="1" pane="topLeft" sqref="A1:F1 F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="13.18359375" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="11.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17.64"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="1" width="11.52"/>
+    <col customWidth="1" max="2" min="1" style="1" width="13.17"/>
+    <col customWidth="1" max="4" min="3" style="1" width="13.65"/>
+    <col customWidth="1" max="5" min="5" style="1" width="13.33"/>
+    <col customWidth="1" max="6" min="6" style="1" width="20.16"/>
+    <col customWidth="1" max="1024" min="7" style="1" width="13.17"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="1" s="2" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3177,407 +3390,790 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="2" s="2" spans="1:6"/>
+    <row customHeight="1" ht="12.8" r="3" s="2" spans="1:6"/>
+    <row customHeight="1" ht="12.8" r="4" s="2" spans="1:6"/>
+    <row customHeight="1" ht="12.8" r="5" s="2" spans="1:6"/>
+    <row customHeight="1" ht="12.8" r="6" s="2" spans="1:6"/>
+    <row customHeight="1" ht="12.8" r="7" s="2" spans="1:6"/>
+    <row customHeight="1" ht="12.8" r="8" s="2" spans="1:6"/>
+    <row customHeight="1" ht="12.8" r="9" s="2" spans="1:6"/>
+    <row customHeight="1" ht="12.8" r="10" s="2" spans="1:6"/>
+    <row customHeight="1" ht="12.8" r="11" s="2" spans="1:6"/>
+    <row customHeight="1" ht="12.8" r="12" s="2" spans="1:6"/>
+    <row customHeight="1" ht="12.8" r="13" s="2" spans="1:6"/>
+    <row customHeight="1" ht="12.8" r="14" s="2" spans="1:6"/>
+    <row customHeight="1" ht="12.8" r="15" s="2" spans="1:6"/>
+    <row customHeight="1" ht="12.8" r="16" s="2" spans="1:6"/>
+    <row customHeight="1" ht="12.8" r="17" s="2" spans="1:6"/>
+    <row customHeight="1" ht="12.8" r="18" s="2" spans="1:6"/>
+    <row customHeight="1" ht="12.8" r="19" s="2" spans="1:6"/>
+    <row customHeight="1" ht="12.8" r="22" s="2" spans="1:6">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="25" s="2" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>172</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="26" s="2" spans="1:6">
+      <c r="A26" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>4.4664402</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>6.2508356</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>0.06011701</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>3.45704806</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="27" s="2" spans="1:6">
+      <c r="A27" s="1" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>3.87455345</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>3.79642531</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>0.02999973</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>0.54697668</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="28" s="2" spans="1:6">
+      <c r="A28" s="1" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>4.82738045</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>4.57320642</v>
+      </c>
+      <c r="E28" s="1" t="n">
+        <v>0.08188081</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <v>3.44189218</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="29" s="2" spans="1:6">
+      <c r="A29" s="1" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>5.31115351</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>6.35617067</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>0.05789256</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <v>3.12709579</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="30" s="2" spans="1:6">
+      <c r="A30" s="1" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>5.3770369</v>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>5.03956045</v>
+      </c>
+      <c r="E30" s="1" t="n">
+        <v>0.03123975</v>
+      </c>
+      <c r="F30" s="1" t="n">
+        <v>5.7583891</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="31" s="2" spans="1:6">
+      <c r="A31" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>4.69736044</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>4.83262718</v>
+      </c>
+      <c r="E31" s="1" t="n">
+        <v>0.0379765</v>
+      </c>
+      <c r="F31" s="1" t="n">
+        <v>4.61373848</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="32" s="2" spans="1:6">
+      <c r="A32" s="1" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>5.0291783</v>
+      </c>
+      <c r="D32" s="1" t="n">
+        <v>4.5685964</v>
+      </c>
+      <c r="E32" s="1" t="n">
+        <v>0.03633595</v>
+      </c>
+      <c r="F32" s="1" t="n">
+        <v>4.09217047</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="33" s="2" spans="1:6">
+      <c r="A33" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>4.11072885</v>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>5.36712233</v>
+      </c>
+      <c r="E33" s="1" t="n">
+        <v>0.02840447</v>
+      </c>
+      <c r="F33" s="1" t="n">
+        <v>1.44386766</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="34" s="2" spans="1:6">
+      <c r="A34" s="1" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>0.40326436</v>
+      </c>
+      <c r="D34" s="1" t="n">
+        <v>8.899430369999999</v>
+      </c>
+      <c r="E34" s="1" t="n">
+        <v>0.06985593</v>
+      </c>
+      <c r="F34" s="1" t="n">
+        <v>3.29444614</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="35" s="2" spans="1:6">
+      <c r="A35" s="1" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>3.93090674</v>
+      </c>
+      <c r="D35" s="1" t="n">
+        <v>5.59343413</v>
+      </c>
+      <c r="E35" s="1" t="n">
+        <v>0.09650207</v>
+      </c>
+      <c r="F35" s="1" t="n">
+        <v>0.26902035</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="36" s="2" spans="1:6">
+      <c r="A36" s="1" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="C36" s="1" t="n">
+        <v>5.46835439</v>
+      </c>
+      <c r="D36" s="1" t="n">
+        <v>6.01841648</v>
+      </c>
+      <c r="E36" s="1" t="n">
+        <v>0.03509092</v>
+      </c>
+      <c r="F36" s="1" t="n">
+        <v>1.2446576</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="37" s="2" spans="1:6">
+      <c r="A37" s="1" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>2.97677377</v>
+      </c>
+      <c r="D37" s="1" t="n">
+        <v>6.70142019</v>
+      </c>
+      <c r="E37" s="1" t="n">
+        <v>0.03629804</v>
+      </c>
+      <c r="F37" s="1" t="n">
+        <v>2.63650396</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="38" s="2" spans="1:6">
+      <c r="A38" s="1" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="C38" s="1" t="n">
+        <v>3.00388143</v>
+      </c>
+      <c r="D38" s="1" t="n">
+        <v>10.50956774</v>
+      </c>
+      <c r="E38" s="1" t="n">
+        <v>0.03683805</v>
+      </c>
+      <c r="F38" s="1" t="n">
+        <v>1.13703992</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="39" s="2" spans="1:6">
+      <c r="A39" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="C39" s="1" t="n">
+        <v>1.73768075</v>
+      </c>
+      <c r="D39" s="1" t="n">
+        <v>10.24369298</v>
+      </c>
+      <c r="E39" s="1" t="n">
+        <v>0.0420084</v>
+      </c>
+      <c r="F39" s="1" t="n">
+        <v>1.12628727</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="40" s="2" spans="1:6">
+      <c r="A40" s="1" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="C40" s="1" t="n">
+        <v>5.40569635</v>
+      </c>
+      <c r="D40" s="1" t="n">
+        <v>5.76276995</v>
+      </c>
+      <c r="E40" s="1" t="n">
+        <v>0.0320909</v>
+      </c>
+      <c r="F40" s="1" t="n">
+        <v>5.47752303</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="41" s="2" spans="1:6">
+      <c r="A41" s="1" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>1.49129688</v>
+      </c>
+      <c r="D41" s="1" t="n">
+        <v>10.54094837</v>
+      </c>
+      <c r="E41" s="1" t="n">
+        <v>0.05133963</v>
+      </c>
+      <c r="F41" s="1" t="n">
+        <v>2.97256593</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="42" s="2" spans="1:6">
+      <c r="A42" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="B42" s="1" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>2.47396821</v>
+      </c>
+      <c r="D42" s="1" t="n">
+        <v>10.75258837</v>
+      </c>
+      <c r="E42" s="1" t="n">
+        <v>0.11518288</v>
+      </c>
+      <c r="F42" s="1" t="n">
+        <v>1.62108528</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="43" s="2" spans="1:6">
+      <c r="A43" s="1" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>0.72698196</v>
+      </c>
+      <c r="D43" s="1" t="n">
+        <v>11.0588967</v>
+      </c>
+      <c r="E43" s="1" t="n">
+        <v>0.03807402</v>
+      </c>
+      <c r="F43" s="1" t="n">
+        <v>1.58710744</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="44" s="2" spans="1:6">
+      <c r="A44" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C44" s="1" t="n">
+        <v>4.4664402</v>
+      </c>
+      <c r="D44" s="1" t="n">
+        <v>6.2508356</v>
+      </c>
+      <c r="E44" s="1" t="n">
+        <v>0.03837395</v>
+      </c>
+      <c r="F44" s="1" t="n">
+        <v>3.45704806</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="45" s="2" spans="1:6">
+      <c r="A45" s="1" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="B45" s="1" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C45" s="1" t="n">
+        <v>3.87455345</v>
+      </c>
+      <c r="D45" s="1" t="n">
+        <v>3.79642531</v>
+      </c>
+      <c r="E45" s="1" t="n">
+        <v>0.01525521</v>
+      </c>
+      <c r="F45" s="1" t="n">
+        <v>0.54697668</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="46" s="2" spans="1:6">
+      <c r="A46" s="1" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B46" s="1" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C46" s="1" t="n">
+        <v>4.82738045</v>
+      </c>
+      <c r="D46" s="1" t="n">
+        <v>4.57320642</v>
+      </c>
+      <c r="E46" s="1" t="n">
+        <v>0.04147267</v>
+      </c>
+      <c r="F46" s="1" t="n">
+        <v>3.44189218</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="47" s="2" spans="1:6">
+      <c r="A47" s="1" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="B47" s="1" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C47" s="1" t="n">
+        <v>5.31115351</v>
+      </c>
+      <c r="D47" s="1" t="n">
+        <v>6.35617067</v>
+      </c>
+      <c r="E47" s="1" t="n">
+        <v>0.02908087</v>
+      </c>
+      <c r="F47" s="1" t="n">
+        <v>3.12709579</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="48" s="2" spans="1:6">
+      <c r="A48" s="1" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B48" s="1" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C48" s="1" t="n">
+        <v>5.3770369</v>
+      </c>
+      <c r="D48" s="1" t="n">
+        <v>5.03956045</v>
+      </c>
+      <c r="E48" s="1" t="n">
+        <v>0.01589751</v>
+      </c>
+      <c r="F48" s="1" t="n">
+        <v>5.7583891</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="49" s="2" spans="1:6">
+      <c r="A49" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="B49" s="1" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C49" s="1" t="n">
+        <v>4.69736044</v>
+      </c>
+      <c r="D49" s="1" t="n">
+        <v>4.83262718</v>
+      </c>
+      <c r="E49" s="1" t="n">
+        <v>0.01915622</v>
+      </c>
+      <c r="F49" s="1" t="n">
+        <v>4.61373848</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="50" s="2" spans="1:6">
+      <c r="A50" s="1" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="B50" s="1" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C50" s="1" t="n">
+        <v>5.0291783</v>
+      </c>
+      <c r="D50" s="1" t="n">
+        <v>4.5685964</v>
+      </c>
+      <c r="E50" s="1" t="n">
+        <v>0.01837683</v>
+      </c>
+      <c r="F50" s="1" t="n">
+        <v>4.09217047</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="51" s="2" spans="1:6">
+      <c r="A51" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="B51" s="1" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="C51" s="1" t="n">
+        <v>4.11072885</v>
+      </c>
+      <c r="D51" s="1" t="n">
+        <v>5.36712233</v>
+      </c>
+      <c r="E51" s="1" t="n">
+        <v>0.01466823</v>
+      </c>
+      <c r="F51" s="1" t="n">
+        <v>1.44386766</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="52" s="2" spans="1:6">
+      <c r="A52" s="1" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B52" s="1" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="C52" s="1" t="n">
+        <v>0.40326436</v>
+      </c>
+      <c r="D52" s="1" t="n">
+        <v>8.899430369999999</v>
+      </c>
+      <c r="E52" s="1" t="n">
+        <v>0.03537607</v>
+      </c>
+      <c r="F52" s="1" t="n">
+        <v>3.29444614</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="53" s="2" spans="1:6">
+      <c r="A53" s="1" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="B53" s="1" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="C53" s="1" t="n">
+        <v>3.93090674</v>
+      </c>
+      <c r="D53" s="1" t="n">
+        <v>5.59343413</v>
+      </c>
+      <c r="E53" s="1" t="n">
+        <v>0.04795027</v>
+      </c>
+      <c r="F53" s="1" t="n">
+        <v>0.26902035</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="54" s="2" spans="1:6">
+      <c r="A54" s="1" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="B54" s="1" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="C54" s="1" t="n">
+        <v>5.46835439</v>
+      </c>
+      <c r="D54" s="1" t="n">
+        <v>6.01841648</v>
+      </c>
+      <c r="E54" s="1" t="n">
+        <v>0.01784277</v>
+      </c>
+      <c r="F54" s="1" t="n">
+        <v>1.2446576</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="55" s="2" spans="1:6">
+      <c r="A55" s="1" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="B55" s="1" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="C55" s="1" t="n">
+        <v>2.97677377</v>
+      </c>
+      <c r="D55" s="1" t="n">
+        <v>6.70142019</v>
+      </c>
+      <c r="E55" s="1" t="n">
+        <v>0.01831198</v>
+      </c>
+      <c r="F55" s="1" t="n">
+        <v>2.63650396</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="56" s="2" spans="1:6">
+      <c r="A56" s="1" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="B56" s="1" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="C56" s="1" t="n">
+        <v>3.00388143</v>
+      </c>
+      <c r="D56" s="1" t="n">
+        <v>10.50956774</v>
+      </c>
+      <c r="E56" s="1" t="n">
+        <v>0.01858234</v>
+      </c>
+      <c r="F56" s="1" t="n">
+        <v>1.13703992</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="57" s="2" spans="1:6">
+      <c r="A57" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="B57" s="1" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="C57" s="1" t="n">
+        <v>1.73768075</v>
+      </c>
+      <c r="D57" s="1" t="n">
+        <v>10.24369298</v>
+      </c>
+      <c r="E57" s="1" t="n">
+        <v>0.02127004</v>
+      </c>
+      <c r="F57" s="1" t="n">
+        <v>1.12628727</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="58" s="2" spans="1:6">
+      <c r="A58" s="1" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B58" s="1" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="C58" s="1" t="n">
+        <v>5.40569635</v>
+      </c>
+      <c r="D58" s="1" t="n">
+        <v>5.76276995</v>
+      </c>
+      <c r="E58" s="1" t="n">
+        <v>0.01621985</v>
+      </c>
+      <c r="F58" s="1" t="n">
+        <v>5.47752303</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="59" s="2" spans="1:6">
+      <c r="A59" s="1" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="B59" s="1" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="C59" s="1" t="n">
+        <v>1.49129688</v>
+      </c>
+      <c r="D59" s="1" t="n">
+        <v>10.54094837</v>
+      </c>
+      <c r="E59" s="1" t="n">
+        <v>0.02586794</v>
+      </c>
+      <c r="F59" s="1" t="n">
+        <v>2.97256593</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="60" s="2" spans="1:6">
+      <c r="A60" s="1" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="B60" s="1" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="C60" s="1" t="n">
+        <v>2.47396821</v>
+      </c>
+      <c r="D60" s="1" t="n">
+        <v>10.75258837</v>
+      </c>
+      <c r="E60" s="1" t="n">
+        <v>0.05806613</v>
+      </c>
+      <c r="F60" s="1" t="n">
+        <v>1.62108528</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="61" s="2" spans="1:6">
+      <c r="A61" s="1" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B61" s="1" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="C61" s="1" t="n">
+        <v>0.72698196</v>
+      </c>
+      <c r="D61" s="1" t="n">
+        <v>11.0588967</v>
+      </c>
+      <c r="E61" s="1" t="n">
+        <v>0.01932955</v>
+      </c>
+      <c r="F61" s="1" t="n">
+        <v>1.58710744</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
+  <headerFooter differentFirst="0" differentOddEven="0">
+    <oddHeader>&amp;C&amp;"Sans,Regular"Times New Roman,Regular"2 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Sans,Regular"Times New Roman,Regular"2 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="I25" activeCellId="1" pane="topLeft" sqref="A1:F1 I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="13.18359375" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
+    <col customWidth="1" max="1024" min="1" style="1" width="13.17"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="1" s="2" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3597,7 +4193,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="2" s="2" spans="1:6">
       <c r="A2" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -3617,7 +4213,7 @@
         <v>2.97356064</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="3" s="2" spans="1:6">
       <c r="A3" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -3637,7 +4233,7 @@
         <v>0.43928391</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="4" s="2" spans="1:6">
       <c r="A4" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -3657,7 +4253,7 @@
         <v>3.52392768</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="5" s="2" spans="1:6">
       <c r="A5" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -3677,7 +4273,7 @@
         <v>1.43861954</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="6" s="2" spans="1:6">
       <c r="A6" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -3697,7 +4293,7 @@
         <v>5.00760973</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="7" s="2" spans="1:6">
       <c r="A7" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -3717,7 +4313,7 @@
         <v>3.67221864</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="8" s="2" spans="1:6">
       <c r="A8" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -3737,7 +4333,7 @@
         <v>2.83760787</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="9" s="2" spans="1:6">
       <c r="A9" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -3757,7 +4353,7 @@
         <v>1.84320294</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="10" s="2" spans="1:6">
       <c r="A10" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -3777,7 +4373,7 @@
         <v>3.66530505</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="11" s="2" spans="1:6">
       <c r="A11" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -3797,7 +4393,7 @@
         <v>0.85058678</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="12" s="2" spans="1:6">
       <c r="A12" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -3817,12 +4413,12 @@
         <v>3.53991277</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="13" s="2" spans="1:6">
       <c r="A13" s="1" t="n">
         <v>4.95</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>8.45</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>3.8441829</v>
@@ -3837,7 +4433,7 @@
         <v>3.18628493</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="14" s="2" spans="1:6">
       <c r="A14" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -3857,7 +4453,7 @@
         <v>1.20971342</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="15" s="2" spans="1:6">
       <c r="A15" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -3877,7 +4473,7 @@
         <v>5.77583963</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="16" s="2" spans="1:6">
       <c r="A16" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -3897,7 +4493,7 @@
         <v>6.95707568</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="17" s="2" spans="1:6">
       <c r="A17" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -3917,7 +4513,7 @@
         <v>8.5380041</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="18" s="2" spans="1:6">
       <c r="A18" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -3937,7 +4533,7 @@
         <v>7.42364374</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="19" s="2" spans="1:6">
       <c r="A19" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -3957,39 +4553,44 @@
         <v>10.18120322</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="s">
-        <v>173</v>
+    <row customHeight="1" ht="12.8" r="25" s="2" spans="1:6">
+      <c r="A25" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
+  <headerFooter differentFirst="0" differentOddEven="0">
+    <oddHeader>&amp;C&amp;"Sans,Regular"Times New Roman,Regular"2 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Sans,Regular"Times New Roman,Regular"2 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="F2" activeCellId="1" pane="topLeft" sqref="A1:F1 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="13.18359375" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
+    <col customWidth="1" max="1024" min="1" style="1" width="13.17"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="1" s="2" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4009,7 +4610,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="2" s="2" spans="1:6">
       <c r="A2" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -4029,7 +4630,7 @@
         <v>5.91835591</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="3" s="2" spans="1:6">
       <c r="A3" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -4049,7 +4650,7 @@
         <v>8.83736714</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="4" s="2" spans="1:6">
       <c r="A4" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -4069,7 +4670,7 @@
         <v>4.31532286</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="5" s="2" spans="1:6">
       <c r="A5" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -4089,7 +4690,7 @@
         <v>2.90220079</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="6" s="2" spans="1:6">
       <c r="A6" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -4109,7 +4710,7 @@
         <v>6.87909166</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="7" s="2" spans="1:6">
       <c r="A7" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -4129,7 +4730,7 @@
         <v>4.60771533</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="8" s="2" spans="1:6">
       <c r="A8" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -4149,7 +4750,7 @@
         <v>4.42252752</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="9" s="2" spans="1:6">
       <c r="A9" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -4169,7 +4770,7 @@
         <v>0.69492</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="10" s="2" spans="1:6">
       <c r="A10" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -4180,7 +4781,7 @@
         <v>0.36405818</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>8.98259748</v>
+        <v>8.982597480000001</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>0.00376177</v>
@@ -4189,7 +4790,7 @@
         <v>3.38626835</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="11" s="2" spans="1:6">
       <c r="A11" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -4209,7 +4810,7 @@
         <v>1.10080708</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="12" s="2" spans="1:6">
       <c r="A12" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -4229,12 +4830,12 @@
         <v>0.81511515</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="13" s="2" spans="1:6">
       <c r="A13" s="1" t="n">
         <v>4.95</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>8.45</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>2.03970931</v>
@@ -4249,7 +4850,7 @@
         <v>3.01296509</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="14" s="2" spans="1:6">
       <c r="A14" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -4269,7 +4870,7 @@
         <v>0.8333512</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="15" s="2" spans="1:6">
       <c r="A15" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -4283,13 +4884,13 @@
         <v>9.63272138</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>0.00932193</v>
+        <v>0.009321930000000001</v>
       </c>
       <c r="F15" s="1" t="n">
         <v>0.6352551</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="16" s="2" spans="1:6">
       <c r="A16" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -4309,7 +4910,7 @@
         <v>5.51083386</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="17" s="2" spans="1:6">
       <c r="A17" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -4329,7 +4930,7 @@
         <v>3.05967406</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="18" s="2" spans="1:6">
       <c r="A18" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -4349,7 +4950,7 @@
         <v>1.99951202</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="19" s="2" spans="1:6">
       <c r="A19" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -4369,39 +4970,453 @@
         <v>2.15156806</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="24" s="2" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>174</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
+  <headerFooter differentFirst="0" differentOddEven="0">
+    <oddHeader>&amp;C&amp;"Sans,Regular"Times New Roman,Regular"2 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Sans,Regular"Times New Roman,Regular"2 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.8" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetData>
+    <row customHeight="1" ht="12.8" r="1" s="2" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.97367551</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.540290260000001</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.02258015</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5.3469478</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3.71973821</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.45063787</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.00092745</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.2076835</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4.07607572</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.41909713</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.00097704</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3.2543549</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.80812814</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.30663068</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0009782300000000001</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5.49155069</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.89949638</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7.11491749</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.00096178</v>
+      </c>
+      <c r="F6" t="n">
+        <v>6.58455764</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2.93293443</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6.77001745</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.00088501</v>
+      </c>
+      <c r="F7" t="n">
+        <v>6.1227509</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.41712535</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6.87366873</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.00097752</v>
+      </c>
+      <c r="F8" t="n">
+        <v>6.38648434</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4.46855274</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5.93540793</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.00101161</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.72067371</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.01164686</v>
+      </c>
+      <c r="D10" t="n">
+        <v>7.94650988</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.00102425</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2.19154019</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3.97216588</v>
+      </c>
+      <c r="D11" t="n">
+        <v>6.05138425</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.0009992099999999999</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.23554218</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="B12" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="C12" t="n">
+        <v>4.08173702</v>
+      </c>
+      <c r="D12" t="n">
+        <v>6.45271342</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.00099277</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.11359291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="B13" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4.01398499</v>
+      </c>
+      <c r="D13" t="n">
+        <v>7.28250666</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.0009782300000000001</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.4963839</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="B14" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3.1640375</v>
+      </c>
+      <c r="D14" t="n">
+        <v>10.49186205</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.0009889600000000001</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.01039786</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="B15" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.5121747</v>
+      </c>
+      <c r="D15" t="n">
+        <v>9.867520560000001</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.00103903</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.26527713</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B16" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3.34584189</v>
+      </c>
+      <c r="D16" t="n">
+        <v>7.26621308</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.00093699</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3.00750348</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="B17" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.92099218</v>
+      </c>
+      <c r="D17" t="n">
+        <v>8.928023789999999</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.00088358</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3.54583935</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="B18" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2.71946381</v>
+      </c>
+      <c r="D18" t="n">
+        <v>10.52974377</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.00089741</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1.82051234</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B19" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.45508729</v>
+      </c>
+      <c r="D19" t="n">
+        <v>10.782431</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.00089574</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1.57964032</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
+  <headerFooter differentFirst="0" differentOddEven="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="13.18359375" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
+    <col customWidth="1" max="1024" min="1" style="1" width="13.17"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="1" s="2" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4421,7 +5436,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="2" s="2" spans="1:6">
       <c r="A2" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -4432,7 +5447,7 @@
         <v>3.94</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>9.54</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>0.000669956207275391</v>
@@ -4441,7 +5456,7 @@
         <v>6.40157793047933</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="3" s="2" spans="1:6">
       <c r="A3" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -4461,7 +5476,7 @@
         <v>1.13648581161403</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="4" s="2" spans="1:6">
       <c r="A4" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -4481,7 +5496,7 @@
         <v>1.8965494984313</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="5" s="2" spans="1:6">
       <c r="A5" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -4501,7 +5516,7 @@
         <v>1.70801053860917</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="6" s="2" spans="1:6">
       <c r="A6" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -4521,7 +5536,7 @@
         <v>3.9355431645454</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="7" s="2" spans="1:6">
       <c r="A7" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -4541,7 +5556,7 @@
         <v>1.89129585205488</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="8" s="2" spans="1:6">
       <c r="A8" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -4561,7 +5576,7 @@
         <v>4.3851567816898</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="9" s="2" spans="1:6">
       <c r="A9" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -4581,7 +5596,7 @@
         <v>2.00848201386022</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="10" s="2" spans="1:6">
       <c r="A10" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -4601,7 +5616,7 @@
         <v>4.97129761732287</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="11" s="2" spans="1:6">
       <c r="A11" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -4621,7 +5636,7 @@
         <v>1.51713545868522</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="12" s="2" spans="1:6">
       <c r="A12" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -4641,12 +5656,12 @@
         <v>3.30151480384384</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="13" s="2" spans="1:6">
       <c r="A13" s="1" t="n">
         <v>4.95</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>8.45</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>3.64</v>
@@ -4661,7 +5676,7 @@
         <v>4.18055020302352</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="14" s="2" spans="1:6">
       <c r="A14" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -4681,7 +5696,7 @@
         <v>2.18874393203042</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="15" s="2" spans="1:6">
       <c r="A15" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -4701,7 +5716,7 @@
         <v>2.0068383093812</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="16" s="2" spans="1:6">
       <c r="A16" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -4721,7 +5736,7 @@
         <v>7.5304714327856</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="17" s="2" spans="1:6">
       <c r="A17" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -4741,7 +5756,7 @@
         <v>2.54049207831869</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="18" s="2" spans="1:6">
       <c r="A18" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -4761,7 +5776,7 @@
         <v>1.07168092266309</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="19" s="2" spans="1:6">
       <c r="A19" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -4782,33 +5797,38 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
+  <headerFooter differentFirst="0" differentOddEven="0">
+    <oddHeader>&amp;C&amp;"Sans,Regular"Times New Roman,Regular"2 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Sans,Regular"Times New Roman,Regular"2 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="R1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="F2" activeCellId="1" pane="topLeft" sqref="A1:F1 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="13.18359375" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
+    <col customWidth="1" max="1024" min="1" style="1" width="13.17"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="1" s="2" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4828,7 +5848,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="2" s="2" spans="1:6">
       <c r="A2" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -4848,7 +5868,7 @@
         <v>4.40162435</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="3" s="2" spans="1:6">
       <c r="A3" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -4868,7 +5888,7 @@
         <v>1.12382778</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="4" s="2" spans="1:6">
       <c r="A4" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -4888,7 +5908,7 @@
         <v>4.16204441</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="5" s="2" spans="1:6">
       <c r="A5" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -4908,7 +5928,7 @@
         <v>5.20463514</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="6" s="2" spans="1:6">
       <c r="A6" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -4928,7 +5948,7 @@
         <v>6.52560436</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="7" s="2" spans="1:6">
       <c r="A7" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -4948,7 +5968,7 @@
         <v>5.52335407</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="8" s="2" spans="1:6">
       <c r="A8" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -4968,7 +5988,7 @@
         <v>5.707947</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="9" s="2" spans="1:6">
       <c r="A9" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -4988,7 +6008,7 @@
         <v>1.05585851</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="10" s="2" spans="1:6">
       <c r="A10" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -5008,7 +6028,7 @@
         <v>3.25412031</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="11" s="2" spans="1:6">
       <c r="A11" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -5028,7 +6048,7 @@
         <v>1.23724015</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="12" s="2" spans="1:6">
       <c r="A12" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -5048,12 +6068,12 @@
         <v>1.00588838</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="13" s="2" spans="1:6">
       <c r="A13" s="1" t="n">
         <v>4.95</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>8.45</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>1.32793015</v>
@@ -5068,7 +6088,7 @@
         <v>3.71387643</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="14" s="2" spans="1:6">
       <c r="A14" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -5088,7 +6108,7 @@
         <v>1.61092398</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="15" s="2" spans="1:6">
       <c r="A15" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -5099,7 +6119,7 @@
         <v>1.63317882</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>8.4413454</v>
+        <v>8.441345399999999</v>
       </c>
       <c r="E15" s="1" t="n">
         <v>0.00016832</v>
@@ -5108,7 +6128,7 @@
         <v>1.72042623</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="16" s="2" spans="1:6">
       <c r="A16" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -5128,7 +6148,7 @@
         <v>3.47857554</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="17" s="2" spans="1:6">
       <c r="A17" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -5148,7 +6168,7 @@
         <v>3.26952706</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="18" s="2" spans="1:6">
       <c r="A18" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -5159,7 +6179,7 @@
         <v>2.04097795</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>9.55734327</v>
+        <v>9.557343270000001</v>
       </c>
       <c r="E18" s="1" t="n">
         <v>0.00017786</v>
@@ -5168,7 +6188,7 @@
         <v>2.88125734</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="19" s="2" spans="1:6">
       <c r="A19" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -5189,33 +6209,38 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
+  <headerFooter differentFirst="0" differentOddEven="0">
+    <oddHeader>&amp;C&amp;"Sans,Regular"Times New Roman,Regular"2 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Sans,Regular"Times New Roman,Regular"2 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F1048576"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A26" activeCellId="1" pane="topLeft" sqref="A1:F1 A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="13.18359375" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
+    <col customWidth="1" max="1024" min="1" style="1" width="13.17"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="1" s="2" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5235,7 +6260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="2" s="2" spans="1:6">
       <c r="A2" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -5255,7 +6280,7 @@
         <v>4.69013274</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="3" s="2" spans="1:6">
       <c r="A3" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -5275,7 +6300,7 @@
         <v>0.94101552</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="4" s="2" spans="1:6">
       <c r="A4" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -5295,7 +6320,7 @@
         <v>2.99434241</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="5" s="2" spans="1:6">
       <c r="A5" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -5315,7 +6340,7 @@
         <v>4.70080099</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="6" s="2" spans="1:6">
       <c r="A6" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -5335,7 +6360,7 @@
         <v>6.42092654</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="7" s="2" spans="1:6">
       <c r="A7" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -5355,7 +6380,7 @@
         <v>5.3303506</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="8" s="2" spans="1:6">
       <c r="A8" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -5375,7 +6400,7 @@
         <v>5.98242071</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="9" s="2" spans="1:6">
       <c r="A9" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -5395,7 +6420,7 @@
         <v>1.16162591</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="10" s="2" spans="1:6">
       <c r="A10" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -5406,16 +6431,16 @@
         <v>0.53898672</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>9.30799205</v>
+        <v>9.307992049999999</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>0.00932479</v>
+        <v>0.009324789999999999</v>
       </c>
       <c r="F10" s="1" t="n">
         <v>3.63208749</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="11" s="2" spans="1:6">
       <c r="A11" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -5435,7 +6460,7 @@
         <v>1.68893629</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="12" s="2" spans="1:6">
       <c r="A12" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -5455,12 +6480,12 @@
         <v>0.77593208</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="13" s="2" spans="1:6">
       <c r="A13" s="1" t="n">
         <v>4.95</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>8.45</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>1.94973894</v>
@@ -5475,7 +6500,7 @@
         <v>3.12458326</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="14" s="2" spans="1:6">
       <c r="A14" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -5486,7 +6511,7 @@
         <v>2.24382624</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>9.72671314</v>
+        <v>9.726713139999999</v>
       </c>
       <c r="E14" s="1" t="n">
         <v>0.01599145</v>
@@ -5495,7 +6520,7 @@
         <v>1.60634256</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="15" s="2" spans="1:6">
       <c r="A15" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -5515,7 +6540,7 @@
         <v>1.59341805</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="16" s="2" spans="1:6">
       <c r="A16" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -5535,7 +6560,7 @@
         <v>4.24517221</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="17" s="2" spans="1:6">
       <c r="A17" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -5549,13 +6574,13 @@
         <v>9.67517026</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>0.00900173</v>
+        <v>0.009001729999999999</v>
       </c>
       <c r="F17" s="1" t="n">
         <v>3.793392</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="18" s="2" spans="1:6">
       <c r="A18" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -5575,7 +6600,7 @@
         <v>2.92280973</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="19" s="2" spans="1:6">
       <c r="A19" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -5595,7 +6620,7 @@
         <v>3.12668897</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="22" s="2" spans="1:6">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
@@ -5603,7 +6628,7 @@
         <v>465552</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="24" s="2" spans="1:6">
       <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
@@ -5611,40 +6636,45 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="26" s="2" spans="1:6">
       <c r="A26" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row customHeight="1" ht="12.8" r="1048576" s="2" spans="1:6"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
+  <headerFooter differentFirst="0" differentOddEven="0">
+    <oddHeader>&amp;C&amp;"Sans,Regular"Times New Roman,Regular"2 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Sans,Regular"Times New Roman,Regular"2 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F1048576"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="F2" activeCellId="1" pane="topLeft" sqref="A1:F1 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="13.18359375" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
+    <col customWidth="1" max="1024" min="1" style="1" width="13.17"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="1" s="2" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5664,7 +6694,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="2" s="2" spans="1:6">
       <c r="A2" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -5681,10 +6711,10 @@
         <v>0.00048065185546875</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>9.88862983430971</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>9.888629834309709</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="3" s="2" spans="1:6">
       <c r="A3" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -5704,7 +6734,7 @@
         <v>0.85146931829632</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="4" s="2" spans="1:6">
       <c r="A4" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -5724,7 +6754,7 @@
         <v>0.85146931829632</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="5" s="2" spans="1:6">
       <c r="A5" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -5744,7 +6774,7 @@
         <v>4.31566912540802</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="6" s="2" spans="1:6">
       <c r="A6" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -5764,7 +6794,7 @@
         <v>4.31566912540802</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="7" s="2" spans="1:6">
       <c r="A7" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -5784,7 +6814,7 @@
         <v>3.37120156620752</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="8" s="2" spans="1:6">
       <c r="A8" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -5804,7 +6834,7 @@
         <v>2.55440795488896</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="9" s="2" spans="1:6">
       <c r="A9" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -5824,7 +6854,7 @@
         <v>2.55440795488896</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="10" s="2" spans="1:6">
       <c r="A10" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -5844,7 +6874,7 @@
         <v>7.66061355245127</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="11" s="2" spans="1:6">
       <c r="A11" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -5864,7 +6894,7 @@
         <v>2.55440795488896</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="12" s="2" spans="1:6">
       <c r="A12" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -5884,12 +6914,12 @@
         <v>4.2573465914816</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="13" s="2" spans="1:6">
       <c r="A13" s="1" t="n">
         <v>4.95</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>8.45</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>4.4</v>
@@ -5904,7 +6934,7 @@
         <v>4.58312120721239</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="14" s="2" spans="1:6">
       <c r="A14" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -5924,7 +6954,7 @@
         <v>3.64485939372152</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="15" s="2" spans="1:6">
       <c r="A15" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -5944,7 +6974,7 @@
         <v>3.64485939372152</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="16" s="2" spans="1:6">
       <c r="A16" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -5964,7 +6994,7 @@
         <v>8.12065268312837</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="17" s="2" spans="1:6">
       <c r="A17" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -5984,7 +7014,7 @@
         <v>3.64485939372152</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="18" s="2" spans="1:6">
       <c r="A18" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -6004,7 +7034,7 @@
         <v>2.02607995893548</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="19" s="2" spans="1:6">
       <c r="A19" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -6024,35 +7054,40 @@
         <v>2.55440795488896</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row customHeight="1" ht="12.8" r="1048576" s="2" spans="1:6"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
+  <headerFooter differentFirst="0" differentOddEven="0">
+    <oddHeader>&amp;C&amp;"Sans,Regular"Times New Roman,Regular"2 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Sans,Regular"Times New Roman,Regular"2 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F1048576"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K11" activeCellId="0" sqref="K11"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="K11" activeCellId="1" pane="topLeft" sqref="A1:F1 K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="13.18359375" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
+    <col customWidth="1" max="1024" min="1" style="1" width="13.17"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="1" s="2" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6072,7 +7107,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="2" s="2" spans="1:6">
       <c r="A2" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -6092,7 +7127,7 @@
         <v>4.50422654693714</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="3" s="2" spans="1:6">
       <c r="A3" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -6106,13 +7141,13 @@
         <v>0.0561174089667693</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0.00911211967468262</v>
+        <v>0.009112119674682621</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>3.23054249462045</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="4" s="2" spans="1:6">
       <c r="A4" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -6132,7 +7167,7 @@
         <v>2.87245294105496</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="5" s="2" spans="1:6">
       <c r="A5" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -6152,7 +7187,7 @@
         <v>2.92368848531063</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="6" s="2" spans="1:6">
       <c r="A6" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -6172,7 +7207,7 @@
         <v>5.82760782309516</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="7" s="2" spans="1:6">
       <c r="A7" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -6192,7 +7227,7 @@
         <v>3.43342976012678</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="8" s="2" spans="1:6">
       <c r="A8" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -6212,7 +7247,7 @@
         <v>4.81924947986295</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="9" s="2" spans="1:6">
       <c r="A9" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -6232,7 +7267,7 @@
         <v>0.576463161572026</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="10" s="2" spans="1:6">
       <c r="A10" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -6252,7 +7287,7 @@
         <v>4.23514014549845</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="11" s="2" spans="1:6">
       <c r="A11" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -6272,7 +7307,7 @@
         <v>0.895075183429919</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="12" s="2" spans="1:6">
       <c r="A12" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -6292,12 +7327,12 @@
         <v>1.64313692350257</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="13" s="2" spans="1:6">
       <c r="A13" s="1" t="n">
         <v>4.95</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>8.45</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>3.47298668385036</v>
@@ -6312,7 +7347,7 @@
         <v>1.76065645299256</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="14" s="2" spans="1:6">
       <c r="A14" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -6332,7 +7367,7 @@
         <v>2.54272278402335</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="15" s="2" spans="1:6">
       <c r="A15" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -6343,7 +7378,7 @@
         <v>3.41318677229139</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>9.92737839403211</v>
+        <v>9.927378394032109</v>
       </c>
       <c r="E15" s="1" t="n">
         <v>0.00290751457214356</v>
@@ -6352,7 +7387,7 @@
         <v>0.686498208017827</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="16" s="2" spans="1:6">
       <c r="A16" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -6372,7 +7407,7 @@
         <v>4.84754539236819</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="17" s="2" spans="1:6">
       <c r="A17" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -6383,7 +7418,7 @@
         <v>2.23128711480651</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>9.89341394087952</v>
+        <v>9.893413940879521</v>
       </c>
       <c r="E17" s="1" t="n">
         <v>0.00282096862792969</v>
@@ -6392,7 +7427,7 @@
         <v>2.94194603460984</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="18" s="2" spans="1:6">
       <c r="A18" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -6412,7 +7447,7 @@
         <v>0.53752314801518</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="19" s="2" spans="1:6">
       <c r="A19" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -6432,35 +7467,40 @@
         <v>1.13945253614775</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row customHeight="1" ht="12.8" r="1048576" s="2" spans="1:6"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
+  <headerFooter differentFirst="0" differentOddEven="0">
+    <oddHeader>&amp;C&amp;"Sans,Regular"Times New Roman,Regular"2 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Sans,Regular"Times New Roman,Regular"2 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="F2" activeCellId="1" pane="topLeft" sqref="A1:F1 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="13.18359375" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
+    <col customWidth="1" max="1024" min="1" style="1" width="13.17"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="1" s="2" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6480,7 +7520,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="2" s="2" spans="1:6">
       <c r="A2" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -6500,7 +7540,7 @@
         <v>3.62200220872379</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="3" s="2" spans="1:6">
       <c r="A3" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -6520,7 +7560,7 @@
         <v>1.32774244490413</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="4" s="2" spans="1:6">
       <c r="A4" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -6540,7 +7580,7 @@
         <v>2.03651663386283</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="5" s="2" spans="1:6">
       <c r="A5" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -6560,7 +7600,7 @@
         <v>2.65994360842481</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="6" s="2" spans="1:6">
       <c r="A6" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -6580,7 +7620,7 @@
         <v>5.31507290636732</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="7" s="2" spans="1:6">
       <c r="A7" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -6600,7 +7640,7 @@
         <v>1.95816240388789</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="8" s="2" spans="1:6">
       <c r="A8" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -6620,7 +7660,7 @@
         <v>3.98527288902529</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="9" s="2" spans="1:6">
       <c r="A9" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -6640,7 +7680,7 @@
         <v>2.28600087489047</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="10" s="2" spans="1:6">
       <c r="A10" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -6651,7 +7691,7 @@
         <v>3.3</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>8.78</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>0.000477790832519531</v>
@@ -6660,7 +7700,7 @@
         <v>3.36264776626991</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="11" s="2" spans="1:6">
       <c r="A11" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -6680,7 +7720,7 @@
         <v>0.883911760301898</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="12" s="2" spans="1:6">
       <c r="A12" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -6691,7 +7731,7 @@
         <v>3.58</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>8.45</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="E12" s="1" t="n">
         <v>0.000476598739624023</v>
@@ -6700,12 +7740,12 @@
         <v>1.88862383761299</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="13" s="2" spans="1:6">
       <c r="A13" s="1" t="n">
         <v>4.95</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>8.45</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>3.58</v>
@@ -6720,7 +7760,7 @@
         <v>2.38314917703445</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="14" s="2" spans="1:6">
       <c r="A14" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -6740,7 +7780,7 @@
         <v>1.32774244490413</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="15" s="2" spans="1:6">
       <c r="A15" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -6760,7 +7800,7 @@
         <v>1.0463746938836</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="16" s="2" spans="1:6">
       <c r="A16" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -6780,7 +7820,7 @@
         <v>5.54661157825208</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="17" s="2" spans="1:6">
       <c r="A17" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -6800,7 +7840,7 @@
         <v>1.41155942134931</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="18" s="2" spans="1:6">
       <c r="A18" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -6820,7 +7860,7 @@
         <v>0.889550448260243</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="19" s="2" spans="1:6">
       <c r="A19" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -6840,7 +7880,7 @@
         <v>0.893196506934504</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="21" s="2" spans="1:6">
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
@@ -6851,7 +7891,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="22" s="2" spans="1:6">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
@@ -6860,33 +7900,38 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
+  <headerFooter differentFirst="0" differentOddEven="0">
+    <oddHeader>&amp;C&amp;"Sans,Regular"Times New Roman,Regular"2 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Sans,Regular"Times New Roman,Regular"2 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="F1" activeCellId="0" pane="topLeft" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="13.18359375" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
+    <col customWidth="1" max="1024" min="1" style="1" width="13.17"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="1" s="2" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6906,7 +7951,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="2" s="2" spans="1:6">
       <c r="A2" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -6926,7 +7971,7 @@
         <v>8.46788049041789</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="3" s="2" spans="1:6">
       <c r="A3" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -6946,7 +7991,7 @@
         <v>0.85146931829632</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="4" s="2" spans="1:6">
       <c r="A4" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -6966,7 +8011,7 @@
         <v>1.77341478509682</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="5" s="2" spans="1:6">
       <c r="A5" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -6986,7 +8031,7 @@
         <v>2.93981291921782</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="6" s="2" spans="1:6">
       <c r="A6" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -7006,7 +8051,7 @@
         <v>2.10059515376</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="7" s="2" spans="1:6">
       <c r="A7" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -7026,7 +8071,7 @@
         <v>3.04179223485103</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="8" s="2" spans="1:6">
       <c r="A8" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -7046,7 +8091,7 @@
         <v>3.07936681803256</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="9" s="2" spans="1:6">
       <c r="A9" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -7066,7 +8111,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="10" s="2" spans="1:6">
       <c r="A10" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -7086,7 +8131,7 @@
         <v>6.07823987680644</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="11" s="2" spans="1:6">
       <c r="A11" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -7106,7 +8151,7 @@
         <v>1.77341478509682</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="12" s="2" spans="1:6">
       <c r="A12" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -7126,12 +8171,12 @@
         <v>4.83993801613202</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="13" s="2" spans="1:6">
       <c r="A13" s="1" t="n">
         <v>4.95</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>8.45</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>4.4</v>
@@ -7146,7 +8191,7 @@
         <v>3.2962099447699</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="14" s="2" spans="1:6">
       <c r="A14" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -7166,7 +8211,7 @@
         <v>2.65753645318366</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="15" s="2" spans="1:6">
       <c r="A15" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -7186,7 +8231,7 @@
         <v>2.23886131772381</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="16" s="2" spans="1:6">
       <c r="A16" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -7206,7 +8251,7 @@
         <v>7.55463433926487</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="17" s="2" spans="1:6">
       <c r="A17" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -7226,7 +8271,7 @@
         <v>2.02607995893548</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="18" s="2" spans="1:6">
       <c r="A18" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -7246,7 +8291,7 @@
         <v>1.70293863659264</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="19" s="2" spans="1:6">
       <c r="A19" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -7267,33 +8312,38 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
+  <headerFooter differentFirst="0" differentOddEven="0">
+    <oddHeader>&amp;C&amp;"Sans,Regular"Times New Roman,Regular"2 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Sans,Regular"Times New Roman,Regular"2 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="F1" activeCellId="0" pane="topLeft" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="13.18359375" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
+    <col customWidth="1" max="1024" min="1" style="1" width="13.17"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="1" s="2" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7313,7 +8363,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="2" s="2" spans="1:6">
       <c r="A2" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -7333,7 +8383,7 @@
         <v>4.77445284823298</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="3" s="2" spans="1:6">
       <c r="A3" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -7353,7 +8403,7 @@
         <v>1.23490890352285</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="4" s="2" spans="1:6">
       <c r="A4" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -7373,7 +8423,7 @@
         <v>1.90420587122296</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="5" s="2" spans="1:6">
       <c r="A5" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -7393,7 +8443,7 @@
         <v>2.58213090295593</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="6" s="2" spans="1:6">
       <c r="A6" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -7413,7 +8463,7 @@
         <v>4.65842247976716</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="7" s="2" spans="1:6">
       <c r="A7" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -7433,7 +8483,7 @@
         <v>2.02071769428587</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="8" s="2" spans="1:6">
       <c r="A8" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -7453,7 +8503,7 @@
         <v>3.74862641510194</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="9" s="2" spans="1:6">
       <c r="A9" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -7473,7 +8523,7 @@
         <v>2.27378539004894</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="10" s="2" spans="1:6">
       <c r="A10" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -7493,7 +8543,7 @@
         <v>3.73530453912395</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="11" s="2" spans="1:6">
       <c r="A11" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -7513,7 +8563,7 @@
         <v>1.20353645561736</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="12" s="2" spans="1:6">
       <c r="A12" s="1" t="n">
         <v>4.95</v>
       </c>
@@ -7533,12 +8583,12 @@
         <v>2.92697796370249</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="13" s="2" spans="1:6">
       <c r="A13" s="1" t="n">
         <v>4.95</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>8.45</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>3.76</v>
@@ -7553,7 +8603,7 @@
         <v>2.85029823001032</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="14" s="2" spans="1:6">
       <c r="A14" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -7573,7 +8623,7 @@
         <v>1.63012269476871</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="15" s="2" spans="1:6">
       <c r="A15" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -7593,7 +8643,7 @@
         <v>1.3877319625922</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="16" s="2" spans="1:6">
       <c r="A16" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -7613,7 +8663,7 @@
         <v>6.07783678622584</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="17" s="2" spans="1:6">
       <c r="A17" s="1" t="n">
         <v>3.85</v>
       </c>
@@ -7633,7 +8683,7 @@
         <v>2.47872951327893</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="18" s="2" spans="1:6">
       <c r="A18" s="1" t="n">
         <v>2.75</v>
       </c>
@@ -7653,7 +8703,7 @@
         <v>1.02396288995256</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="19" s="2" spans="1:6">
       <c r="A19" s="1" t="n">
         <v>1.65</v>
       </c>
@@ -7674,12 +8724,16 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
+  <headerFooter differentFirst="0" differentOddEven="0">
+    <oddHeader>&amp;C&amp;"Sans,Regular"Times New Roman,Regular"2 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Sans,Regular"Times New Roman,Regular"2 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
--- a/Data/methods.xlsx
+++ b/Data/methods.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="WeightedFingerKnn3" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,6 +23,7 @@
     <sheet name="MultPoly4" sheetId="13" state="visible" r:id="rId14"/>
     <sheet name="MultPoly6" sheetId="14" state="visible" r:id="rId15"/>
     <sheet name="HyperbolicAlgoPoly" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="MultPoly4(2)" sheetId="16" state="visible" r:id="rId17"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Sheet_Title" vbProcedure="false">"WeightedFingerKnn3"</definedName>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="104">
   <si>
     <t xml:space="preserve">Real X</t>
   </si>
@@ -113,6 +114,255 @@
   </si>
   <si>
     <t xml:space="preserve">With all sensors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.08674558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50634367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00310111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89254384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-3.99116359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.69873833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00292349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.52670924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.70005705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10725363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0021739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51676585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75627185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49495258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00806117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34361953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.80884341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79664905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0149188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55781076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78250142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95221574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00405669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75816376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.39532146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40290562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00674319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14973268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72561167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81990552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00301528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41070485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.77058471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94326861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00366926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92779086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51023827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91612404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.01206994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.571207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79927353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14343766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00280952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84928517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25478062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47780961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.006212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86519836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59288858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.07185629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00583148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.41194387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85629244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41914101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.01136184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.95298524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83406572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86959677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00605702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70648186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.38410373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6775777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00285053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37656005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79072875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.23491461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00559258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1154775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.04186554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.00471902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00626588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8918423</t>
   </si>
 </sst>
 </file>
@@ -187,7 +437,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -197,6 +447,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -627,7 +881,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J22" activeCellId="0" sqref="J22"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1039,7 +1293,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1862,7 +2116,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H25" activeCellId="0" sqref="H25"/>
+      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2273,8 +2527,8 @@
   </sheetPr>
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K7" activeCellId="0" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2686,7 +2940,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3081,6 +3335,413 @@
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -3093,7 +3754,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3934,7 +4595,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K11" activeCellId="0" sqref="K11"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4341,8 +5002,8 @@
   </sheetPr>
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4772,8 +5433,8 @@
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5188,7 +5849,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Data/methods.xlsx
+++ b/Data/methods.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="WeightedFingerKnn3" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,6 +24,9 @@
     <sheet name="MultPoly6" sheetId="14" state="visible" r:id="rId15"/>
     <sheet name="HyperbolicAlgoPoly" sheetId="15" state="visible" r:id="rId16"/>
     <sheet name="MultPoly4(2)" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="Exp2_1" sheetId="17" state="visible" r:id="rId18"/>
+    <sheet name="Exp2_2" sheetId="18" state="visible" r:id="rId19"/>
+    <sheet name="CirculaAlgo_exp2" sheetId="19" state="visible" r:id="rId20"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Sheet_Title" vbProcedure="false">"WeightedFingerKnn3"</definedName>
@@ -51,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="116">
   <si>
     <t xml:space="preserve">Real X</t>
   </si>
@@ -363,6 +366,42 @@
   </si>
   <si>
     <t xml:space="preserve">2.8918423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 comb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 comb </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 comb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 comb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 comb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 comb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05</t>
   </si>
 </sst>
 </file>
@@ -437,20 +476,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2527,7 +2558,7 @@
   </sheetPr>
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K7" activeCellId="0" sqref="K7"/>
     </sheetView>
   </sheetViews>
@@ -3347,15 +3378,422 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3375,364 +3813,392 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>103</v>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>0.000127315521240234</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>0.000146389007568359</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>0.000161409378051758</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>0.000157833099365234</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>0.000150203704833984</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>0.000178337097167969</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>0.000189065933227539</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>0.000161647796630859</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>0.000160694122314453</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>0.000166654586791992</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>-3.22</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>-1.84</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>0.000163078308105469</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>0.000164270401000977</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>-1.38</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>-1.42</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>0.000164031982421875</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>-1.38</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>0.000162124633789063</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>-1.38</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>0.000166893005371094</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>-3.22</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>-2.76</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>0.000162124633789063</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>0.000162601470947266</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>3.79</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -3740,8 +4206,782 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>9.48905944824219E-005</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>0.000108957290649414</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>0.000128269195556641</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>0.000115633010864258</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>0.00013422966003418</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>-1.23</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>0.000117301940917969</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>0.000105381011962891</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>0.000106096267700195</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>0.000103950500488281</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>0.000112295150756836</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>-3.22</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>-1.53</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>0.0001068115234375</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>-1.84</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>0.000115156173706055</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>-1.38</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>-1.84</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>0.000100135803222656</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>-1.38</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>-2.15</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>0.000102758407592773</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>-1.38</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>9.87052917480469E-005</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>-3.22</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>-2.45</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>0.000100612640380859</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>0.000114917755126953</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>1.71</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>0.94904648</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>1.66322989</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>0.003582</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>1.28791592</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>0.80619328</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>2.21988166</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>0.00297976</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>1.09327139</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>1.56691112</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>0.14336719</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>0.00305986</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>1.14194521</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>1.207565</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>1.84645132</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>0.004215</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>1.7186473</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>1.19585151</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>2.00741809</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>0.00419378</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>0.0084993</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>1.35476776</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>2.09104373</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>0.0016613</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>0.65162382</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>0.70510793</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>1.33396134</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>0.00253844</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>2.19822207</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>0.64418817</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>3.26697104</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>0.00350285</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>0.72593991</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>1.60375047</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>3.57586249</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>0.00135636</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>0.87119246</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>1.966021</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>2.7367203</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>0.00218797</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>0.83637628</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>-3.22</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>-3.84862181</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>4.89549848</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>0.00534058</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>0.6497893</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>0.07843559</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>4.32139455</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>0.00485182</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>2.49048065</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>-1.38</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>0.77487357</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>4.73641415</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>0.00290418</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>2.17903371</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>-1.38</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>-0.74572898</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>2.59692322</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>0.00367188</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>1.37229802</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>-1.38</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>-0.27718182</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>2.65543448</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>0.00492501</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>1.15868098</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>-3.22</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>-0.7220032</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>2.5390597</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>0.00568318</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>2.5094098</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>0.33697282</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>2.62681083</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>0.00129437</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>2.65714715</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -5410,7 +6650,7 @@
         <v>1124085</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>13</v>
       </c>
@@ -5823,7 +7063,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F21" s="1" t="s">

--- a/Data/methods.xlsx
+++ b/Data/methods.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="18"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="WeightedFingerKnn3" sheetId="1" state="visible" r:id="rId2"/>
@@ -408,8 +408,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -476,12 +477,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -505,7 +510,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
+      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="A2:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -912,7 +917,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="A2:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1324,7 +1329,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
+      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="A2:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1736,7 +1741,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
+      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="A2:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2147,7 +2152,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
+      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="A2:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2559,7 +2564,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K7" activeCellId="0" sqref="K7"/>
+      <selection pane="topLeft" activeCell="K7" activeCellId="1" sqref="A2:F19 K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2971,7 +2976,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="A2:F19 F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3378,7 +3383,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="A2:F19 F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3785,7 +3790,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="A2:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4220,7 +4225,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="A2:F19 F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4606,8 +4611,8 @@
   </sheetPr>
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G8" activeCellId="1" sqref="A2:F19 G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4994,7 +4999,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="A2:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5406,7 +5411,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="A2:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5834,8 +5839,8 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="A2:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5870,10 +5875,10 @@
       <c r="B2" s="1" t="n">
         <v>3.25</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="2" t="n">
         <v>3.05280745269006</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" s="2" t="n">
         <v>7.74403654109851</v>
       </c>
       <c r="E2" s="1" t="n">
@@ -5890,10 +5895,10 @@
       <c r="B3" s="1" t="n">
         <v>3.25</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="2" t="n">
         <v>4.33530279645122</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="2" t="n">
         <v>0.0561174089667693</v>
       </c>
       <c r="E3" s="1" t="n">
@@ -5910,10 +5915,10 @@
       <c r="B4" s="1" t="n">
         <v>3.25</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="2" t="n">
         <v>2.27142375386722</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D4" s="2" t="n">
         <v>6.0544283582764</v>
       </c>
       <c r="E4" s="1" t="n">
@@ -5930,10 +5935,10 @@
       <c r="B5" s="1" t="n">
         <v>3.25</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="2" t="n">
         <v>4.13850330395518</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D5" s="2" t="n">
         <v>6.05881246640753</v>
       </c>
       <c r="E5" s="1" t="n">
@@ -5950,10 +5955,10 @@
       <c r="B6" s="1" t="n">
         <v>0.65</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="2" t="n">
         <v>2.63058251940124</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D6" s="2" t="n">
         <v>6.39451659084074</v>
       </c>
       <c r="E6" s="1" t="n">
@@ -5970,10 +5975,10 @@
       <c r="B7" s="1" t="n">
         <v>0.65</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="2" t="n">
         <v>3.74858833158184</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D7" s="2" t="n">
         <v>3.93500551928803</v>
       </c>
       <c r="E7" s="1" t="n">
@@ -5990,10 +5995,10 @@
       <c r="B8" s="1" t="n">
         <v>0.65</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="2" t="n">
         <v>2.86056968123727</v>
       </c>
-      <c r="D8" s="1" t="n">
+      <c r="D8" s="2" t="n">
         <v>5.3665870280821</v>
       </c>
       <c r="E8" s="1" t="n">
@@ -6010,10 +6015,10 @@
       <c r="B9" s="1" t="n">
         <v>5.85</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C9" s="2" t="n">
         <v>3.04332824107064</v>
       </c>
-      <c r="D9" s="1" t="n">
+      <c r="D9" s="2" t="n">
         <v>6.34625428929131</v>
       </c>
       <c r="E9" s="1" t="n">
@@ -6030,10 +6035,10 @@
       <c r="B10" s="1" t="n">
         <v>5.85</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="2" t="n">
         <v>2.13730878905064</v>
       </c>
-      <c r="D10" s="1" t="n">
+      <c r="D10" s="2" t="n">
         <v>10.0570110763019</v>
       </c>
       <c r="E10" s="1" t="n">
@@ -6050,10 +6055,10 @@
       <c r="B11" s="1" t="n">
         <v>5.85</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C11" s="2" t="n">
         <v>3.11826708148907</v>
       </c>
-      <c r="D11" s="1" t="n">
+      <c r="D11" s="2" t="n">
         <v>6.36548668262097</v>
       </c>
       <c r="E11" s="1" t="n">
@@ -6070,10 +6075,10 @@
       <c r="B12" s="1" t="n">
         <v>7.15</v>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="C12" s="2" t="n">
         <v>3.33646921858654</v>
       </c>
-      <c r="D12" s="1" t="n">
+      <c r="D12" s="2" t="n">
         <v>7.46051146002809</v>
       </c>
       <c r="E12" s="1" t="n">
@@ -6090,10 +6095,10 @@
       <c r="B13" s="1" t="n">
         <v>8.45</v>
       </c>
-      <c r="C13" s="1" t="n">
+      <c r="C13" s="2" t="n">
         <v>3.47298668385036</v>
       </c>
-      <c r="D13" s="1" t="n">
+      <c r="D13" s="2" t="n">
         <v>7.49169795503661</v>
       </c>
       <c r="E13" s="1" t="n">
@@ -6110,10 +6115,10 @@
       <c r="B14" s="1" t="n">
         <v>9.75</v>
       </c>
-      <c r="C14" s="1" t="n">
+      <c r="C14" s="2" t="n">
         <v>3.55977223487219</v>
       </c>
-      <c r="D14" s="1" t="n">
+      <c r="D14" s="2" t="n">
         <v>12.2761051048483</v>
       </c>
       <c r="E14" s="1" t="n">
@@ -6130,10 +6135,10 @@
       <c r="B15" s="1" t="n">
         <v>9.75</v>
       </c>
-      <c r="C15" s="1" t="n">
+      <c r="C15" s="2" t="n">
         <v>3.41318677229139</v>
       </c>
-      <c r="D15" s="1" t="n">
+      <c r="D15" s="2" t="n">
         <v>9.92737839403211</v>
       </c>
       <c r="E15" s="1" t="n">
@@ -6150,10 +6155,10 @@
       <c r="B16" s="1" t="n">
         <v>9.75</v>
       </c>
-      <c r="C16" s="1" t="n">
+      <c r="C16" s="2" t="n">
         <v>3.99038490356136</v>
       </c>
-      <c r="D16" s="1" t="n">
+      <c r="D16" s="2" t="n">
         <v>5.50485043440727</v>
       </c>
       <c r="E16" s="1" t="n">
@@ -6170,10 +6175,10 @@
       <c r="B17" s="1" t="n">
         <v>12.35</v>
       </c>
-      <c r="C17" s="1" t="n">
+      <c r="C17" s="2" t="n">
         <v>2.23128711480651</v>
       </c>
-      <c r="D17" s="1" t="n">
+      <c r="D17" s="2" t="n">
         <v>9.89341394087952</v>
       </c>
       <c r="E17" s="1" t="n">
@@ -6190,10 +6195,10 @@
       <c r="B18" s="1" t="n">
         <v>12.35</v>
       </c>
-      <c r="C18" s="1" t="n">
+      <c r="C18" s="2" t="n">
         <v>3.03673746562116</v>
       </c>
-      <c r="D18" s="1" t="n">
+      <c r="D18" s="2" t="n">
         <v>11.8953432498452</v>
       </c>
       <c r="E18" s="1" t="n">
@@ -6210,10 +6215,10 @@
       <c r="B19" s="1" t="n">
         <v>12.35</v>
       </c>
-      <c r="C19" s="1" t="n">
+      <c r="C19" s="2" t="n">
         <v>2.53598869429032</v>
       </c>
-      <c r="D19" s="1" t="n">
+      <c r="D19" s="2" t="n">
         <v>11.6334973023615</v>
       </c>
       <c r="E19" s="1" t="n">
@@ -6243,7 +6248,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="A2:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6674,7 +6679,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
+      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="A2:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7089,7 +7094,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="A2:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7502,7 +7507,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
+      <selection pane="topLeft" activeCell="A22" activeCellId="1" sqref="A2:F19 A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7909,7 +7914,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="A2:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Data/methods.xlsx
+++ b/Data/methods.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="WeightedFingerKnn3" sheetId="1" state="visible" r:id="rId2"/>
@@ -510,7 +510,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="A2:F19"/>
+      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F2:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -917,7 +917,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="A2:F19"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1329,7 +1329,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="A2:F19"/>
+      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F2:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1740,8 +1740,8 @@
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="A2:F19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2152,7 +2152,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="A2:F19"/>
+      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F2:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2564,7 +2564,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K7" activeCellId="1" sqref="A2:F19 K7"/>
+      <selection pane="topLeft" activeCell="K7" activeCellId="1" sqref="F2:F19 K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2976,7 +2976,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="A2:F19 F1"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="1" sqref="F2:F19 E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3383,7 +3383,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="A2:F19 F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="F2:F19 F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3790,7 +3790,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="A2:F19"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4225,7 +4225,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="A2:F19 F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="F2:F19 F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4612,7 +4612,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G8" activeCellId="1" sqref="A2:F19 G8"/>
+      <selection pane="topLeft" activeCell="G8" activeCellId="1" sqref="F2:F19 G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4999,7 +4999,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="A2:F19"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="1" sqref="F2:F19 E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5411,7 +5411,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="A2:F19"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="1" sqref="F2:F19 E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5839,8 +5839,8 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="A2:F19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="1" sqref="F2:F19 E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6248,7 +6248,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="A2:F19"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="1" sqref="F2:F19 E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6679,7 +6679,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="A2:F19"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="1" sqref="F2:F19 E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7094,7 +7094,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="A2:F19"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="1" sqref="F2:F19 E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7507,7 +7507,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A22" activeCellId="1" sqref="A2:F19 A22"/>
+      <selection pane="topLeft" activeCell="A22" activeCellId="1" sqref="F2:F19 A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7914,7 +7914,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="A2:F19"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="1" sqref="F2:F19 E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
